--- a/crear_hc/crearIndividualfinal.xlsx
+++ b/crear_hc/crearIndividualfinal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\validatorsGesi\crear_hc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perfil\Documentos\validatorsGesi\crear_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9CE285-051D-4FCD-B4D9-B98F2A6AF55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1DB24F-99F5-4F5D-B06D-39D567797F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E1DA38D-84A9-4484-9C3F-DE72970EE216}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E1DA38D-84A9-4484-9C3F-DE72970EE216}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="5" r:id="rId1"/>
@@ -26,22 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6722" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6750" uniqueCount="145">
   <si>
     <t>1608-Enfermero</t>
   </si>
@@ -467,6 +457,15 @@
   </si>
   <si>
     <t>Gestión del Riesgo en Salud Mental (2024)-Educativo</t>
+  </si>
+  <si>
+    <t>ANDREA BARBOSA</t>
+  </si>
+  <si>
+    <t>DIANA PAOLA BARRERA</t>
+  </si>
+  <si>
+    <t>LORENA TORRES</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1025,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1090,6 +1089,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1445,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3929B7C0-7F9D-42E7-ADAB-474CC0CA7F65}">
-  <dimension ref="A1:F257"/>
+  <dimension ref="A1:F264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,20 +1459,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1100345782</v>
+      <c r="A1" s="23">
+        <v>1010346724</v>
       </c>
       <c r="B1" s="1">
-        <v>45510</v>
+        <v>45545</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
         <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -1480,19 +1480,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1100345783</v>
+        <v>1110346596</v>
       </c>
       <c r="B2" s="1">
-        <v>45510</v>
+        <v>45546</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -1500,19 +1500,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1100345784</v>
+        <v>1110346600</v>
       </c>
       <c r="B3" s="1">
-        <v>45510</v>
+        <v>45546</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
@@ -1520,19 +1520,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1100345785</v>
+        <v>1110346581</v>
       </c>
       <c r="B4" s="1">
-        <v>45510</v>
+        <v>45544</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -1540,19 +1540,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1100345786</v>
+        <v>1110346580</v>
       </c>
       <c r="B5" s="1">
-        <v>45510</v>
+        <v>45544</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -1560,19 +1560,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1100345787</v>
+        <v>1110346599</v>
       </c>
       <c r="B6" s="1">
-        <v>45510</v>
+        <v>45546</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
@@ -1580,19 +1580,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1100345788</v>
+        <v>1010346597</v>
       </c>
       <c r="B7" s="1">
-        <v>45510</v>
+        <v>45546</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
@@ -1600,19 +1600,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1100345789</v>
+        <v>1110346594</v>
       </c>
       <c r="B8" s="1">
-        <v>45510</v>
+        <v>45545</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
@@ -1620,19 +1620,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1020345790</v>
+        <v>1010346662</v>
       </c>
       <c r="B9" s="1">
-        <v>45510</v>
+        <v>45547</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
@@ -1640,19 +1640,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1020345791</v>
+        <v>1020346575</v>
       </c>
       <c r="B10" s="1">
-        <v>45510</v>
+        <v>45544</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
@@ -1660,19 +1660,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1020345792</v>
+        <v>1110346598</v>
       </c>
       <c r="B11" s="1">
-        <v>45512</v>
+        <v>45546</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
@@ -1680,19 +1680,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1100345793</v>
+        <v>1110346601</v>
       </c>
       <c r="B12" s="1">
-        <v>45513</v>
+        <v>45546</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
@@ -1700,19 +1700,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1100345794</v>
+        <v>1120346603</v>
       </c>
       <c r="B13" s="1">
-        <v>45513</v>
+        <v>45546</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
@@ -1720,19 +1720,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1100345795</v>
+        <v>1100346664</v>
       </c>
       <c r="B14" s="1">
-        <v>45513</v>
+        <v>45547</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
@@ -1740,19 +1740,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1100345504</v>
+        <v>1120346602</v>
       </c>
       <c r="B15" s="1">
-        <v>45509</v>
+        <v>45546</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -1760,19 +1760,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1100345506</v>
+        <v>1020346576</v>
       </c>
       <c r="B16" s="1">
-        <v>45509</v>
+        <v>45544</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
@@ -1780,19 +1780,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1100345507</v>
+        <v>1120346670</v>
       </c>
       <c r="B17" s="1">
-        <v>45509</v>
+        <v>45546</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
@@ -1800,19 +1800,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1100345508</v>
+        <v>1120346669</v>
       </c>
       <c r="B18" s="1">
-        <v>45509</v>
+        <v>45547</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
@@ -1820,19 +1820,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1100345509</v>
+        <v>1120346668</v>
       </c>
       <c r="B19" s="1">
-        <v>45509</v>
+        <v>45547</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
@@ -1840,19 +1840,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1100345510</v>
+        <v>1110346678</v>
       </c>
       <c r="B20" s="1">
-        <v>45509</v>
+        <v>45548</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
@@ -1860,19 +1860,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1100345511</v>
+        <v>1110346677</v>
       </c>
       <c r="B21" s="1">
-        <v>45509</v>
+        <v>45548</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
@@ -1880,19 +1880,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1100345512</v>
+        <v>1100346665</v>
       </c>
       <c r="B22" s="1">
-        <v>45509</v>
+        <v>45547</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
         <v>0</v>
@@ -1900,19 +1900,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1100345505</v>
+        <v>1110346679</v>
       </c>
       <c r="B23" s="1">
-        <v>45509</v>
+        <v>45548</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
@@ -1920,19 +1920,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1100345538</v>
+        <v>1020346577</v>
       </c>
       <c r="B24" s="1">
-        <v>45512</v>
+        <v>45544</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
@@ -1940,19 +1940,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1100345539</v>
+        <v>1110346680</v>
       </c>
       <c r="B25" s="1">
-        <v>45512</v>
+        <v>45548</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
         <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
         <v>0</v>
@@ -1960,19 +1960,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1100345540</v>
+        <v>1100346663</v>
       </c>
       <c r="B26" s="1">
-        <v>45512</v>
+        <v>45547</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
         <v>0</v>
@@ -1980,19 +1980,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1100345541</v>
+        <v>1100346672</v>
       </c>
       <c r="B27" s="1">
-        <v>45512</v>
+        <v>45548</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
         <v>0</v>
@@ -2000,19 +2000,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1100345542</v>
+        <v>1020346586</v>
       </c>
       <c r="B28" s="1">
-        <v>45512</v>
+        <v>45545</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -2020,19 +2020,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1100345543</v>
+        <v>1110346681</v>
       </c>
       <c r="B29" s="1">
-        <v>45512</v>
+        <v>45548</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
         <v>0</v>
@@ -2040,19 +2040,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1100345544</v>
+        <v>1110346671</v>
       </c>
       <c r="B30" s="1">
-        <v>45512</v>
+        <v>45548</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
@@ -2060,19 +2060,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1100345545</v>
+        <v>1010346676</v>
       </c>
       <c r="B31" s="1">
-        <v>45512</v>
+        <v>45549</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
@@ -2080,19 +2080,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1100345546</v>
+        <v>1020346587</v>
       </c>
       <c r="B32" s="1">
-        <v>45512</v>
+        <v>45545</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
         <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -2100,19 +2100,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1100345744</v>
+        <v>1110346604</v>
       </c>
       <c r="B33" s="1">
-        <v>45513</v>
+        <v>45546</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
         <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
@@ -2120,19 +2120,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1100345745</v>
+        <v>1010346675</v>
       </c>
       <c r="B34" s="1">
-        <v>45513</v>
+        <v>45549</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
         <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -2140,19 +2140,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1100345746</v>
+        <v>1020346588</v>
       </c>
       <c r="B35" s="1">
-        <v>45513</v>
+        <v>45545</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
         <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
@@ -2160,19 +2160,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1100345747</v>
+        <v>1010346584</v>
       </c>
       <c r="B36" s="1">
-        <v>45513</v>
+        <v>45545</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
         <v>0</v>
@@ -2180,19 +2180,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1100345748</v>
+        <v>1110346570</v>
       </c>
       <c r="B37" s="1">
-        <v>45513</v>
+        <v>45544</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -2200,19 +2200,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1100345749</v>
+        <v>1110346607</v>
       </c>
       <c r="B38" s="1">
-        <v>45513</v>
+        <v>45546</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
@@ -2220,19 +2220,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1100345750</v>
+        <v>1110346606</v>
       </c>
       <c r="B39" s="1">
-        <v>45513</v>
+        <v>45546</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -2240,19 +2240,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1100345751</v>
+        <v>1120346566</v>
       </c>
       <c r="B40" s="1">
-        <v>45513</v>
+        <v>45544</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
@@ -2260,19 +2260,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1100345752</v>
+        <v>1120346567</v>
       </c>
       <c r="B41" s="1">
-        <v>45513</v>
+        <v>45544</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
@@ -2280,19 +2280,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1100345496</v>
+        <v>1010346727</v>
       </c>
       <c r="B42" s="1">
-        <v>45509</v>
+        <v>45545</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
@@ -2300,19 +2300,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1100345497</v>
+        <v>1010346568</v>
       </c>
       <c r="B43" s="1">
-        <v>45509</v>
+        <v>45544</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -2320,19 +2320,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1100345498</v>
+        <v>1110346573</v>
       </c>
       <c r="B44" s="1">
-        <v>45509</v>
+        <v>45544</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -2340,19 +2340,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1100345499</v>
+        <v>1110346571</v>
       </c>
       <c r="B45" s="1">
-        <v>45509</v>
+        <v>45544</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
         <v>0</v>
@@ -2360,19 +2360,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1100345500</v>
+        <v>1110346574</v>
       </c>
       <c r="B46" s="1">
-        <v>45509</v>
+        <v>45544</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
         <v>0</v>
@@ -2380,19 +2380,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1100345501</v>
+        <v>1110346572</v>
       </c>
       <c r="B47" s="1">
-        <v>45509</v>
+        <v>45544</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D47" t="s">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
         <v>0</v>
@@ -2400,19 +2400,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1100345502</v>
+        <v>1010346585</v>
       </c>
       <c r="B48" s="1">
-        <v>45509</v>
+        <v>45545</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
         <v>0</v>
@@ -2420,19 +2420,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1100345503</v>
+        <v>1100346674</v>
       </c>
       <c r="B49" s="1">
-        <v>45509</v>
+        <v>45548</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
         <v>0</v>
@@ -2440,19 +2440,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1100345529</v>
+        <v>1100346726</v>
       </c>
       <c r="B50" s="1">
-        <v>45512</v>
+        <v>45545</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -2460,19 +2460,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1100345530</v>
+        <v>1100346725</v>
       </c>
       <c r="B51" s="1">
-        <v>45512</v>
+        <v>45545</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D51" t="s">
         <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
@@ -2480,19 +2480,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1100345531</v>
+        <v>1010346728</v>
       </c>
       <c r="B52" s="1">
-        <v>45512</v>
+        <v>45545</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D52" t="s">
         <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
@@ -2500,19 +2500,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1100345532</v>
+        <v>1110346605</v>
       </c>
       <c r="B53" s="1">
-        <v>45512</v>
+        <v>45546</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
         <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F53" t="s">
         <v>0</v>
@@ -2520,19 +2520,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1100345533</v>
+        <v>1100346666</v>
       </c>
       <c r="B54" s="1">
-        <v>45512</v>
+        <v>45547</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
         <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F54" t="s">
         <v>0</v>
@@ -2540,19 +2540,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1100345534</v>
+        <v>1120346667</v>
       </c>
       <c r="B55" s="1">
-        <v>45512</v>
+        <v>45547</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D55" t="s">
         <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F55" t="s">
         <v>0</v>
@@ -2560,19 +2560,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1100345535</v>
+        <v>1110346673</v>
       </c>
       <c r="B56" s="1">
-        <v>45512</v>
+        <v>45548</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
         <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
@@ -2580,19 +2580,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1100345536</v>
+        <v>1120346858</v>
       </c>
       <c r="B57" s="1">
-        <v>45512</v>
+        <v>45555</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
         <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
         <v>0</v>
@@ -2600,19 +2600,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1100345537</v>
+        <v>1110346972</v>
       </c>
       <c r="B58" s="1">
-        <v>45512</v>
+        <v>45552</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
         <v>46</v>
       </c>
       <c r="E58" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
@@ -2620,19 +2620,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1100345718</v>
+        <v>1120346758</v>
       </c>
       <c r="B59" s="1">
-        <v>45513</v>
+        <v>45553</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
         <v>46</v>
       </c>
       <c r="E59" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
@@ -2640,19 +2640,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1100345719</v>
+        <v>1120346859</v>
       </c>
       <c r="B60" s="1">
-        <v>45513</v>
+        <v>45555</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="D60" t="s">
         <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
         <v>0</v>
@@ -2660,19 +2660,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1100345724</v>
+        <v>1110346973</v>
       </c>
       <c r="B61" s="1">
-        <v>45513</v>
+        <v>45552</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
         <v>46</v>
       </c>
       <c r="E61" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -2680,19 +2680,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1100345720</v>
+        <v>1100346869</v>
       </c>
       <c r="B62" s="1">
-        <v>45513</v>
+        <v>45556</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="D62" t="s">
         <v>46</v>
       </c>
       <c r="E62" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
         <v>0</v>
@@ -2700,19 +2700,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1100345721</v>
+        <v>1120346857</v>
       </c>
       <c r="B63" s="1">
-        <v>45513</v>
+        <v>45555</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
         <v>46</v>
       </c>
       <c r="E63" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F63" t="s">
         <v>0</v>
@@ -2720,19 +2720,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1100345722</v>
+        <v>1100346870</v>
       </c>
       <c r="B64" s="1">
-        <v>45513</v>
+        <v>45556</v>
       </c>
       <c r="C64" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="D64" t="s">
         <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -2740,19 +2740,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1100345723</v>
+        <v>1100346970</v>
       </c>
       <c r="B65" s="1">
-        <v>45513</v>
+        <v>45552</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="D65" t="s">
         <v>46</v>
       </c>
       <c r="E65" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F65" t="s">
         <v>0</v>
@@ -2760,19 +2760,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1100345725</v>
+        <v>1110346971</v>
       </c>
       <c r="B66" s="1">
-        <v>45513</v>
+        <v>45552</v>
       </c>
       <c r="C66" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="D66" t="s">
         <v>46</v>
       </c>
       <c r="E66" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F66" t="s">
         <v>0</v>
@@ -2780,19 +2780,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1100345726</v>
+        <v>1100346969</v>
       </c>
       <c r="B67" s="1">
-        <v>45513</v>
+        <v>45552</v>
       </c>
       <c r="C67" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="D67" t="s">
         <v>46</v>
       </c>
       <c r="E67" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F67" t="s">
         <v>0</v>
@@ -2800,19 +2800,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1100345495</v>
+        <v>1100346863</v>
       </c>
       <c r="B68" s="1">
-        <v>45509</v>
+        <v>45556</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="D68" t="s">
         <v>46</v>
       </c>
       <c r="E68" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
         <v>0</v>
@@ -2820,19 +2820,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1100345815</v>
+        <v>1010346843</v>
       </c>
       <c r="B69" s="1">
-        <v>45509</v>
+        <v>45554</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D69" t="s">
         <v>46</v>
       </c>
       <c r="E69" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -2840,19 +2840,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1100345820</v>
+        <v>1100346968</v>
       </c>
       <c r="B70" s="1">
-        <v>45509</v>
+        <v>45552</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D70" t="s">
         <v>46</v>
       </c>
       <c r="E70" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F70" t="s">
         <v>0</v>
@@ -2860,19 +2860,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1100345821</v>
+        <v>1120346759</v>
       </c>
       <c r="B71" s="1">
-        <v>45509</v>
+        <v>45553</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D71" t="s">
         <v>46</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F71" t="s">
         <v>0</v>
@@ -2880,19 +2880,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1100345822</v>
+        <v>1100346864</v>
       </c>
       <c r="B72" s="1">
-        <v>45509</v>
+        <v>45556</v>
       </c>
       <c r="C72" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D72" t="s">
         <v>46</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F72" t="s">
         <v>0</v>
@@ -2900,19 +2900,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1100345819</v>
+        <v>1130346841</v>
       </c>
       <c r="B73" s="1">
-        <v>45509</v>
+        <v>45554</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D73" t="s">
         <v>46</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F73" t="s">
         <v>0</v>
@@ -2920,19 +2920,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1100345818</v>
+        <v>1130346842</v>
       </c>
       <c r="B74" s="1">
-        <v>45509</v>
+        <v>45554</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D74" t="s">
         <v>46</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -2940,19 +2940,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1100345817</v>
+        <v>1110346741</v>
       </c>
       <c r="B75" s="1">
-        <v>45509</v>
+        <v>45552</v>
       </c>
       <c r="C75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D75" t="s">
         <v>46</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
@@ -2960,19 +2960,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1100345816</v>
+        <v>1100346745</v>
       </c>
       <c r="B76" s="1">
-        <v>45509</v>
+        <v>45551</v>
       </c>
       <c r="C76" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D76" t="s">
         <v>46</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F76" t="s">
         <v>0</v>
@@ -2980,19 +2980,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1110345776</v>
+        <v>1110346750</v>
       </c>
       <c r="B77" s="1">
-        <v>45512</v>
+        <v>45552</v>
       </c>
       <c r="C77" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="D77" t="s">
         <v>46</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F77" t="s">
         <v>0</v>
@@ -3000,19 +3000,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1110345777</v>
+        <v>1120346756</v>
       </c>
       <c r="B78" s="1">
-        <v>45512</v>
+        <v>45553</v>
       </c>
       <c r="C78" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="D78" t="s">
         <v>46</v>
       </c>
       <c r="E78" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F78" t="s">
         <v>0</v>
@@ -3020,19 +3020,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1110345601</v>
+        <v>1120346757</v>
       </c>
       <c r="B79" s="1">
-        <v>45513</v>
+        <v>45553</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="D79" t="s">
         <v>46</v>
       </c>
       <c r="E79" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F79" t="s">
         <v>0</v>
@@ -3040,19 +3040,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1110345582</v>
+        <v>1100346840</v>
       </c>
       <c r="B80" s="1">
-        <v>45509</v>
+        <v>45554</v>
       </c>
       <c r="C80" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="D80" t="s">
         <v>46</v>
       </c>
       <c r="E80" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F80" t="s">
         <v>0</v>
@@ -3060,19 +3060,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1110345583</v>
+        <v>1110346839</v>
       </c>
       <c r="B81" s="1">
-        <v>45509</v>
+        <v>45554</v>
       </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="D81" t="s">
         <v>46</v>
       </c>
       <c r="E81" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F81" t="s">
         <v>0</v>
@@ -3080,19 +3080,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1110345584</v>
+        <v>1120346861</v>
       </c>
       <c r="B82" s="1">
-        <v>45509</v>
+        <v>45555</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="D82" t="s">
         <v>46</v>
       </c>
       <c r="E82" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F82" t="s">
         <v>0</v>
@@ -3100,19 +3100,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1110345585</v>
+        <v>1120346862</v>
       </c>
       <c r="B83" s="1">
-        <v>45509</v>
+        <v>45555</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
         <v>46</v>
       </c>
       <c r="E83" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F83" t="s">
         <v>0</v>
@@ -3120,19 +3120,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1110345586</v>
+        <v>1110346751</v>
       </c>
       <c r="B84" s="1">
-        <v>45509</v>
+        <v>45553</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D84" t="s">
         <v>46</v>
       </c>
       <c r="E84" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -3140,19 +3140,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1110345587</v>
+        <v>1010346744</v>
       </c>
       <c r="B85" s="1">
-        <v>45509</v>
+        <v>45551</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D85" t="s">
         <v>46</v>
       </c>
       <c r="E85" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
@@ -3160,19 +3160,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1110345588</v>
+        <v>1100346743</v>
       </c>
       <c r="B86" s="1">
-        <v>45509</v>
+        <v>45551</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D86" t="s">
         <v>46</v>
       </c>
       <c r="E86" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F86" t="s">
         <v>0</v>
@@ -3180,19 +3180,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1110345589</v>
+        <v>1100346748</v>
       </c>
       <c r="B87" s="1">
-        <v>45509</v>
+        <v>45552</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D87" t="s">
         <v>46</v>
       </c>
       <c r="E87" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -3200,19 +3200,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1110345590</v>
+        <v>1100346749</v>
       </c>
       <c r="B88" s="1">
-        <v>45509</v>
+        <v>45552</v>
       </c>
       <c r="C88" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D88" t="s">
         <v>46</v>
       </c>
       <c r="E88" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -3220,19 +3220,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1110345597</v>
+        <v>1100346752</v>
       </c>
       <c r="B89" s="1">
-        <v>45513</v>
+        <v>45553</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D89" t="s">
         <v>46</v>
       </c>
       <c r="E89" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F89" t="s">
         <v>0</v>
@@ -3240,19 +3240,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1110345598</v>
+        <v>1100346836</v>
       </c>
       <c r="B90" s="1">
-        <v>45513</v>
+        <v>45554</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D90" t="s">
         <v>46</v>
       </c>
       <c r="E90" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F90" t="s">
         <v>0</v>
@@ -3260,19 +3260,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1110345599</v>
+        <v>1100346835</v>
       </c>
       <c r="B91" s="1">
-        <v>45513</v>
+        <v>45554</v>
       </c>
       <c r="C91" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D91" t="s">
         <v>46</v>
       </c>
       <c r="E91" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
         <v>0</v>
@@ -3280,19 +3280,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1110345600</v>
+        <v>1100346834</v>
       </c>
       <c r="B92" s="1">
-        <v>45513</v>
+        <v>45554</v>
       </c>
       <c r="C92" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D92" t="s">
         <v>46</v>
       </c>
       <c r="E92" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F92" t="s">
         <v>0</v>
@@ -3300,19 +3300,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1110345602</v>
+        <v>1110346837</v>
       </c>
       <c r="B93" s="1">
-        <v>45513</v>
+        <v>45554</v>
       </c>
       <c r="C93" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D93" t="s">
         <v>46</v>
       </c>
       <c r="E93" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F93" t="s">
         <v>0</v>
@@ -3320,19 +3320,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1110345603</v>
+        <v>1110346838</v>
       </c>
       <c r="B94" s="1">
-        <v>45513</v>
+        <v>45554</v>
       </c>
       <c r="C94" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D94" t="s">
         <v>46</v>
       </c>
       <c r="E94" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F94" t="s">
         <v>0</v>
@@ -3340,19 +3340,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1110345604</v>
+        <v>1100346860</v>
       </c>
       <c r="B95" s="1">
-        <v>45513</v>
+        <v>45555</v>
       </c>
       <c r="C95" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D95" t="s">
         <v>46</v>
       </c>
       <c r="E95" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
@@ -3360,19 +3360,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1110345596</v>
+        <v>1100346868</v>
       </c>
       <c r="B96" s="1">
-        <v>45513</v>
+        <v>45556</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D96" t="s">
         <v>46</v>
       </c>
       <c r="E96" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -3380,19 +3380,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1100345595</v>
+        <v>1100346867</v>
       </c>
       <c r="B97" s="1">
-        <v>45512</v>
+        <v>45556</v>
       </c>
       <c r="C97" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D97" t="s">
         <v>46</v>
       </c>
       <c r="E97" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -3400,19 +3400,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1100345591</v>
+        <v>1100346866</v>
       </c>
       <c r="B98" s="1">
-        <v>45512</v>
+        <v>45556</v>
       </c>
       <c r="C98" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D98" t="s">
         <v>46</v>
       </c>
       <c r="E98" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F98" t="s">
         <v>0</v>
@@ -3420,19 +3420,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1100345478</v>
+        <v>1100346865</v>
       </c>
       <c r="B99" s="1">
-        <v>45511</v>
+        <v>45556</v>
       </c>
       <c r="C99" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D99" t="s">
         <v>46</v>
       </c>
       <c r="E99" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F99" t="s">
         <v>0</v>
@@ -3440,19 +3440,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1100345479</v>
+        <v>1010346742</v>
       </c>
       <c r="B100" s="1">
-        <v>45505</v>
+        <v>45551</v>
       </c>
       <c r="C100" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D100" t="s">
         <v>46</v>
       </c>
       <c r="E100" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F100" t="s">
         <v>0</v>
@@ -3460,19 +3460,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1100345480</v>
+        <v>1110346746</v>
       </c>
       <c r="B101" s="1">
-        <v>45505</v>
+        <v>45552</v>
       </c>
       <c r="C101" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D101" t="s">
         <v>46</v>
       </c>
       <c r="E101" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -3480,19 +3480,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1100345481</v>
+        <v>1110346747</v>
       </c>
       <c r="B102" s="1">
-        <v>45506</v>
+        <v>45552</v>
       </c>
       <c r="C102" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D102" t="s">
         <v>46</v>
       </c>
       <c r="E102" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F102" t="s">
         <v>0</v>
@@ -3500,19 +3500,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1100345482</v>
+        <v>1110346844</v>
       </c>
       <c r="B103" s="1">
-        <v>45506</v>
+        <v>45552</v>
       </c>
       <c r="C103" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D103" t="s">
         <v>46</v>
       </c>
       <c r="E103" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F103" t="s">
         <v>0</v>
@@ -3520,19 +3520,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1100345483</v>
+        <v>1110346753</v>
       </c>
       <c r="B104" s="1">
-        <v>45506</v>
+        <v>45553</v>
       </c>
       <c r="C104" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D104" t="s">
         <v>46</v>
       </c>
       <c r="E104" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F104" t="s">
         <v>0</v>
@@ -3540,19 +3540,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1110345474</v>
+        <v>1110346754</v>
       </c>
       <c r="B105" s="1">
-        <v>45506</v>
+        <v>45553</v>
       </c>
       <c r="C105" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D105" t="s">
         <v>46</v>
       </c>
       <c r="E105" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F105" t="s">
         <v>0</v>
@@ -3560,19 +3560,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1110345475</v>
+        <v>1120346755</v>
       </c>
       <c r="B106" s="1">
-        <v>45506</v>
+        <v>45553</v>
       </c>
       <c r="C106" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D106" t="s">
         <v>46</v>
       </c>
       <c r="E106" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F106" t="s">
         <v>0</v>
@@ -3580,19 +3580,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1110345476</v>
+        <v>1110346831</v>
       </c>
       <c r="B107" s="1">
-        <v>45506</v>
+        <v>45554</v>
       </c>
       <c r="C107" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D107" t="s">
         <v>46</v>
       </c>
       <c r="E107" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F107" t="s">
         <v>0</v>
@@ -3600,19 +3600,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1010345477</v>
+        <v>1110346832</v>
       </c>
       <c r="B108" s="1">
-        <v>45505</v>
+        <v>45554</v>
       </c>
       <c r="C108" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D108" t="s">
         <v>46</v>
       </c>
       <c r="E108" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F108" t="s">
         <v>0</v>
@@ -3620,19 +3620,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1100345592</v>
+        <v>1100346833</v>
       </c>
       <c r="B109" s="1">
-        <v>45512</v>
+        <v>45554</v>
       </c>
       <c r="C109" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D109" t="s">
         <v>46</v>
       </c>
       <c r="E109" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F109" t="s">
         <v>0</v>
@@ -3640,19 +3640,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1100345593</v>
+        <v>1110346967</v>
       </c>
       <c r="B110" s="1">
-        <v>45512</v>
+        <v>45553</v>
       </c>
       <c r="C110" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D110" t="s">
         <v>46</v>
       </c>
       <c r="E110" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F110" t="s">
         <v>0</v>
@@ -3660,19 +3660,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1100345594</v>
+        <v>1130346960</v>
       </c>
       <c r="B111" s="1">
-        <v>45512</v>
+        <v>45553</v>
       </c>
       <c r="C111" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="D111" t="s">
         <v>46</v>
       </c>
       <c r="E111" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F111" t="s">
         <v>0</v>
@@ -3680,19 +3680,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1110345566</v>
+        <v>1130346959</v>
       </c>
       <c r="B112" s="1">
-        <v>45510</v>
+        <v>45553</v>
       </c>
       <c r="C112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D112" t="s">
         <v>46</v>
       </c>
       <c r="E112" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F112" t="s">
         <v>0</v>
@@ -3700,19 +3700,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1110345563</v>
+        <v>1130346958</v>
       </c>
       <c r="B113" s="1">
-        <v>45510</v>
+        <v>45553</v>
       </c>
       <c r="C113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D113" t="s">
         <v>46</v>
       </c>
       <c r="E113" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F113" t="s">
         <v>0</v>
@@ -3720,19 +3720,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1110345565</v>
+        <v>1130346957</v>
       </c>
       <c r="B114" s="1">
-        <v>45510</v>
+        <v>45553</v>
       </c>
       <c r="C114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D114" t="s">
         <v>46</v>
       </c>
       <c r="E114" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F114" t="s">
         <v>0</v>
@@ -3740,19 +3740,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1110345564</v>
+        <v>1130346956</v>
       </c>
       <c r="B115" s="1">
-        <v>45510</v>
+        <v>45553</v>
       </c>
       <c r="C115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D115" t="s">
         <v>46</v>
       </c>
       <c r="E115" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F115" t="s">
         <v>0</v>
@@ -3760,19 +3760,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1110345561</v>
+        <v>1130346814</v>
       </c>
       <c r="B116" s="1">
-        <v>45509</v>
+        <v>45554</v>
       </c>
       <c r="C116" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="D116" t="s">
         <v>46</v>
       </c>
       <c r="E116" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F116" t="s">
         <v>0</v>
@@ -3780,19 +3780,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1110345562</v>
+        <v>1130346816</v>
       </c>
       <c r="B117" s="1">
-        <v>45509</v>
+        <v>45554</v>
       </c>
       <c r="C117" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="D117" t="s">
         <v>46</v>
       </c>
       <c r="E117" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F117" t="s">
         <v>0</v>
@@ -3800,19 +3800,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1100345560</v>
+        <v>1130346820</v>
       </c>
       <c r="B118" s="1">
-        <v>45509</v>
+        <v>45555</v>
       </c>
       <c r="C118" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="D118" t="s">
         <v>46</v>
       </c>
       <c r="E118" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F118" t="s">
         <v>0</v>
@@ -3820,19 +3820,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1100345559</v>
+        <v>1130346819</v>
       </c>
       <c r="B119" s="1">
-        <v>45509</v>
+        <v>45555</v>
       </c>
       <c r="C119" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="D119" t="s">
         <v>46</v>
       </c>
       <c r="E119" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F119" t="s">
         <v>0</v>
@@ -3840,19 +3840,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1100345717</v>
+        <v>1130346818</v>
       </c>
       <c r="B120" s="1">
-        <v>45513</v>
+        <v>45555</v>
       </c>
       <c r="C120" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D120" t="s">
         <v>46</v>
       </c>
       <c r="E120" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F120" t="s">
         <v>0</v>
@@ -3860,19 +3860,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1100345691</v>
+        <v>1130346817</v>
       </c>
       <c r="B121" s="1">
-        <v>45512</v>
+        <v>45555</v>
       </c>
       <c r="C121" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="D121" t="s">
         <v>46</v>
       </c>
       <c r="E121" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F121" t="s">
         <v>0</v>
@@ -3880,19 +3880,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1100345688</v>
+        <v>1020346962</v>
       </c>
       <c r="B122" s="1">
-        <v>45509</v>
+        <v>45551</v>
       </c>
       <c r="C122" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="D122" t="s">
         <v>46</v>
       </c>
       <c r="E122" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F122" t="s">
         <v>0</v>
@@ -3900,19 +3900,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1100345687</v>
+        <v>1100346921</v>
       </c>
       <c r="B123" s="1">
-        <v>45509</v>
+        <v>45554</v>
       </c>
       <c r="C123" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D123" t="s">
         <v>46</v>
       </c>
       <c r="E123" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F123" t="s">
         <v>0</v>
@@ -3920,19 +3920,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1100345689</v>
+        <v>1100346920</v>
       </c>
       <c r="B124" s="1">
-        <v>45512</v>
+        <v>45554</v>
       </c>
       <c r="C124" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D124" t="s">
         <v>46</v>
       </c>
       <c r="E124" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F124" t="s">
         <v>0</v>
@@ -3940,19 +3940,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1100345692</v>
+        <v>1100346919</v>
       </c>
       <c r="B125" s="1">
-        <v>45512</v>
+        <v>45554</v>
       </c>
       <c r="C125" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D125" t="s">
         <v>46</v>
       </c>
       <c r="E125" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F125" t="s">
         <v>0</v>
@@ -3960,19 +3960,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1100345690</v>
+        <v>1100346918</v>
       </c>
       <c r="B126" s="1">
-        <v>45512</v>
+        <v>45554</v>
       </c>
       <c r="C126" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D126" t="s">
         <v>46</v>
       </c>
       <c r="E126" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F126" t="s">
         <v>0</v>
@@ -3980,19 +3980,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1010345702</v>
+        <v>1020346961</v>
       </c>
       <c r="B127" s="1">
-        <v>45511</v>
+        <v>45551</v>
       </c>
       <c r="C127" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="D127" t="s">
         <v>46</v>
       </c>
       <c r="E127" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F127" t="s">
         <v>0</v>
@@ -4000,19 +4000,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1010345703</v>
+        <v>1020346963</v>
       </c>
       <c r="B128" s="1">
-        <v>45511</v>
+        <v>45551</v>
       </c>
       <c r="C128" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="D128" t="s">
         <v>46</v>
       </c>
       <c r="E128" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F128" t="s">
         <v>0</v>
@@ -4020,19 +4020,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1020345709</v>
+        <v>1020346964</v>
       </c>
       <c r="B129" s="1">
-        <v>45512</v>
+        <v>45551</v>
       </c>
       <c r="C129" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="D129" t="s">
         <v>46</v>
       </c>
       <c r="E129" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F129" t="s">
         <v>0</v>
@@ -4040,19 +4040,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1020345710</v>
+        <v>1020346965</v>
       </c>
       <c r="B130" s="1">
-        <v>45512</v>
+        <v>45551</v>
       </c>
       <c r="C130" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="D130" t="s">
         <v>46</v>
       </c>
       <c r="E130" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F130" t="s">
         <v>0</v>
@@ -4060,19 +4060,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1110345704</v>
+        <v>1110346915</v>
       </c>
       <c r="B131" s="1">
-        <v>45512</v>
+        <v>45553</v>
       </c>
       <c r="C131" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D131" t="s">
         <v>46</v>
       </c>
       <c r="E131" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F131" t="s">
         <v>0</v>
@@ -4080,19 +4080,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1100345708</v>
+        <v>1110346914</v>
       </c>
       <c r="B132" s="1">
-        <v>45512</v>
+        <v>45553</v>
       </c>
       <c r="C132" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D132" t="s">
         <v>46</v>
       </c>
       <c r="E132" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F132" t="s">
         <v>0</v>
@@ -4100,19 +4100,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1100345705</v>
+        <v>1020346966</v>
       </c>
       <c r="B133" s="1">
-        <v>45512</v>
+        <v>45551</v>
       </c>
       <c r="C133" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="D133" t="s">
         <v>46</v>
       </c>
       <c r="E133" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F133" t="s">
         <v>0</v>
@@ -4120,19 +4120,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1100345706</v>
+        <v>1100346943</v>
       </c>
       <c r="B134" s="1">
-        <v>45512</v>
+        <v>45553</v>
       </c>
       <c r="C134" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D134" t="s">
         <v>46</v>
       </c>
       <c r="E134" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F134" t="s">
         <v>0</v>
@@ -4140,19 +4140,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1100345707</v>
+        <v>1100346942</v>
       </c>
       <c r="B135" s="1">
-        <v>45512</v>
+        <v>45553</v>
       </c>
       <c r="C135" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D135" t="s">
         <v>46</v>
       </c>
       <c r="E135" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F135" t="s">
         <v>0</v>
@@ -4160,19 +4160,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1120345711</v>
+        <v>1100346941</v>
       </c>
       <c r="B136" s="1">
-        <v>45513</v>
+        <v>45553</v>
       </c>
       <c r="C136" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D136" t="s">
         <v>46</v>
       </c>
       <c r="E136" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F136" t="s">
         <v>0</v>
@@ -4180,19 +4180,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1120345712</v>
+        <v>1100346940</v>
       </c>
       <c r="B137" s="1">
-        <v>45513</v>
+        <v>45553</v>
       </c>
       <c r="C137" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D137" t="s">
         <v>46</v>
       </c>
       <c r="E137" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F137" t="s">
         <v>0</v>
@@ -4200,19 +4200,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1110345713</v>
+        <v>1100346946</v>
       </c>
       <c r="B138" s="1">
-        <v>45513</v>
+        <v>45553</v>
       </c>
       <c r="C138" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D138" t="s">
         <v>46</v>
       </c>
       <c r="E138" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F138" t="s">
         <v>0</v>
@@ -4220,19 +4220,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1110345714</v>
+        <v>1100346945</v>
       </c>
       <c r="B139" s="1">
-        <v>45513</v>
+        <v>45553</v>
       </c>
       <c r="C139" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D139" t="s">
         <v>46</v>
       </c>
       <c r="E139" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F139" t="s">
         <v>0</v>
@@ -4240,19 +4240,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1100345716</v>
+        <v>1010346876</v>
       </c>
       <c r="B140" s="1">
-        <v>45513</v>
+        <v>45552</v>
       </c>
       <c r="C140" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="D140" t="s">
         <v>46</v>
       </c>
       <c r="E140" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F140" t="s">
         <v>0</v>
@@ -4260,19 +4260,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1100345715</v>
+        <v>1010346875</v>
       </c>
       <c r="B141" s="1">
-        <v>45513</v>
+        <v>45552</v>
       </c>
       <c r="C141" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="D141" t="s">
         <v>46</v>
       </c>
       <c r="E141" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F141" t="s">
         <v>0</v>
@@ -4280,19 +4280,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1100345753</v>
+        <v>1100346877</v>
       </c>
       <c r="B142" s="1">
-        <v>45509</v>
+        <v>45553</v>
       </c>
       <c r="C142" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D142" t="s">
         <v>46</v>
       </c>
       <c r="E142" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F142" t="s">
         <v>0</v>
@@ -4300,19 +4300,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1100345754</v>
+        <v>1100346878</v>
       </c>
       <c r="B143" s="1">
-        <v>45509</v>
+        <v>45553</v>
       </c>
       <c r="C143" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D143" t="s">
         <v>46</v>
       </c>
       <c r="E143" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F143" t="s">
         <v>0</v>
@@ -4320,19 +4320,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1100345755</v>
+        <v>1110346917</v>
       </c>
       <c r="B144" s="1">
-        <v>45509</v>
+        <v>45553</v>
       </c>
       <c r="C144" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D144" t="s">
         <v>46</v>
       </c>
       <c r="E144" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F144" t="s">
         <v>0</v>
@@ -4340,19 +4340,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1130345756</v>
+        <v>1110346916</v>
       </c>
       <c r="B145" s="1">
-        <v>45509</v>
+        <v>45553</v>
       </c>
       <c r="C145" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D145" t="s">
         <v>46</v>
       </c>
       <c r="E145" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F145" t="s">
         <v>0</v>
@@ -4360,19 +4360,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1110345757</v>
+        <v>1100346944</v>
       </c>
       <c r="B146" s="1">
-        <v>45509</v>
+        <v>45553</v>
       </c>
       <c r="C146" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="D146" t="s">
         <v>46</v>
       </c>
       <c r="E146" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F146" t="s">
         <v>0</v>
@@ -4380,19 +4380,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1110345758</v>
+        <v>1020346736</v>
       </c>
       <c r="B147" s="1">
-        <v>45509</v>
+        <v>45551</v>
       </c>
       <c r="C147" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D147" t="s">
         <v>46</v>
       </c>
       <c r="E147" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F147" t="s">
         <v>0</v>
@@ -4400,19 +4400,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1110345759</v>
+        <v>1110346913</v>
       </c>
       <c r="B148" s="1">
-        <v>45509</v>
+        <v>45553</v>
       </c>
       <c r="C148" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D148" t="s">
         <v>46</v>
       </c>
       <c r="E148" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F148" t="s">
         <v>0</v>
@@ -4420,19 +4420,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1110345760</v>
+        <v>1010346780</v>
       </c>
       <c r="B149" s="1">
-        <v>45509</v>
+        <v>45552</v>
       </c>
       <c r="C149" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D149" t="s">
         <v>46</v>
       </c>
       <c r="E149" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F149" t="s">
         <v>0</v>
@@ -4440,19 +4440,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1100345761</v>
+        <v>1110346906</v>
       </c>
       <c r="B150" s="1">
-        <v>45510</v>
+        <v>45553</v>
       </c>
       <c r="C150" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D150" t="s">
         <v>46</v>
       </c>
       <c r="E150" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F150" t="s">
         <v>0</v>
@@ -4460,19 +4460,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1100345762</v>
+        <v>1110346912</v>
       </c>
       <c r="B151" s="1">
-        <v>45510</v>
+        <v>45553</v>
       </c>
       <c r="C151" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D151" t="s">
         <v>46</v>
       </c>
       <c r="E151" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F151" t="s">
         <v>0</v>
@@ -4480,19 +4480,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1100345763</v>
+        <v>1020346731</v>
       </c>
       <c r="B152" s="1">
-        <v>45510</v>
+        <v>45551</v>
       </c>
       <c r="C152" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D152" t="s">
         <v>46</v>
       </c>
       <c r="E152" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F152" t="s">
         <v>0</v>
@@ -4500,19 +4500,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1100345764</v>
+        <v>1110346911</v>
       </c>
       <c r="B153" s="1">
-        <v>45510</v>
+        <v>45553</v>
       </c>
       <c r="C153" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D153" t="s">
         <v>46</v>
       </c>
       <c r="E153" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F153" t="s">
         <v>0</v>
@@ -4520,19 +4520,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1100345765</v>
+        <v>1010346775</v>
       </c>
       <c r="B154" s="1">
-        <v>45510</v>
+        <v>45552</v>
       </c>
       <c r="C154" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D154" t="s">
         <v>46</v>
       </c>
       <c r="E154" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F154" t="s">
         <v>0</v>
@@ -4540,19 +4540,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1100345766</v>
+        <v>1110346910</v>
       </c>
       <c r="B155" s="1">
-        <v>45513</v>
+        <v>45553</v>
       </c>
       <c r="C155" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D155" t="s">
         <v>46</v>
       </c>
       <c r="E155" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F155" t="s">
         <v>0</v>
@@ -4560,19 +4560,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1100345767</v>
+        <v>1020346732</v>
       </c>
       <c r="B156" s="1">
-        <v>45513</v>
+        <v>45551</v>
       </c>
       <c r="C156" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D156" t="s">
         <v>46</v>
       </c>
       <c r="E156" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F156" t="s">
         <v>0</v>
@@ -4580,19 +4580,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1100345768</v>
+        <v>1110346909</v>
       </c>
       <c r="B157" s="1">
-        <v>45513</v>
+        <v>45553</v>
       </c>
       <c r="C157" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D157" t="s">
         <v>46</v>
       </c>
       <c r="E157" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F157" t="s">
         <v>0</v>
@@ -4600,19 +4600,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1100345769</v>
+        <v>1100346781</v>
       </c>
       <c r="B158" s="1">
-        <v>45513</v>
+        <v>45553</v>
       </c>
       <c r="C158" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D158" t="s">
         <v>46</v>
       </c>
       <c r="E158" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F158" t="s">
         <v>0</v>
@@ -4620,19 +4620,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1100345770</v>
+        <v>1020346796</v>
       </c>
       <c r="B159" s="1">
-        <v>45513</v>
+        <v>45553</v>
       </c>
       <c r="C159" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D159" t="s">
         <v>46</v>
       </c>
       <c r="E159" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F159" t="s">
         <v>0</v>
@@ -4640,19 +4640,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1100345771</v>
+        <v>1110346908</v>
       </c>
       <c r="B160" s="1">
-        <v>45513</v>
+        <v>45553</v>
       </c>
       <c r="C160" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D160" t="s">
         <v>46</v>
       </c>
       <c r="E160" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F160" t="s">
         <v>0</v>
@@ -4660,19 +4660,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1100345772</v>
+        <v>1110346907</v>
       </c>
       <c r="B161" s="1">
-        <v>45513</v>
+        <v>45553</v>
       </c>
       <c r="C161" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D161" t="s">
         <v>46</v>
       </c>
       <c r="E161" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F161" t="s">
         <v>0</v>
@@ -4680,19 +4680,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1100345811</v>
+        <v>1020346733</v>
       </c>
       <c r="B162" s="1">
-        <v>45509</v>
+        <v>45551</v>
       </c>
       <c r="C162" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="D162" t="s">
         <v>46</v>
       </c>
       <c r="E162" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F162" t="s">
         <v>0</v>
@@ -4700,19 +4700,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1100345812</v>
+        <v>1130346815</v>
       </c>
       <c r="B163" s="1">
-        <v>45509</v>
+        <v>45554</v>
       </c>
       <c r="C163" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="D163" t="s">
         <v>46</v>
       </c>
       <c r="E163" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F163" t="s">
         <v>0</v>
@@ -4720,19 +4720,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1100345813</v>
+        <v>1100346782</v>
       </c>
       <c r="B164" s="1">
-        <v>45509</v>
+        <v>45553</v>
       </c>
       <c r="C164" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="D164" t="s">
         <v>46</v>
       </c>
       <c r="E164" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F164" t="s">
         <v>0</v>
@@ -4740,19 +4740,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1100345809</v>
+        <v>1010346776</v>
       </c>
       <c r="B165" s="1">
-        <v>45509</v>
+        <v>45552</v>
       </c>
       <c r="C165" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="D165" t="s">
         <v>46</v>
       </c>
       <c r="E165" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F165" t="s">
         <v>0</v>
@@ -4760,19 +4760,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1100345808</v>
+        <v>1100346783</v>
       </c>
       <c r="B166" s="1">
-        <v>45509</v>
+        <v>45553</v>
       </c>
       <c r="C166" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="D166" t="s">
         <v>46</v>
       </c>
       <c r="E166" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F166" t="s">
         <v>0</v>
@@ -4780,19 +4780,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1100345810</v>
+        <v>1020346797</v>
       </c>
       <c r="B167" s="1">
-        <v>45509</v>
+        <v>45554</v>
       </c>
       <c r="C167" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="D167" t="s">
         <v>46</v>
       </c>
       <c r="E167" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F167" t="s">
         <v>0</v>
@@ -4800,19 +4800,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1100345807</v>
+        <v>1010346777</v>
       </c>
       <c r="B168" s="1">
-        <v>45509</v>
+        <v>45552</v>
       </c>
       <c r="C168" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="D168" t="s">
         <v>46</v>
       </c>
       <c r="E168" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F168" t="s">
         <v>0</v>
@@ -4820,19 +4820,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1100345814</v>
+        <v>1100346784</v>
       </c>
       <c r="B169" s="1">
-        <v>45510</v>
+        <v>45553</v>
       </c>
       <c r="C169" t="s">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="D169" t="s">
         <v>46</v>
       </c>
       <c r="E169" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F169" t="s">
         <v>0</v>
@@ -4840,19 +4840,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1110345571</v>
+        <v>1020346798</v>
       </c>
       <c r="B170" s="1">
-        <v>45510</v>
+        <v>45554</v>
       </c>
       <c r="C170" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D170" t="s">
         <v>46</v>
       </c>
       <c r="E170" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F170" t="s">
         <v>0</v>
@@ -4860,19 +4860,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1110345572</v>
+        <v>1010346778</v>
       </c>
       <c r="B171" s="1">
-        <v>45510</v>
+        <v>45552</v>
       </c>
       <c r="C171" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D171" t="s">
         <v>46</v>
       </c>
       <c r="E171" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F171" t="s">
         <v>0</v>
@@ -4880,19 +4880,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1110345573</v>
+        <v>1100346887</v>
       </c>
       <c r="B172" s="1">
-        <v>45510</v>
+        <v>45555</v>
       </c>
       <c r="C172" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D172" t="s">
         <v>46</v>
       </c>
       <c r="E172" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F172" t="s">
         <v>0</v>
@@ -4900,19 +4900,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1110345574</v>
+        <v>1100346786</v>
       </c>
       <c r="B173" s="1">
-        <v>45510</v>
+        <v>45553</v>
       </c>
       <c r="C173" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D173" t="s">
         <v>46</v>
       </c>
       <c r="E173" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F173" t="s">
         <v>0</v>
@@ -4920,19 +4920,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1010345577</v>
+        <v>1020346735</v>
       </c>
       <c r="B174" s="1">
-        <v>45512</v>
+        <v>45551</v>
       </c>
       <c r="C174" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D174" t="s">
         <v>46</v>
       </c>
       <c r="E174" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F174" t="s">
         <v>0</v>
@@ -4940,19 +4940,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1110345578</v>
+        <v>1020346795</v>
       </c>
       <c r="B175" s="1">
-        <v>45512</v>
+        <v>45554</v>
       </c>
       <c r="C175" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D175" t="s">
         <v>46</v>
       </c>
       <c r="E175" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F175" t="s">
         <v>0</v>
@@ -4960,19 +4960,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1010345576</v>
+        <v>1100346886</v>
       </c>
       <c r="B176" s="1">
-        <v>45512</v>
+        <v>45555</v>
       </c>
       <c r="C176" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D176" t="s">
         <v>46</v>
       </c>
       <c r="E176" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F176" t="s">
         <v>0</v>
@@ -4980,19 +4980,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1110345579</v>
+        <v>1010346779</v>
       </c>
       <c r="B177" s="1">
-        <v>45512</v>
+        <v>45552</v>
       </c>
       <c r="C177" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D177" t="s">
         <v>46</v>
       </c>
       <c r="E177" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F177" t="s">
         <v>0</v>
@@ -5000,19 +5000,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>1100345580</v>
+        <v>1020346734</v>
       </c>
       <c r="B178" s="1">
-        <v>45512</v>
+        <v>45551</v>
       </c>
       <c r="C178" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D178" t="s">
         <v>46</v>
       </c>
       <c r="E178" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F178" t="s">
         <v>0</v>
@@ -5020,19 +5020,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>1100345581</v>
+        <v>1020347027</v>
       </c>
       <c r="B179" s="1">
-        <v>45512</v>
+        <v>45560</v>
       </c>
       <c r="C179" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D179" t="s">
         <v>46</v>
       </c>
       <c r="E179" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F179" t="s">
         <v>0</v>
@@ -5040,19 +5040,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>1110345575</v>
+        <v>1100346785</v>
       </c>
       <c r="B180" s="1">
-        <v>45510</v>
+        <v>45553</v>
       </c>
       <c r="C180" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D180" t="s">
         <v>46</v>
       </c>
       <c r="E180" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F180" t="s">
         <v>0</v>
@@ -5060,19 +5060,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>1110345570</v>
+        <v>1100347129</v>
       </c>
       <c r="B181" s="1">
-        <v>45510</v>
+        <v>45558</v>
       </c>
       <c r="C181" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="D181" t="s">
         <v>46</v>
       </c>
       <c r="E181" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F181" t="s">
         <v>0</v>
@@ -5080,19 +5080,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>1110346016</v>
+        <v>1020347028</v>
       </c>
       <c r="B182" s="1">
-        <v>45516</v>
+        <v>45560</v>
       </c>
       <c r="C182" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="D182" t="s">
         <v>46</v>
       </c>
       <c r="E182" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F182" t="s">
         <v>0</v>
@@ -5100,19 +5100,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>1110346017</v>
+        <v>1100347045</v>
       </c>
       <c r="B183" s="1">
-        <v>45516</v>
+        <v>45560</v>
       </c>
       <c r="C183" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D183" t="s">
         <v>46</v>
       </c>
       <c r="E183" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F183" t="s">
         <v>0</v>
@@ -5120,19 +5120,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>1110346046</v>
+        <v>1110347102</v>
       </c>
       <c r="B184" s="1">
-        <v>45516</v>
+        <v>45559</v>
       </c>
       <c r="C184" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D184" t="s">
         <v>46</v>
       </c>
       <c r="E184" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F184" t="s">
         <v>0</v>
@@ -5140,19 +5140,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>1100345966</v>
+        <v>1010347036</v>
       </c>
       <c r="B185" s="1">
-        <v>45516</v>
+        <v>45558</v>
       </c>
       <c r="C185" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D185" t="s">
         <v>46</v>
       </c>
       <c r="E185" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F185" t="s">
         <v>0</v>
@@ -5160,19 +5160,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>1130346015</v>
+        <v>1110347103</v>
       </c>
       <c r="B186" s="1">
-        <v>45516</v>
+        <v>45559</v>
       </c>
       <c r="C186" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="D186" t="s">
         <v>46</v>
       </c>
       <c r="E186" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F186" t="s">
         <v>0</v>
@@ -5180,19 +5180,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>1100345967</v>
+        <v>1010347030</v>
       </c>
       <c r="B187" s="1">
-        <v>45516</v>
+        <v>45562</v>
       </c>
       <c r="C187" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D187" t="s">
         <v>46</v>
       </c>
       <c r="E187" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F187" t="s">
         <v>0</v>
@@ -5200,19 +5200,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>1110345986</v>
+        <v>1010347035</v>
       </c>
       <c r="B188" s="1">
-        <v>45517</v>
+        <v>45558</v>
       </c>
       <c r="C188" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D188" t="s">
         <v>46</v>
       </c>
       <c r="E188" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F188" t="s">
         <v>0</v>
@@ -5220,19 +5220,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>1110345987</v>
+        <v>1110347104</v>
       </c>
       <c r="B189" s="1">
-        <v>45517</v>
+        <v>45560</v>
       </c>
       <c r="C189" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D189" t="s">
         <v>46</v>
       </c>
       <c r="E189" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F189" t="s">
         <v>0</v>
@@ -5240,19 +5240,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>1110345988</v>
+        <v>1110347084</v>
       </c>
       <c r="B190" s="1">
-        <v>45517</v>
+        <v>45559</v>
       </c>
       <c r="C190" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D190" t="s">
         <v>46</v>
       </c>
       <c r="E190" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F190" t="s">
         <v>0</v>
@@ -5260,19 +5260,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>1100345960</v>
+        <v>1020347029</v>
       </c>
       <c r="B191" s="1">
-        <v>45516</v>
+        <v>45560</v>
       </c>
       <c r="C191" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D191" t="s">
         <v>46</v>
       </c>
       <c r="E191" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F191" t="s">
         <v>0</v>
@@ -5280,19 +5280,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>1110345989</v>
+        <v>1010347033</v>
       </c>
       <c r="B192" s="1">
-        <v>45517</v>
+        <v>45558</v>
       </c>
       <c r="C192" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="D192" t="s">
         <v>46</v>
       </c>
       <c r="E192" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F192" t="s">
         <v>0</v>
@@ -5300,19 +5300,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>1100346035</v>
+        <v>1100347046</v>
       </c>
       <c r="B193" s="1">
-        <v>45516</v>
+        <v>45560</v>
       </c>
       <c r="C193" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D193" t="s">
         <v>46</v>
       </c>
       <c r="E193" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F193" t="s">
         <v>0</v>
@@ -5320,19 +5320,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>1100346036</v>
+        <v>1110347105</v>
       </c>
       <c r="B194" s="1">
-        <v>45516</v>
+        <v>45560</v>
       </c>
       <c r="C194" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="D194" t="s">
         <v>46</v>
       </c>
       <c r="E194" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F194" t="s">
         <v>0</v>
@@ -5340,19 +5340,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>1110345990</v>
+        <v>1010347111</v>
       </c>
       <c r="B195" s="1">
-        <v>45517</v>
+        <v>45562</v>
       </c>
       <c r="C195" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D195" t="s">
         <v>46</v>
       </c>
       <c r="E195" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F195" t="s">
         <v>0</v>
@@ -5360,19 +5360,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>1100346037</v>
+        <v>1110347106</v>
       </c>
       <c r="B196" s="1">
-        <v>45526</v>
+        <v>45560</v>
       </c>
       <c r="C196" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="D196" t="s">
         <v>46</v>
       </c>
       <c r="E196" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F196" t="s">
         <v>0</v>
@@ -5380,19 +5380,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>1110345991</v>
+        <v>1110347107</v>
       </c>
       <c r="B197" s="1">
-        <v>45517</v>
+        <v>45560</v>
       </c>
       <c r="C197" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D197" t="s">
         <v>46</v>
       </c>
       <c r="E197" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F197" t="s">
         <v>0</v>
@@ -5400,19 +5400,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>1100346038</v>
+        <v>1010347032</v>
       </c>
       <c r="B198" s="1">
-        <v>45516</v>
+        <v>45558</v>
       </c>
       <c r="C198" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D198" t="s">
         <v>46</v>
       </c>
       <c r="E198" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F198" t="s">
         <v>0</v>
@@ -5420,19 +5420,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>1100346039</v>
+        <v>1100347128</v>
       </c>
       <c r="B199" s="1">
-        <v>45516</v>
+        <v>45558</v>
       </c>
       <c r="C199" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="D199" t="s">
         <v>46</v>
       </c>
       <c r="E199" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F199" t="s">
         <v>0</v>
@@ -5440,19 +5440,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>1110345992</v>
+        <v>1020347130</v>
       </c>
       <c r="B200" s="1">
-        <v>45517</v>
+        <v>45562</v>
       </c>
       <c r="C200" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="D200" t="s">
         <v>46</v>
       </c>
       <c r="E200" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F200" t="s">
         <v>0</v>
@@ -5460,19 +5460,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>1110345993</v>
+        <v>1010347031</v>
       </c>
       <c r="B201" s="1">
-        <v>45517</v>
+        <v>45558</v>
       </c>
       <c r="C201" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="D201" t="s">
         <v>46</v>
       </c>
       <c r="E201" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F201" t="s">
         <v>0</v>
@@ -5480,19 +5480,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>1110345994</v>
+        <v>1100347051</v>
       </c>
       <c r="B202" s="1">
-        <v>45517</v>
+        <v>45561</v>
       </c>
       <c r="C202" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D202" t="s">
         <v>46</v>
       </c>
       <c r="E202" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F202" t="s">
         <v>0</v>
@@ -5500,19 +5500,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>1130346031</v>
+        <v>1110347039</v>
       </c>
       <c r="B203" s="1">
-        <v>45518</v>
+        <v>45540</v>
       </c>
       <c r="C203" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D203" t="s">
         <v>46</v>
       </c>
       <c r="E203" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F203" t="s">
         <v>0</v>
@@ -5520,19 +5520,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>1100346028</v>
+        <v>1020347113</v>
       </c>
       <c r="B204" s="1">
-        <v>45518</v>
+        <v>45562</v>
       </c>
       <c r="C204" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D204" t="s">
         <v>46</v>
       </c>
       <c r="E204" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F204" t="s">
         <v>0</v>
@@ -5540,19 +5540,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>1130346029</v>
+        <v>1010347034</v>
       </c>
       <c r="B205" s="1">
-        <v>45518</v>
+        <v>45558</v>
       </c>
       <c r="C205" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="D205" t="s">
         <v>46</v>
       </c>
       <c r="E205" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F205" t="s">
         <v>0</v>
@@ -5560,19 +5560,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>1130346030</v>
+        <v>1010347038</v>
       </c>
       <c r="B206" s="1">
-        <v>45518</v>
+        <v>45558</v>
       </c>
       <c r="C206" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D206" t="s">
         <v>46</v>
       </c>
       <c r="E206" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F206" t="s">
         <v>0</v>
@@ -5580,19 +5580,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>1100346040</v>
+        <v>1110347040</v>
       </c>
       <c r="B207" s="1">
-        <v>45516</v>
+        <v>45555</v>
       </c>
       <c r="C207" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D207" t="s">
         <v>46</v>
       </c>
       <c r="E207" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F207" t="s">
         <v>0</v>
@@ -5600,19 +5600,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>1100346032</v>
+        <v>1100347052</v>
       </c>
       <c r="B208" s="1">
-        <v>45519</v>
+        <v>45561</v>
       </c>
       <c r="C208" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D208" t="s">
         <v>46</v>
       </c>
       <c r="E208" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F208" t="s">
         <v>0</v>
@@ -5620,19 +5620,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>1100346053</v>
+        <v>1010347037</v>
       </c>
       <c r="B209" s="1">
-        <v>45516</v>
+        <v>45558</v>
       </c>
       <c r="C209" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D209" t="s">
         <v>46</v>
       </c>
       <c r="E209" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F209" t="s">
         <v>0</v>
@@ -5640,19 +5640,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>1100345961</v>
+        <v>1110347112</v>
       </c>
       <c r="B210" s="1">
-        <v>45516</v>
+        <v>45560</v>
       </c>
       <c r="C210" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="D210" t="s">
         <v>46</v>
       </c>
       <c r="E210" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F210" t="s">
         <v>0</v>
@@ -5660,19 +5660,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>1100345962</v>
+        <v>1100347041</v>
       </c>
       <c r="B211" s="1">
-        <v>45516</v>
+        <v>45560</v>
       </c>
       <c r="C211" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="D211" t="s">
         <v>46</v>
       </c>
       <c r="E211" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F211" t="s">
         <v>0</v>
@@ -5680,19 +5680,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>1100345963</v>
+        <v>1100347042</v>
       </c>
       <c r="B212" s="1">
-        <v>45516</v>
+        <v>45560</v>
       </c>
       <c r="C212" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="D212" t="s">
         <v>46</v>
       </c>
       <c r="E212" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F212" t="s">
         <v>0</v>
@@ -5700,19 +5700,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>1100346052</v>
+        <v>1020347063</v>
       </c>
       <c r="B213" s="1">
-        <v>45516</v>
+        <v>45559</v>
       </c>
       <c r="C213" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D213" t="s">
         <v>46</v>
       </c>
       <c r="E213" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F213" t="s">
         <v>0</v>
@@ -5720,19 +5720,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>1100345964</v>
+        <v>1100347053</v>
       </c>
       <c r="B214" s="1">
-        <v>45516</v>
+        <v>45561</v>
       </c>
       <c r="C214" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="D214" t="s">
         <v>46</v>
       </c>
       <c r="E214" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F214" t="s">
         <v>0</v>
@@ -5740,19 +5740,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>1100345965</v>
+        <v>1020347062</v>
       </c>
       <c r="B215" s="1">
-        <v>45516</v>
+        <v>45559</v>
       </c>
       <c r="C215" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D215" t="s">
         <v>46</v>
       </c>
       <c r="E215" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F215" t="s">
         <v>0</v>
@@ -5760,19 +5760,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>1100345946</v>
+        <v>1020347061</v>
       </c>
       <c r="B216" s="1">
-        <v>45516</v>
+        <v>45559</v>
       </c>
       <c r="C216" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="D216" t="s">
         <v>46</v>
       </c>
       <c r="E216" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F216" t="s">
         <v>0</v>
@@ -5780,19 +5780,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>1100345947</v>
+        <v>1100347054</v>
       </c>
       <c r="B217" s="1">
-        <v>45516</v>
+        <v>45561</v>
       </c>
       <c r="C217" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="D217" t="s">
         <v>46</v>
       </c>
       <c r="E217" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F217" t="s">
         <v>0</v>
@@ -5800,19 +5800,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>1100345948</v>
+        <v>1100347055</v>
       </c>
       <c r="B218" s="1">
-        <v>45516</v>
+        <v>45561</v>
       </c>
       <c r="C218" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="D218" t="s">
         <v>46</v>
       </c>
       <c r="E218" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F218" t="s">
         <v>0</v>
@@ -5820,19 +5820,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>1100345949</v>
+        <v>1100347056</v>
       </c>
       <c r="B219" s="1">
-        <v>45516</v>
+        <v>45561</v>
       </c>
       <c r="C219" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="D219" t="s">
         <v>46</v>
       </c>
       <c r="E219" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F219" t="s">
         <v>0</v>
@@ -5840,19 +5840,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>1100345950</v>
+        <v>1110347100</v>
       </c>
       <c r="B220" s="1">
-        <v>45516</v>
+        <v>45559</v>
       </c>
       <c r="C220" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D220" t="s">
         <v>46</v>
       </c>
       <c r="E220" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F220" t="s">
         <v>0</v>
@@ -5860,19 +5860,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>1100345951</v>
+        <v>1010347064</v>
       </c>
       <c r="B221" s="1">
-        <v>45516</v>
+        <v>45562</v>
       </c>
       <c r="C221" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="D221" t="s">
         <v>46</v>
       </c>
       <c r="E221" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F221" t="s">
         <v>0</v>
@@ -5880,19 +5880,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>1100345952</v>
+        <v>1110347101</v>
       </c>
       <c r="B222" s="1">
-        <v>45516</v>
+        <v>45559</v>
       </c>
       <c r="C222" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D222" t="s">
         <v>46</v>
       </c>
       <c r="E222" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F222" t="s">
         <v>0</v>
@@ -5900,19 +5900,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>1100345953</v>
+        <v>1020347023</v>
       </c>
       <c r="B223" s="1">
-        <v>45516</v>
+        <v>45559</v>
       </c>
       <c r="C223" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D223" t="s">
         <v>46</v>
       </c>
       <c r="E223" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F223" t="s">
         <v>0</v>
@@ -5920,19 +5920,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>1100346014</v>
+        <v>1020347024</v>
       </c>
       <c r="B224" s="1">
-        <v>45519</v>
+        <v>45559</v>
       </c>
       <c r="C224" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="D224" t="s">
         <v>46</v>
       </c>
       <c r="E224" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F224" t="s">
         <v>0</v>
@@ -5940,19 +5940,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>1110346045</v>
+        <v>1020347025</v>
       </c>
       <c r="B225" s="1">
-        <v>45516</v>
+        <v>45559</v>
       </c>
       <c r="C225" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D225" t="s">
         <v>46</v>
       </c>
       <c r="E225" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F225" t="s">
         <v>0</v>
@@ -5960,19 +5960,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>1110346047</v>
+        <v>1020347026</v>
       </c>
       <c r="B226" s="1">
-        <v>45516</v>
+        <v>45559</v>
       </c>
       <c r="C226" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D226" t="s">
         <v>46</v>
       </c>
       <c r="E226" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F226" t="s">
         <v>0</v>
@@ -5980,19 +5980,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>1010346248</v>
+        <v>1100347043</v>
       </c>
       <c r="B227" s="1">
-        <v>45524</v>
+        <v>45560</v>
       </c>
       <c r="C227" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="D227" t="s">
         <v>46</v>
       </c>
       <c r="E227" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F227" t="s">
         <v>0</v>
@@ -6000,19 +6000,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>1010346249</v>
+        <v>1100347044</v>
       </c>
       <c r="B228" s="1">
-        <v>45524</v>
+        <v>45560</v>
       </c>
       <c r="C228" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="D228" t="s">
         <v>46</v>
       </c>
       <c r="E228" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F228" t="s">
         <v>0</v>
@@ -6020,19 +6020,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>1010346250</v>
+        <v>1120346559</v>
       </c>
       <c r="B229" s="1">
-        <v>45524</v>
+        <v>45537</v>
       </c>
       <c r="C229" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="D229" t="s">
         <v>46</v>
       </c>
       <c r="E229" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F229" t="s">
         <v>0</v>
@@ -6040,19 +6040,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>1010346251</v>
+        <v>1120346558</v>
       </c>
       <c r="B230" s="1">
-        <v>45524</v>
+        <v>45537</v>
       </c>
       <c r="C230" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="D230" t="s">
         <v>46</v>
       </c>
       <c r="E230" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F230" t="s">
         <v>0</v>
@@ -6060,19 +6060,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>1010346252</v>
+        <v>1120346560</v>
       </c>
       <c r="B231" s="1">
-        <v>45524</v>
+        <v>45537</v>
       </c>
       <c r="C231" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="D231" t="s">
         <v>46</v>
       </c>
       <c r="E231" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F231" t="s">
         <v>0</v>
@@ -6080,19 +6080,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>1010346253</v>
+        <v>1010347116</v>
       </c>
       <c r="B232" s="1">
-        <v>45525</v>
+        <v>45558</v>
       </c>
       <c r="C232" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D232" t="s">
         <v>46</v>
       </c>
       <c r="E232" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F232" t="s">
         <v>0</v>
@@ -6100,19 +6100,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>1100346276</v>
+        <v>1100347009</v>
       </c>
       <c r="B233" s="1">
-        <v>45524</v>
+        <v>45560</v>
       </c>
       <c r="C233" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D233" t="s">
         <v>46</v>
       </c>
       <c r="E233" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F233" t="s">
         <v>0</v>
@@ -6120,19 +6120,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>1100346277</v>
+        <v>1100347010</v>
       </c>
       <c r="B234" s="1">
-        <v>45524</v>
+        <v>45560</v>
       </c>
       <c r="C234" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D234" t="s">
         <v>46</v>
       </c>
       <c r="E234" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F234" t="s">
         <v>0</v>
@@ -6140,19 +6140,19 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>1100346198</v>
+        <v>1010347127</v>
       </c>
       <c r="B235" s="1">
-        <v>45520</v>
+        <v>45561</v>
       </c>
       <c r="C235" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D235" t="s">
         <v>46</v>
       </c>
       <c r="E235" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F235" t="s">
         <v>0</v>
@@ -6160,19 +6160,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>1100346197</v>
+        <v>1120347008</v>
       </c>
       <c r="B236" s="1">
-        <v>45520</v>
+        <v>45560</v>
       </c>
       <c r="C236" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D236" t="s">
         <v>46</v>
       </c>
       <c r="E236" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F236" t="s">
         <v>0</v>
@@ -6180,19 +6180,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1100346237</v>
+        <v>1100346977</v>
       </c>
       <c r="B237" s="1">
-        <v>45528</v>
+        <v>45558</v>
       </c>
       <c r="C237" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D237" t="s">
         <v>46</v>
       </c>
       <c r="E237" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F237" t="s">
         <v>0</v>
@@ -6200,19 +6200,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1100346236</v>
+        <v>1100346980</v>
       </c>
       <c r="B238" s="1">
-        <v>45528</v>
+        <v>45558</v>
       </c>
       <c r="C238" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D238" t="s">
         <v>46</v>
       </c>
       <c r="E238" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F238" t="s">
         <v>0</v>
@@ -6220,19 +6220,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1100346235</v>
+        <v>1120346976</v>
       </c>
       <c r="B239" s="1">
-        <v>45528</v>
+        <v>45558</v>
       </c>
       <c r="C239" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D239" t="s">
         <v>46</v>
       </c>
       <c r="E239" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F239" t="s">
         <v>0</v>
@@ -6240,19 +6240,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1100346234</v>
+        <v>1100346981</v>
       </c>
       <c r="B240" s="1">
-        <v>45528</v>
+        <v>45558</v>
       </c>
       <c r="C240" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D240" t="s">
         <v>46</v>
       </c>
       <c r="E240" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F240" t="s">
         <v>0</v>
@@ -6260,19 +6260,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1110346233</v>
+        <v>1110346984</v>
       </c>
       <c r="B241" s="1">
-        <v>45528</v>
+        <v>45559</v>
       </c>
       <c r="C241" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D241" t="s">
         <v>46</v>
       </c>
       <c r="E241" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F241" t="s">
         <v>0</v>
@@ -6280,19 +6280,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1110346232</v>
+        <v>1110346985</v>
       </c>
       <c r="B242" s="1">
-        <v>45528</v>
+        <v>45559</v>
       </c>
       <c r="C242" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D242" t="s">
         <v>46</v>
       </c>
       <c r="E242" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F242" t="s">
         <v>0</v>
@@ -6300,19 +6300,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1100346265</v>
+        <v>1010347007</v>
       </c>
       <c r="B243" s="1">
-        <v>45524</v>
+        <v>45560</v>
       </c>
       <c r="C243" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="D243" t="s">
         <v>46</v>
       </c>
       <c r="E243" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F243" t="s">
         <v>0</v>
@@ -6320,19 +6320,19 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1100346266</v>
+        <v>1120346975</v>
       </c>
       <c r="B244" s="1">
-        <v>45524</v>
+        <v>45558</v>
       </c>
       <c r="C244" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="D244" t="s">
         <v>46</v>
       </c>
       <c r="E244" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F244" t="s">
         <v>0</v>
@@ -6340,19 +6340,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1100346267</v>
+        <v>1010347005</v>
       </c>
       <c r="B245" s="1">
-        <v>45524</v>
+        <v>45560</v>
       </c>
       <c r="C245" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="D245" t="s">
         <v>46</v>
       </c>
       <c r="E245" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F245" t="s">
         <v>0</v>
@@ -6360,19 +6360,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1100346268</v>
+        <v>1100347018</v>
       </c>
       <c r="B246" s="1">
-        <v>45524</v>
+        <v>45562</v>
       </c>
       <c r="C246" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="D246" t="s">
         <v>46</v>
       </c>
       <c r="E246" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F246" t="s">
         <v>0</v>
@@ -6380,19 +6380,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1010346254</v>
+        <v>1010347006</v>
       </c>
       <c r="B247" s="1">
-        <v>45525</v>
+        <v>45560</v>
       </c>
       <c r="C247" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="D247" t="s">
         <v>46</v>
       </c>
       <c r="E247" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F247" t="s">
         <v>0</v>
@@ -6400,19 +6400,19 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1100346269</v>
+        <v>1100347022</v>
       </c>
       <c r="B248" s="1">
-        <v>45524</v>
+        <v>45562</v>
       </c>
       <c r="C248" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="D248" t="s">
         <v>46</v>
       </c>
       <c r="E248" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F248" t="s">
         <v>0</v>
@@ -6420,19 +6420,19 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1010346245</v>
+        <v>1100347021</v>
       </c>
       <c r="B249" s="1">
-        <v>45524</v>
+        <v>45562</v>
       </c>
       <c r="C249" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="D249" t="s">
         <v>46</v>
       </c>
       <c r="E249" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F249" t="s">
         <v>0</v>
@@ -6440,19 +6440,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1010346255</v>
+        <v>1010347126</v>
       </c>
       <c r="B250" s="1">
-        <v>45525</v>
+        <v>45561</v>
       </c>
       <c r="C250" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="D250" t="s">
         <v>46</v>
       </c>
       <c r="E250" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F250" t="s">
         <v>0</v>
@@ -6460,19 +6460,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1010346246</v>
+        <v>1010347124</v>
       </c>
       <c r="B251" s="1">
-        <v>45524</v>
+        <v>45561</v>
       </c>
       <c r="C251" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="D251" t="s">
         <v>46</v>
       </c>
       <c r="E251" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F251" t="s">
         <v>0</v>
@@ -6480,19 +6480,19 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1010346256</v>
+        <v>1010347125</v>
       </c>
       <c r="B252" s="1">
-        <v>45525</v>
+        <v>45561</v>
       </c>
       <c r="C252" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="D252" t="s">
         <v>46</v>
       </c>
       <c r="E252" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F252" t="s">
         <v>0</v>
@@ -6500,19 +6500,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1010346247</v>
+        <v>1010347020</v>
       </c>
       <c r="B253" s="1">
-        <v>45524</v>
+        <v>45562</v>
       </c>
       <c r="C253" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="D253" t="s">
         <v>46</v>
       </c>
       <c r="E253" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F253" t="s">
         <v>0</v>
@@ -6520,19 +6520,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>1010346257</v>
+        <v>1100346978</v>
       </c>
       <c r="B254" s="1">
-        <v>45525</v>
+        <v>45558</v>
       </c>
       <c r="C254" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="D254" t="s">
         <v>46</v>
       </c>
       <c r="E254" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F254" t="s">
         <v>0</v>
@@ -6540,19 +6540,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>1010346258</v>
+        <v>1110346979</v>
       </c>
       <c r="B255" s="1">
-        <v>45525</v>
+        <v>45558</v>
       </c>
       <c r="C255" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="D255" t="s">
         <v>46</v>
       </c>
       <c r="E255" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F255" t="s">
         <v>0</v>
@@ -6560,19 +6560,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>1010346259</v>
+        <v>1110346983</v>
       </c>
       <c r="B256" s="1">
-        <v>45525</v>
+        <v>45559</v>
       </c>
       <c r="C256" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="D256" t="s">
         <v>46</v>
       </c>
       <c r="E256" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F256" t="s">
         <v>0</v>
@@ -6580,26 +6580,167 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>1010346260</v>
+        <v>1110347002</v>
       </c>
       <c r="B257" s="1">
-        <v>45525</v>
+        <v>45560</v>
       </c>
       <c r="C257" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="D257" t="s">
         <v>46</v>
       </c>
       <c r="E257" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="F257" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1110347003</v>
+      </c>
+      <c r="B258" s="1">
+        <v>45560</v>
+      </c>
+      <c r="C258" t="s">
+        <v>49</v>
+      </c>
+      <c r="D258" t="s">
+        <v>46</v>
+      </c>
+      <c r="E258" t="s">
+        <v>16</v>
+      </c>
+      <c r="F258" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1110347019</v>
+      </c>
+      <c r="B259" s="1">
+        <v>45562</v>
+      </c>
+      <c r="C259" t="s">
+        <v>49</v>
+      </c>
+      <c r="D259" t="s">
+        <v>46</v>
+      </c>
+      <c r="E259" t="s">
+        <v>16</v>
+      </c>
+      <c r="F259" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1110347004</v>
+      </c>
+      <c r="B260" s="1">
+        <v>45560</v>
+      </c>
+      <c r="C260" t="s">
+        <v>49</v>
+      </c>
+      <c r="D260" t="s">
+        <v>46</v>
+      </c>
+      <c r="E260" t="s">
+        <v>16</v>
+      </c>
+      <c r="F260" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1020347121</v>
+      </c>
+      <c r="B261" s="1">
+        <v>45561</v>
+      </c>
+      <c r="C261" t="s">
+        <v>79</v>
+      </c>
+      <c r="D261" t="s">
+        <v>46</v>
+      </c>
+      <c r="E261" t="s">
+        <v>16</v>
+      </c>
+      <c r="F261" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1110347122</v>
+      </c>
+      <c r="B262" s="1">
+        <v>45561</v>
+      </c>
+      <c r="C262" t="s">
+        <v>49</v>
+      </c>
+      <c r="D262" t="s">
+        <v>46</v>
+      </c>
+      <c r="E262" t="s">
+        <v>16</v>
+      </c>
+      <c r="F262" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1020347120</v>
+      </c>
+      <c r="B263" s="1">
+        <v>45561</v>
+      </c>
+      <c r="C263" t="s">
+        <v>79</v>
+      </c>
+      <c r="D263" t="s">
+        <v>46</v>
+      </c>
+      <c r="E263" t="s">
+        <v>16</v>
+      </c>
+      <c r="F263" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1110347123</v>
+      </c>
+      <c r="B264" s="1">
+        <v>45561</v>
+      </c>
+      <c r="C264" t="s">
+        <v>49</v>
+      </c>
+      <c r="D264" t="s">
+        <v>46</v>
+      </c>
+      <c r="E264" t="s">
+        <v>16</v>
+      </c>
+      <c r="F264" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/crear_hc/crearIndividualfinal.xlsx
+++ b/crear_hc/crearIndividualfinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perfil\Documentos\validatorsGesi\crear_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1DB24F-99F5-4F5D-B06D-39D567797F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9615CEF3-C192-4FE4-8827-77C028D4197A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E1DA38D-84A9-4484-9C3F-DE72970EE216}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6750" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6050" uniqueCount="143">
   <si>
     <t>1608-Enfermero</t>
   </si>
@@ -459,20 +459,14 @@
     <t>Gestión del Riesgo en Salud Mental (2024)-Educativo</t>
   </si>
   <si>
-    <t>ANDREA BARBOSA</t>
-  </si>
-  <si>
-    <t>DIANA PAOLA BARRERA</t>
-  </si>
-  <si>
-    <t>LORENA TORRES</t>
+    <t>Verificación de la Técnica de Higiene Bucal (2024)-Educativo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,6 +619,18 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF191C20"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="35">
@@ -820,7 +826,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -980,6 +986,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1025,7 +1046,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1089,7 +1110,35 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1445,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3929B7C0-7F9D-42E7-ADAB-474CC0CA7F65}">
-  <dimension ref="A1:F264"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,5286 +1508,1787 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="23">
-        <v>1010346724</v>
-      </c>
-      <c r="B1" s="1">
+      <c r="A1" s="24">
+        <v>1010346642</v>
+      </c>
+      <c r="B1" s="26">
+        <v>45546</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>1010346643</v>
+      </c>
+      <c r="B2" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>1010346644</v>
+      </c>
+      <c r="B3" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>1010346645</v>
+      </c>
+      <c r="B4" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>1010346646</v>
+      </c>
+      <c r="B5" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>1010346647</v>
+      </c>
+      <c r="B6" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>1010346648</v>
+      </c>
+      <c r="B7" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>1010346649</v>
+      </c>
+      <c r="B8" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>1010346650</v>
+      </c>
+      <c r="B9" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>1010346651</v>
+      </c>
+      <c r="B10" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>1010346652</v>
+      </c>
+      <c r="B11" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>1010346653</v>
+      </c>
+      <c r="B12" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>1010346654</v>
+      </c>
+      <c r="B13" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>1010346655</v>
+      </c>
+      <c r="B14" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>1010346656</v>
+      </c>
+      <c r="B15" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>1010346657</v>
+      </c>
+      <c r="B16" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>1010346658</v>
+      </c>
+      <c r="B17" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>1010346659</v>
+      </c>
+      <c r="B18" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>1010346660</v>
+      </c>
+      <c r="B19" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>1010346661</v>
+      </c>
+      <c r="B20" s="26">
+        <v>45547</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>1010346437</v>
+      </c>
+      <c r="B21" s="29">
+        <v>45537</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>1100346475</v>
+      </c>
+      <c r="B22" s="29">
+        <v>45539</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>1100346481</v>
+      </c>
+      <c r="B23" s="29">
+        <v>45541</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>1110346504</v>
+      </c>
+      <c r="B24" s="29">
+        <v>45537</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
+        <v>1110346503</v>
+      </c>
+      <c r="B25" s="29">
+        <v>45537</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
+        <v>1100346501</v>
+      </c>
+      <c r="B26" s="29">
+        <v>45537</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
+        <v>1100346436</v>
+      </c>
+      <c r="B27" s="29">
+        <v>45537</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="27">
+        <v>1110346705</v>
+      </c>
+      <c r="B28" s="29">
+        <v>45548</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="27">
+        <v>1110346704</v>
+      </c>
+      <c r="B29" s="29">
+        <v>45548</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
+        <v>1110346703</v>
+      </c>
+      <c r="B30" s="29">
+        <v>45548</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
+        <v>1110346702</v>
+      </c>
+      <c r="B31" s="29">
+        <v>45548</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <v>1010346697</v>
+      </c>
+      <c r="B32" s="29">
+        <v>45547</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
+        <v>1010346696</v>
+      </c>
+      <c r="B33" s="29">
+        <v>45547</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="27">
+        <v>1100346686</v>
+      </c>
+      <c r="B34" s="29">
+        <v>45548</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="27">
+        <v>1100346687</v>
+      </c>
+      <c r="B35" s="29">
+        <v>45548</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="27">
+        <v>1100346952</v>
+      </c>
+      <c r="B36" s="29">
+        <v>45552</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="27">
+        <v>1100346904</v>
+      </c>
+      <c r="B37" s="29">
+        <v>45551</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="27">
+        <v>1100346954</v>
+      </c>
+      <c r="B38" s="29">
+        <v>45553</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="27">
+        <v>1100346856</v>
+      </c>
+      <c r="B39" s="29">
+        <v>45551</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="27">
+        <v>1110347108</v>
+      </c>
+      <c r="B40" s="29">
+        <v>45562</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
+        <v>1100346423</v>
+      </c>
+      <c r="B41" s="32">
+        <v>45539</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="30">
+        <v>1100346422</v>
+      </c>
+      <c r="B42" s="32">
+        <v>45538</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
+        <v>1130346595</v>
+      </c>
+      <c r="B43" s="32">
         <v>45545</v>
       </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1110346596</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45546</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C43" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1110346600</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45546</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1110346581</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45544</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1110346580</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45544</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1110346599</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45546</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1010346597</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45546</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D43" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="30">
+        <v>1120346640</v>
+      </c>
+      <c r="B44" s="32">
+        <v>45548</v>
+      </c>
+      <c r="C44" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1110346594</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45545</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1010346662</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45547</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D44" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="30">
+        <v>1010346845</v>
+      </c>
+      <c r="B45" s="32">
+        <v>45555</v>
+      </c>
+      <c r="C45" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1020346575</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45544</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1110346598</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45546</v>
-      </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1110346601</v>
-      </c>
-      <c r="B12" s="1">
-        <v>45546</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1120346603</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45546</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1100346664</v>
-      </c>
-      <c r="B14" s="1">
-        <v>45547</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D45" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="30">
+        <v>1100346760</v>
+      </c>
+      <c r="B46" s="32">
+        <v>45553</v>
+      </c>
+      <c r="C46" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1120346602</v>
-      </c>
-      <c r="B15" s="1">
-        <v>45546</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1020346576</v>
-      </c>
-      <c r="B16" s="1">
-        <v>45544</v>
-      </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1120346670</v>
-      </c>
-      <c r="B17" s="1">
-        <v>45546</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1120346669</v>
-      </c>
-      <c r="B18" s="1">
-        <v>45547</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1120346668</v>
-      </c>
-      <c r="B19" s="1">
-        <v>45547</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1110346678</v>
-      </c>
-      <c r="B20" s="1">
-        <v>45548</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1110346677</v>
-      </c>
-      <c r="B21" s="1">
-        <v>45548</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1100346665</v>
-      </c>
-      <c r="B22" s="1">
-        <v>45547</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D46" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="30">
+        <v>1020346974</v>
+      </c>
+      <c r="B47" s="32">
+        <v>45558</v>
+      </c>
+      <c r="C47" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1110346679</v>
-      </c>
-      <c r="B23" s="1">
-        <v>45548</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1020346577</v>
-      </c>
-      <c r="B24" s="1">
-        <v>45544</v>
-      </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1110346680</v>
-      </c>
-      <c r="B25" s="1">
-        <v>45548</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1100346663</v>
-      </c>
-      <c r="B26" s="1">
-        <v>45547</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D47" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="30">
+        <v>1020347012</v>
+      </c>
+      <c r="B48" s="32">
+        <v>45562</v>
+      </c>
+      <c r="C48" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1100346672</v>
-      </c>
-      <c r="B27" s="1">
-        <v>45548</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D48" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="30">
+        <v>1020346999</v>
+      </c>
+      <c r="B49" s="32">
+        <v>45559</v>
+      </c>
+      <c r="C49" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1020346586</v>
-      </c>
-      <c r="B28" s="1">
-        <v>45545</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1110346681</v>
-      </c>
-      <c r="B29" s="1">
-        <v>45548</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1110346671</v>
-      </c>
-      <c r="B30" s="1">
-        <v>45548</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D49" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="30">
+        <v>1130347011</v>
+      </c>
+      <c r="B50" s="32">
+        <v>45561</v>
+      </c>
+      <c r="C50" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1010346676</v>
-      </c>
-      <c r="B31" s="1">
-        <v>45549</v>
-      </c>
-      <c r="C31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1020346587</v>
-      </c>
-      <c r="B32" s="1">
-        <v>45545</v>
-      </c>
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1110346604</v>
-      </c>
-      <c r="B33" s="1">
-        <v>45546</v>
-      </c>
-      <c r="C33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1010346675</v>
-      </c>
-      <c r="B34" s="1">
-        <v>45549</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D50" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="30">
+        <v>1170347001</v>
+      </c>
+      <c r="B51" s="32">
+        <v>45560</v>
+      </c>
+      <c r="C51" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1020346588</v>
-      </c>
-      <c r="B35" s="1">
-        <v>45545</v>
-      </c>
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1010346584</v>
-      </c>
-      <c r="B36" s="1">
-        <v>45545</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D51" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="33">
+        <v>1010346137</v>
+      </c>
+      <c r="B52" s="35">
+        <v>45552</v>
+      </c>
+      <c r="C52" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D36" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1110346570</v>
-      </c>
-      <c r="B37" s="1">
-        <v>45544</v>
-      </c>
-      <c r="C37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1110346607</v>
-      </c>
-      <c r="B38" s="1">
-        <v>45546</v>
-      </c>
-      <c r="C38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1110346606</v>
-      </c>
-      <c r="B39" s="1">
-        <v>45546</v>
-      </c>
-      <c r="C39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1120346566</v>
-      </c>
-      <c r="B40" s="1">
-        <v>45544</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D52" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="33">
+        <v>1010346738</v>
+      </c>
+      <c r="B53" s="35">
+        <v>45552</v>
+      </c>
+      <c r="C53" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D40" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1120346567</v>
-      </c>
-      <c r="B41" s="1">
-        <v>45544</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D53" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="33">
+        <v>1010346739</v>
+      </c>
+      <c r="B54" s="35">
+        <v>45552</v>
+      </c>
+      <c r="C54" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D41" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1010346727</v>
-      </c>
-      <c r="B42" s="1">
-        <v>45545</v>
-      </c>
-      <c r="C42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1010346568</v>
-      </c>
-      <c r="B43" s="1">
-        <v>45544</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D54" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="33">
+        <v>1010346740</v>
+      </c>
+      <c r="B55" s="35">
+        <v>45552</v>
+      </c>
+      <c r="C55" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1110346573</v>
-      </c>
-      <c r="B44" s="1">
-        <v>45544</v>
-      </c>
-      <c r="C44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1110346571</v>
-      </c>
-      <c r="B45" s="1">
-        <v>45544</v>
-      </c>
-      <c r="C45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1110346574</v>
-      </c>
-      <c r="B46" s="1">
-        <v>45544</v>
-      </c>
-      <c r="C46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1110346572</v>
-      </c>
-      <c r="B47" s="1">
-        <v>45544</v>
-      </c>
-      <c r="C47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1010346585</v>
-      </c>
-      <c r="B48" s="1">
-        <v>45545</v>
-      </c>
-      <c r="C48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1100346674</v>
-      </c>
-      <c r="B49" s="1">
-        <v>45548</v>
-      </c>
-      <c r="C49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1100346726</v>
-      </c>
-      <c r="B50" s="1">
-        <v>45545</v>
-      </c>
-      <c r="C50" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>1100346725</v>
-      </c>
-      <c r="B51" s="1">
-        <v>45545</v>
-      </c>
-      <c r="C51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1010346728</v>
-      </c>
-      <c r="B52" s="1">
-        <v>45545</v>
-      </c>
-      <c r="C52" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1110346605</v>
-      </c>
-      <c r="B53" s="1">
-        <v>45546</v>
-      </c>
-      <c r="C53" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>1100346666</v>
-      </c>
-      <c r="B54" s="1">
-        <v>45547</v>
-      </c>
-      <c r="C54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>1120346667</v>
-      </c>
-      <c r="B55" s="1">
-        <v>45547</v>
-      </c>
-      <c r="C55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="D55" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>1110346673</v>
-      </c>
-      <c r="B56" s="1">
-        <v>45548</v>
-      </c>
-      <c r="C56" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="A56" s="33">
+        <v>1110346998</v>
+      </c>
+      <c r="B56" s="35">
+        <v>45559</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>1120346858</v>
-      </c>
-      <c r="B57" s="1">
-        <v>45555</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="A57" s="33">
+        <v>1010347116</v>
+      </c>
+      <c r="B57" s="35">
+        <v>45558</v>
+      </c>
+      <c r="C57" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D57" t="s">
-        <v>46</v>
-      </c>
-      <c r="E57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="D57" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>1110346972</v>
-      </c>
-      <c r="B58" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C58" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="A58" s="33">
+        <v>1110346997</v>
+      </c>
+      <c r="B58" s="35">
+        <v>45559</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>1120346758</v>
-      </c>
-      <c r="B59" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="A59" s="33">
+        <v>1110346996</v>
+      </c>
+      <c r="B59" s="35">
+        <v>45559</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>1120346859</v>
-      </c>
-      <c r="B60" s="1">
-        <v>45555</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="A60" s="33">
+        <v>1110346994</v>
+      </c>
+      <c r="B60" s="35">
+        <v>45559</v>
+      </c>
+      <c r="C60" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="D60" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>1110346973</v>
-      </c>
-      <c r="B61" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="A61" s="33">
+        <v>1110346995</v>
+      </c>
+      <c r="B61" s="35">
+        <v>45559</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>1100346869</v>
-      </c>
-      <c r="B62" s="1">
-        <v>45556</v>
-      </c>
-      <c r="C62" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="A62" s="33">
+        <v>1010346828</v>
+      </c>
+      <c r="B62" s="35">
+        <v>45554</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F62" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>1120346857</v>
-      </c>
-      <c r="B63" s="1">
-        <v>45555</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="A63" s="33">
+        <v>1010346986</v>
+      </c>
+      <c r="B63" s="35">
+        <v>45559</v>
+      </c>
+      <c r="C63" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D63" t="s">
-        <v>46</v>
-      </c>
-      <c r="E63" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="D63" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>1100346870</v>
-      </c>
-      <c r="B64" s="1">
-        <v>45556</v>
-      </c>
-      <c r="C64" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" t="s">
-        <v>46</v>
-      </c>
-      <c r="E64" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="A64" s="33">
+        <v>1010346987</v>
+      </c>
+      <c r="B64" s="35">
+        <v>45559</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>1100346970</v>
-      </c>
-      <c r="B65" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C65" t="s">
-        <v>61</v>
-      </c>
-      <c r="D65" t="s">
-        <v>46</v>
-      </c>
-      <c r="E65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="A65" s="33">
+        <v>1010347115</v>
+      </c>
+      <c r="B65" s="35">
+        <v>45558</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>1110346971</v>
-      </c>
-      <c r="B66" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C66" t="s">
-        <v>60</v>
-      </c>
-      <c r="D66" t="s">
-        <v>46</v>
-      </c>
-      <c r="E66" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="A66" s="33">
+        <v>1010346988</v>
+      </c>
+      <c r="B66" s="35">
+        <v>45559</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>1100346969</v>
-      </c>
-      <c r="B67" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C67" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="A67" s="33">
+        <v>1010347117</v>
+      </c>
+      <c r="B67" s="35">
+        <v>45558</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F67" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>1100346863</v>
-      </c>
-      <c r="B68" s="1">
-        <v>45556</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="A68" s="33">
+        <v>1010346826</v>
+      </c>
+      <c r="B68" s="35">
+        <v>45554</v>
+      </c>
+      <c r="C68" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D68" t="s">
-        <v>46</v>
-      </c>
-      <c r="E68" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="D68" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F68" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>1010346843</v>
-      </c>
-      <c r="B69" s="1">
+      <c r="A69" s="33">
+        <v>1010346827</v>
+      </c>
+      <c r="B69" s="35">
         <v>45554</v>
       </c>
-      <c r="C69" t="s">
-        <v>58</v>
-      </c>
-      <c r="D69" t="s">
-        <v>46</v>
-      </c>
-      <c r="E69" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="C69" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1100346968</v>
-      </c>
-      <c r="B70" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C70" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" t="s">
-        <v>46</v>
-      </c>
-      <c r="E70" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="A70" s="33">
+        <v>1010346829</v>
+      </c>
+      <c r="B70" s="35">
+        <v>45554</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F70" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1120346759</v>
-      </c>
-      <c r="B71" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="A71" s="33">
+        <v>1010346830</v>
+      </c>
+      <c r="B71" s="35">
+        <v>45554</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F71" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1100346864</v>
-      </c>
-      <c r="B72" s="1">
-        <v>45556</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="A72" s="33">
+        <v>1010346821</v>
+      </c>
+      <c r="B72" s="35">
+        <v>45554</v>
+      </c>
+      <c r="C72" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D72" t="s">
-        <v>46</v>
-      </c>
-      <c r="E72" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="D72" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1130346841</v>
-      </c>
-      <c r="B73" s="1">
+      <c r="A73" s="33">
+        <v>1010347114</v>
+      </c>
+      <c r="B73" s="35">
+        <v>45565</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="33">
+        <v>1010346822</v>
+      </c>
+      <c r="B74" s="35">
         <v>45554</v>
       </c>
-      <c r="C73" t="s">
-        <v>61</v>
-      </c>
-      <c r="D73" t="s">
-        <v>46</v>
-      </c>
-      <c r="E73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>1130346842</v>
-      </c>
-      <c r="B74" s="1">
+      <c r="C74" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="33">
+        <v>1110347016</v>
+      </c>
+      <c r="B75" s="35">
+        <v>45562</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="33">
+        <v>1010346991</v>
+      </c>
+      <c r="B76" s="35">
+        <v>45559</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="33">
+        <v>1110347017</v>
+      </c>
+      <c r="B77" s="35">
+        <v>45562</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="33">
+        <v>1010346823</v>
+      </c>
+      <c r="B78" s="35">
         <v>45554</v>
       </c>
-      <c r="C74" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" t="s">
-        <v>46</v>
-      </c>
-      <c r="E74" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>1110346741</v>
-      </c>
-      <c r="B75" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C75" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" t="s">
-        <v>46</v>
-      </c>
-      <c r="E75" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1100346745</v>
-      </c>
-      <c r="B76" s="1">
-        <v>45551</v>
-      </c>
-      <c r="C76" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" t="s">
-        <v>46</v>
-      </c>
-      <c r="E76" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>1110346750</v>
-      </c>
-      <c r="B77" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C77" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E77" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1120346756</v>
-      </c>
-      <c r="B78" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C78" t="s">
-        <v>52</v>
-      </c>
-      <c r="D78" t="s">
-        <v>46</v>
-      </c>
-      <c r="E78" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="C78" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1120346757</v>
-      </c>
-      <c r="B79" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C79" t="s">
-        <v>52</v>
-      </c>
-      <c r="D79" t="s">
-        <v>46</v>
-      </c>
-      <c r="E79" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="A79" s="33">
+        <v>1010347119</v>
+      </c>
+      <c r="B79" s="35">
+        <v>45558</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>1100346840</v>
-      </c>
-      <c r="B80" s="1">
+      <c r="A80" s="33">
+        <v>1110347015</v>
+      </c>
+      <c r="B80" s="35">
+        <v>45562</v>
+      </c>
+      <c r="C80" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F80" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="33">
+        <v>1110347014</v>
+      </c>
+      <c r="B81" s="35">
+        <v>45562</v>
+      </c>
+      <c r="C81" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="33">
+        <v>1110347013</v>
+      </c>
+      <c r="B82" s="35">
+        <v>45562</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F82" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="33">
+        <v>1010346992</v>
+      </c>
+      <c r="B83" s="35">
+        <v>45559</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F83" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="33">
+        <v>1010346824</v>
+      </c>
+      <c r="B84" s="35">
         <v>45554</v>
       </c>
-      <c r="C80" t="s">
-        <v>52</v>
-      </c>
-      <c r="D80" t="s">
-        <v>46</v>
-      </c>
-      <c r="E80" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1110346839</v>
-      </c>
-      <c r="B81" s="1">
+      <c r="C84" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F84" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="33">
+        <v>1010347118</v>
+      </c>
+      <c r="B85" s="35">
+        <v>45558</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F85" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="33">
+        <v>1010346989</v>
+      </c>
+      <c r="B86" s="35">
+        <v>45559</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F86" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="33">
+        <v>1010346993</v>
+      </c>
+      <c r="B87" s="35">
+        <v>45559</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F87" s="34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="33">
+        <v>1010346825</v>
+      </c>
+      <c r="B88" s="35">
         <v>45554</v>
       </c>
-      <c r="C81" t="s">
-        <v>52</v>
-      </c>
-      <c r="D81" t="s">
-        <v>46</v>
-      </c>
-      <c r="E81" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>1120346861</v>
-      </c>
-      <c r="B82" s="1">
-        <v>45555</v>
-      </c>
-      <c r="C82" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" t="s">
-        <v>46</v>
-      </c>
-      <c r="E82" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1120346862</v>
-      </c>
-      <c r="B83" s="1">
-        <v>45555</v>
-      </c>
-      <c r="C83" t="s">
-        <v>52</v>
-      </c>
-      <c r="D83" t="s">
-        <v>46</v>
-      </c>
-      <c r="E83" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>1110346751</v>
-      </c>
-      <c r="B84" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C84" t="s">
-        <v>50</v>
-      </c>
-      <c r="D84" t="s">
-        <v>46</v>
-      </c>
-      <c r="E84" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>1010346744</v>
-      </c>
-      <c r="B85" s="1">
-        <v>45551</v>
-      </c>
-      <c r="C85" t="s">
-        <v>50</v>
-      </c>
-      <c r="D85" t="s">
-        <v>46</v>
-      </c>
-      <c r="E85" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>1100346743</v>
-      </c>
-      <c r="B86" s="1">
-        <v>45551</v>
-      </c>
-      <c r="C86" t="s">
-        <v>50</v>
-      </c>
-      <c r="D86" t="s">
-        <v>46</v>
-      </c>
-      <c r="E86" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>1100346748</v>
-      </c>
-      <c r="B87" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C87" t="s">
-        <v>50</v>
-      </c>
-      <c r="D87" t="s">
-        <v>46</v>
-      </c>
-      <c r="E87" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>1100346749</v>
-      </c>
-      <c r="B88" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C88" t="s">
-        <v>50</v>
-      </c>
-      <c r="D88" t="s">
-        <v>46</v>
-      </c>
-      <c r="E88" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" t="s">
+      <c r="C88" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="F88" s="34" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>1100346752</v>
-      </c>
-      <c r="B89" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C89" t="s">
-        <v>50</v>
-      </c>
-      <c r="D89" t="s">
-        <v>46</v>
-      </c>
-      <c r="E89" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>1100346836</v>
-      </c>
-      <c r="B90" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C90" t="s">
-        <v>50</v>
-      </c>
-      <c r="D90" t="s">
-        <v>46</v>
-      </c>
-      <c r="E90" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>1100346835</v>
-      </c>
-      <c r="B91" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C91" t="s">
-        <v>50</v>
-      </c>
-      <c r="D91" t="s">
-        <v>46</v>
-      </c>
-      <c r="E91" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>1100346834</v>
-      </c>
-      <c r="B92" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C92" t="s">
-        <v>50</v>
-      </c>
-      <c r="D92" t="s">
-        <v>46</v>
-      </c>
-      <c r="E92" t="s">
-        <v>16</v>
-      </c>
-      <c r="F92" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>1110346837</v>
-      </c>
-      <c r="B93" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C93" t="s">
-        <v>50</v>
-      </c>
-      <c r="D93" t="s">
-        <v>46</v>
-      </c>
-      <c r="E93" t="s">
-        <v>16</v>
-      </c>
-      <c r="F93" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>1110346838</v>
-      </c>
-      <c r="B94" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C94" t="s">
-        <v>50</v>
-      </c>
-      <c r="D94" t="s">
-        <v>46</v>
-      </c>
-      <c r="E94" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>1100346860</v>
-      </c>
-      <c r="B95" s="1">
-        <v>45555</v>
-      </c>
-      <c r="C95" t="s">
-        <v>50</v>
-      </c>
-      <c r="D95" t="s">
-        <v>46</v>
-      </c>
-      <c r="E95" t="s">
-        <v>16</v>
-      </c>
-      <c r="F95" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>1100346868</v>
-      </c>
-      <c r="B96" s="1">
-        <v>45556</v>
-      </c>
-      <c r="C96" t="s">
-        <v>50</v>
-      </c>
-      <c r="D96" t="s">
-        <v>46</v>
-      </c>
-      <c r="E96" t="s">
-        <v>16</v>
-      </c>
-      <c r="F96" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>1100346867</v>
-      </c>
-      <c r="B97" s="1">
-        <v>45556</v>
-      </c>
-      <c r="C97" t="s">
-        <v>50</v>
-      </c>
-      <c r="D97" t="s">
-        <v>46</v>
-      </c>
-      <c r="E97" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>1100346866</v>
-      </c>
-      <c r="B98" s="1">
-        <v>45556</v>
-      </c>
-      <c r="C98" t="s">
-        <v>50</v>
-      </c>
-      <c r="D98" t="s">
-        <v>46</v>
-      </c>
-      <c r="E98" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>1100346865</v>
-      </c>
-      <c r="B99" s="1">
-        <v>45556</v>
-      </c>
-      <c r="C99" t="s">
-        <v>50</v>
-      </c>
-      <c r="D99" t="s">
-        <v>46</v>
-      </c>
-      <c r="E99" t="s">
-        <v>16</v>
-      </c>
-      <c r="F99" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>1010346742</v>
-      </c>
-      <c r="B100" s="1">
-        <v>45551</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="A89" s="33">
+        <v>1010346990</v>
+      </c>
+      <c r="B89" s="35">
+        <v>45559</v>
+      </c>
+      <c r="C89" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D100" t="s">
-        <v>46</v>
-      </c>
-      <c r="E100" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>1110346746</v>
-      </c>
-      <c r="B101" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C101" t="s">
-        <v>49</v>
-      </c>
-      <c r="D101" t="s">
-        <v>46</v>
-      </c>
-      <c r="E101" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>1110346747</v>
-      </c>
-      <c r="B102" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C102" t="s">
-        <v>49</v>
-      </c>
-      <c r="D102" t="s">
-        <v>46</v>
-      </c>
-      <c r="E102" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>1110346844</v>
-      </c>
-      <c r="B103" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C103" t="s">
-        <v>49</v>
-      </c>
-      <c r="D103" t="s">
-        <v>46</v>
-      </c>
-      <c r="E103" t="s">
-        <v>16</v>
-      </c>
-      <c r="F103" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>1110346753</v>
-      </c>
-      <c r="B104" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C104" t="s">
-        <v>49</v>
-      </c>
-      <c r="D104" t="s">
-        <v>46</v>
-      </c>
-      <c r="E104" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>1110346754</v>
-      </c>
-      <c r="B105" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C105" t="s">
-        <v>49</v>
-      </c>
-      <c r="D105" t="s">
-        <v>46</v>
-      </c>
-      <c r="E105" t="s">
-        <v>16</v>
-      </c>
-      <c r="F105" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>1120346755</v>
-      </c>
-      <c r="B106" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C106" t="s">
-        <v>49</v>
-      </c>
-      <c r="D106" t="s">
-        <v>46</v>
-      </c>
-      <c r="E106" t="s">
-        <v>16</v>
-      </c>
-      <c r="F106" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>1110346831</v>
-      </c>
-      <c r="B107" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C107" t="s">
-        <v>49</v>
-      </c>
-      <c r="D107" t="s">
-        <v>46</v>
-      </c>
-      <c r="E107" t="s">
-        <v>16</v>
-      </c>
-      <c r="F107" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>1110346832</v>
-      </c>
-      <c r="B108" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C108" t="s">
-        <v>49</v>
-      </c>
-      <c r="D108" t="s">
-        <v>46</v>
-      </c>
-      <c r="E108" t="s">
-        <v>16</v>
-      </c>
-      <c r="F108" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>1100346833</v>
-      </c>
-      <c r="B109" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C109" t="s">
-        <v>49</v>
-      </c>
-      <c r="D109" t="s">
-        <v>46</v>
-      </c>
-      <c r="E109" t="s">
-        <v>16</v>
-      </c>
-      <c r="F109" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>1110346967</v>
-      </c>
-      <c r="B110" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C110" t="s">
-        <v>63</v>
-      </c>
-      <c r="D110" t="s">
-        <v>46</v>
-      </c>
-      <c r="E110" t="s">
-        <v>16</v>
-      </c>
-      <c r="F110" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>1130346960</v>
-      </c>
-      <c r="B111" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C111" t="s">
-        <v>56</v>
-      </c>
-      <c r="D111" t="s">
-        <v>46</v>
-      </c>
-      <c r="E111" t="s">
-        <v>16</v>
-      </c>
-      <c r="F111" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>1130346959</v>
-      </c>
-      <c r="B112" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C112" t="s">
-        <v>56</v>
-      </c>
-      <c r="D112" t="s">
-        <v>46</v>
-      </c>
-      <c r="E112" t="s">
-        <v>16</v>
-      </c>
-      <c r="F112" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>1130346958</v>
-      </c>
-      <c r="B113" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C113" t="s">
-        <v>56</v>
-      </c>
-      <c r="D113" t="s">
-        <v>46</v>
-      </c>
-      <c r="E113" t="s">
-        <v>16</v>
-      </c>
-      <c r="F113" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>1130346957</v>
-      </c>
-      <c r="B114" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C114" t="s">
-        <v>56</v>
-      </c>
-      <c r="D114" t="s">
-        <v>46</v>
-      </c>
-      <c r="E114" t="s">
-        <v>16</v>
-      </c>
-      <c r="F114" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>1130346956</v>
-      </c>
-      <c r="B115" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C115" t="s">
-        <v>56</v>
-      </c>
-      <c r="D115" t="s">
-        <v>46</v>
-      </c>
-      <c r="E115" t="s">
-        <v>16</v>
-      </c>
-      <c r="F115" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>1130346814</v>
-      </c>
-      <c r="B116" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C116" t="s">
-        <v>143</v>
-      </c>
-      <c r="D116" t="s">
-        <v>46</v>
-      </c>
-      <c r="E116" t="s">
-        <v>16</v>
-      </c>
-      <c r="F116" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>1130346816</v>
-      </c>
-      <c r="B117" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C117" t="s">
-        <v>143</v>
-      </c>
-      <c r="D117" t="s">
-        <v>46</v>
-      </c>
-      <c r="E117" t="s">
-        <v>16</v>
-      </c>
-      <c r="F117" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>1130346820</v>
-      </c>
-      <c r="B118" s="1">
-        <v>45555</v>
-      </c>
-      <c r="C118" t="s">
-        <v>143</v>
-      </c>
-      <c r="D118" t="s">
-        <v>46</v>
-      </c>
-      <c r="E118" t="s">
-        <v>16</v>
-      </c>
-      <c r="F118" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>1130346819</v>
-      </c>
-      <c r="B119" s="1">
-        <v>45555</v>
-      </c>
-      <c r="C119" t="s">
-        <v>143</v>
-      </c>
-      <c r="D119" t="s">
-        <v>46</v>
-      </c>
-      <c r="E119" t="s">
-        <v>16</v>
-      </c>
-      <c r="F119" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>1130346818</v>
-      </c>
-      <c r="B120" s="1">
-        <v>45555</v>
-      </c>
-      <c r="C120" t="s">
-        <v>143</v>
-      </c>
-      <c r="D120" t="s">
-        <v>46</v>
-      </c>
-      <c r="E120" t="s">
-        <v>16</v>
-      </c>
-      <c r="F120" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>1130346817</v>
-      </c>
-      <c r="B121" s="1">
-        <v>45555</v>
-      </c>
-      <c r="C121" t="s">
-        <v>143</v>
-      </c>
-      <c r="D121" t="s">
-        <v>46</v>
-      </c>
-      <c r="E121" t="s">
-        <v>16</v>
-      </c>
-      <c r="F121" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>1020346962</v>
-      </c>
-      <c r="B122" s="1">
-        <v>45551</v>
-      </c>
-      <c r="C122" t="s">
-        <v>62</v>
-      </c>
-      <c r="D122" t="s">
-        <v>46</v>
-      </c>
-      <c r="E122" t="s">
-        <v>16</v>
-      </c>
-      <c r="F122" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>1100346921</v>
-      </c>
-      <c r="B123" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C123" t="s">
-        <v>82</v>
-      </c>
-      <c r="D123" t="s">
-        <v>46</v>
-      </c>
-      <c r="E123" t="s">
-        <v>16</v>
-      </c>
-      <c r="F123" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>1100346920</v>
-      </c>
-      <c r="B124" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C124" t="s">
-        <v>82</v>
-      </c>
-      <c r="D124" t="s">
-        <v>46</v>
-      </c>
-      <c r="E124" t="s">
-        <v>16</v>
-      </c>
-      <c r="F124" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>1100346919</v>
-      </c>
-      <c r="B125" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C125" t="s">
-        <v>82</v>
-      </c>
-      <c r="D125" t="s">
-        <v>46</v>
-      </c>
-      <c r="E125" t="s">
-        <v>16</v>
-      </c>
-      <c r="F125" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>1100346918</v>
-      </c>
-      <c r="B126" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C126" t="s">
-        <v>82</v>
-      </c>
-      <c r="D126" t="s">
-        <v>46</v>
-      </c>
-      <c r="E126" t="s">
-        <v>16</v>
-      </c>
-      <c r="F126" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>1020346961</v>
-      </c>
-      <c r="B127" s="1">
-        <v>45551</v>
-      </c>
-      <c r="C127" t="s">
-        <v>62</v>
-      </c>
-      <c r="D127" t="s">
-        <v>46</v>
-      </c>
-      <c r="E127" t="s">
-        <v>16</v>
-      </c>
-      <c r="F127" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>1020346963</v>
-      </c>
-      <c r="B128" s="1">
-        <v>45551</v>
-      </c>
-      <c r="C128" t="s">
-        <v>62</v>
-      </c>
-      <c r="D128" t="s">
-        <v>46</v>
-      </c>
-      <c r="E128" t="s">
-        <v>16</v>
-      </c>
-      <c r="F128" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>1020346964</v>
-      </c>
-      <c r="B129" s="1">
-        <v>45551</v>
-      </c>
-      <c r="C129" t="s">
-        <v>62</v>
-      </c>
-      <c r="D129" t="s">
-        <v>46</v>
-      </c>
-      <c r="E129" t="s">
-        <v>16</v>
-      </c>
-      <c r="F129" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>1020346965</v>
-      </c>
-      <c r="B130" s="1">
-        <v>45551</v>
-      </c>
-      <c r="C130" t="s">
-        <v>62</v>
-      </c>
-      <c r="D130" t="s">
-        <v>46</v>
-      </c>
-      <c r="E130" t="s">
-        <v>16</v>
-      </c>
-      <c r="F130" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>1110346915</v>
-      </c>
-      <c r="B131" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C131" t="s">
-        <v>110</v>
-      </c>
-      <c r="D131" t="s">
-        <v>46</v>
-      </c>
-      <c r="E131" t="s">
-        <v>16</v>
-      </c>
-      <c r="F131" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>1110346914</v>
-      </c>
-      <c r="B132" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C132" t="s">
-        <v>110</v>
-      </c>
-      <c r="D132" t="s">
-        <v>46</v>
-      </c>
-      <c r="E132" t="s">
-        <v>16</v>
-      </c>
-      <c r="F132" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>1020346966</v>
-      </c>
-      <c r="B133" s="1">
-        <v>45551</v>
-      </c>
-      <c r="C133" t="s">
-        <v>62</v>
-      </c>
-      <c r="D133" t="s">
-        <v>46</v>
-      </c>
-      <c r="E133" t="s">
-        <v>16</v>
-      </c>
-      <c r="F133" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>1100346943</v>
-      </c>
-      <c r="B134" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="D89" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D134" t="s">
-        <v>46</v>
-      </c>
-      <c r="E134" t="s">
-        <v>16</v>
-      </c>
-      <c r="F134" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>1100346942</v>
-      </c>
-      <c r="B135" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C135" t="s">
-        <v>142</v>
-      </c>
-      <c r="D135" t="s">
-        <v>46</v>
-      </c>
-      <c r="E135" t="s">
-        <v>16</v>
-      </c>
-      <c r="F135" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>1100346941</v>
-      </c>
-      <c r="B136" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C136" t="s">
-        <v>142</v>
-      </c>
-      <c r="D136" t="s">
-        <v>46</v>
-      </c>
-      <c r="E136" t="s">
-        <v>16</v>
-      </c>
-      <c r="F136" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>1100346940</v>
-      </c>
-      <c r="B137" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C137" t="s">
-        <v>142</v>
-      </c>
-      <c r="D137" t="s">
-        <v>46</v>
-      </c>
-      <c r="E137" t="s">
-        <v>16</v>
-      </c>
-      <c r="F137" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>1100346946</v>
-      </c>
-      <c r="B138" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C138" t="s">
-        <v>142</v>
-      </c>
-      <c r="D138" t="s">
-        <v>46</v>
-      </c>
-      <c r="E138" t="s">
-        <v>16</v>
-      </c>
-      <c r="F138" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>1100346945</v>
-      </c>
-      <c r="B139" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C139" t="s">
-        <v>142</v>
-      </c>
-      <c r="D139" t="s">
-        <v>46</v>
-      </c>
-      <c r="E139" t="s">
-        <v>16</v>
-      </c>
-      <c r="F139" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>1010346876</v>
-      </c>
-      <c r="B140" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C140" t="s">
-        <v>80</v>
-      </c>
-      <c r="D140" t="s">
-        <v>46</v>
-      </c>
-      <c r="E140" t="s">
-        <v>16</v>
-      </c>
-      <c r="F140" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>1010346875</v>
-      </c>
-      <c r="B141" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C141" t="s">
-        <v>80</v>
-      </c>
-      <c r="D141" t="s">
-        <v>46</v>
-      </c>
-      <c r="E141" t="s">
-        <v>16</v>
-      </c>
-      <c r="F141" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>1100346877</v>
-      </c>
-      <c r="B142" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C142" t="s">
-        <v>80</v>
-      </c>
-      <c r="D142" t="s">
-        <v>46</v>
-      </c>
-      <c r="E142" t="s">
-        <v>16</v>
-      </c>
-      <c r="F142" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>1100346878</v>
-      </c>
-      <c r="B143" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C143" t="s">
-        <v>80</v>
-      </c>
-      <c r="D143" t="s">
-        <v>46</v>
-      </c>
-      <c r="E143" t="s">
-        <v>16</v>
-      </c>
-      <c r="F143" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>1110346917</v>
-      </c>
-      <c r="B144" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C144" t="s">
-        <v>110</v>
-      </c>
-      <c r="D144" t="s">
-        <v>46</v>
-      </c>
-      <c r="E144" t="s">
-        <v>16</v>
-      </c>
-      <c r="F144" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>1110346916</v>
-      </c>
-      <c r="B145" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C145" t="s">
-        <v>110</v>
-      </c>
-      <c r="D145" t="s">
-        <v>46</v>
-      </c>
-      <c r="E145" t="s">
-        <v>16</v>
-      </c>
-      <c r="F145" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>1100346944</v>
-      </c>
-      <c r="B146" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C146" t="s">
-        <v>142</v>
-      </c>
-      <c r="D146" t="s">
-        <v>46</v>
-      </c>
-      <c r="E146" t="s">
-        <v>16</v>
-      </c>
-      <c r="F146" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>1020346736</v>
-      </c>
-      <c r="B147" s="1">
-        <v>45551</v>
-      </c>
-      <c r="C147" t="s">
-        <v>48</v>
-      </c>
-      <c r="D147" t="s">
-        <v>46</v>
-      </c>
-      <c r="E147" t="s">
-        <v>16</v>
-      </c>
-      <c r="F147" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>1110346913</v>
-      </c>
-      <c r="B148" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C148" t="s">
-        <v>110</v>
-      </c>
-      <c r="D148" t="s">
-        <v>46</v>
-      </c>
-      <c r="E148" t="s">
-        <v>16</v>
-      </c>
-      <c r="F148" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>1010346780</v>
-      </c>
-      <c r="B149" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C149" t="s">
-        <v>48</v>
-      </c>
-      <c r="D149" t="s">
-        <v>46</v>
-      </c>
-      <c r="E149" t="s">
-        <v>16</v>
-      </c>
-      <c r="F149" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>1110346906</v>
-      </c>
-      <c r="B150" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C150" t="s">
-        <v>54</v>
-      </c>
-      <c r="D150" t="s">
-        <v>46</v>
-      </c>
-      <c r="E150" t="s">
-        <v>16</v>
-      </c>
-      <c r="F150" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>1110346912</v>
-      </c>
-      <c r="B151" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C151" t="s">
-        <v>110</v>
-      </c>
-      <c r="D151" t="s">
-        <v>46</v>
-      </c>
-      <c r="E151" t="s">
-        <v>16</v>
-      </c>
-      <c r="F151" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>1020346731</v>
-      </c>
-      <c r="B152" s="1">
-        <v>45551</v>
-      </c>
-      <c r="C152" t="s">
-        <v>48</v>
-      </c>
-      <c r="D152" t="s">
-        <v>46</v>
-      </c>
-      <c r="E152" t="s">
-        <v>16</v>
-      </c>
-      <c r="F152" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>1110346911</v>
-      </c>
-      <c r="B153" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C153" t="s">
-        <v>54</v>
-      </c>
-      <c r="D153" t="s">
-        <v>46</v>
-      </c>
-      <c r="E153" t="s">
-        <v>16</v>
-      </c>
-      <c r="F153" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>1010346775</v>
-      </c>
-      <c r="B154" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C154" t="s">
-        <v>48</v>
-      </c>
-      <c r="D154" t="s">
-        <v>46</v>
-      </c>
-      <c r="E154" t="s">
-        <v>16</v>
-      </c>
-      <c r="F154" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>1110346910</v>
-      </c>
-      <c r="B155" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C155" t="s">
-        <v>54</v>
-      </c>
-      <c r="D155" t="s">
-        <v>46</v>
-      </c>
-      <c r="E155" t="s">
-        <v>16</v>
-      </c>
-      <c r="F155" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>1020346732</v>
-      </c>
-      <c r="B156" s="1">
-        <v>45551</v>
-      </c>
-      <c r="C156" t="s">
-        <v>48</v>
-      </c>
-      <c r="D156" t="s">
-        <v>46</v>
-      </c>
-      <c r="E156" t="s">
-        <v>16</v>
-      </c>
-      <c r="F156" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>1110346909</v>
-      </c>
-      <c r="B157" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C157" t="s">
-        <v>54</v>
-      </c>
-      <c r="D157" t="s">
-        <v>46</v>
-      </c>
-      <c r="E157" t="s">
-        <v>16</v>
-      </c>
-      <c r="F157" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>1100346781</v>
-      </c>
-      <c r="B158" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C158" t="s">
-        <v>48</v>
-      </c>
-      <c r="D158" t="s">
-        <v>46</v>
-      </c>
-      <c r="E158" t="s">
-        <v>16</v>
-      </c>
-      <c r="F158" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>1020346796</v>
-      </c>
-      <c r="B159" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C159" t="s">
-        <v>48</v>
-      </c>
-      <c r="D159" t="s">
-        <v>46</v>
-      </c>
-      <c r="E159" t="s">
-        <v>16</v>
-      </c>
-      <c r="F159" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>1110346908</v>
-      </c>
-      <c r="B160" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C160" t="s">
-        <v>54</v>
-      </c>
-      <c r="D160" t="s">
-        <v>46</v>
-      </c>
-      <c r="E160" t="s">
-        <v>16</v>
-      </c>
-      <c r="F160" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>1110346907</v>
-      </c>
-      <c r="B161" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C161" t="s">
-        <v>54</v>
-      </c>
-      <c r="D161" t="s">
-        <v>46</v>
-      </c>
-      <c r="E161" t="s">
-        <v>16</v>
-      </c>
-      <c r="F161" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>1020346733</v>
-      </c>
-      <c r="B162" s="1">
-        <v>45551</v>
-      </c>
-      <c r="C162" t="s">
-        <v>48</v>
-      </c>
-      <c r="D162" t="s">
-        <v>46</v>
-      </c>
-      <c r="E162" t="s">
-        <v>16</v>
-      </c>
-      <c r="F162" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>1130346815</v>
-      </c>
-      <c r="B163" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C163" t="s">
-        <v>143</v>
-      </c>
-      <c r="D163" t="s">
-        <v>46</v>
-      </c>
-      <c r="E163" t="s">
-        <v>16</v>
-      </c>
-      <c r="F163" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>1100346782</v>
-      </c>
-      <c r="B164" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C164" t="s">
-        <v>48</v>
-      </c>
-      <c r="D164" t="s">
-        <v>46</v>
-      </c>
-      <c r="E164" t="s">
-        <v>16</v>
-      </c>
-      <c r="F164" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>1010346776</v>
-      </c>
-      <c r="B165" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C165" t="s">
-        <v>48</v>
-      </c>
-      <c r="D165" t="s">
-        <v>46</v>
-      </c>
-      <c r="E165" t="s">
-        <v>16</v>
-      </c>
-      <c r="F165" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>1100346783</v>
-      </c>
-      <c r="B166" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C166" t="s">
-        <v>48</v>
-      </c>
-      <c r="D166" t="s">
-        <v>46</v>
-      </c>
-      <c r="E166" t="s">
-        <v>16</v>
-      </c>
-      <c r="F166" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>1020346797</v>
-      </c>
-      <c r="B167" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C167" t="s">
-        <v>48</v>
-      </c>
-      <c r="D167" t="s">
-        <v>46</v>
-      </c>
-      <c r="E167" t="s">
-        <v>16</v>
-      </c>
-      <c r="F167" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>1010346777</v>
-      </c>
-      <c r="B168" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C168" t="s">
-        <v>48</v>
-      </c>
-      <c r="D168" t="s">
-        <v>46</v>
-      </c>
-      <c r="E168" t="s">
-        <v>16</v>
-      </c>
-      <c r="F168" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>1100346784</v>
-      </c>
-      <c r="B169" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C169" t="s">
-        <v>48</v>
-      </c>
-      <c r="D169" t="s">
-        <v>46</v>
-      </c>
-      <c r="E169" t="s">
-        <v>16</v>
-      </c>
-      <c r="F169" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>1020346798</v>
-      </c>
-      <c r="B170" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C170" t="s">
-        <v>48</v>
-      </c>
-      <c r="D170" t="s">
-        <v>46</v>
-      </c>
-      <c r="E170" t="s">
-        <v>16</v>
-      </c>
-      <c r="F170" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>1010346778</v>
-      </c>
-      <c r="B171" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C171" t="s">
-        <v>48</v>
-      </c>
-      <c r="D171" t="s">
-        <v>46</v>
-      </c>
-      <c r="E171" t="s">
-        <v>16</v>
-      </c>
-      <c r="F171" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>1100346887</v>
-      </c>
-      <c r="B172" s="1">
-        <v>45555</v>
-      </c>
-      <c r="C172" t="s">
-        <v>48</v>
-      </c>
-      <c r="D172" t="s">
-        <v>46</v>
-      </c>
-      <c r="E172" t="s">
-        <v>16</v>
-      </c>
-      <c r="F172" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>1100346786</v>
-      </c>
-      <c r="B173" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C173" t="s">
-        <v>48</v>
-      </c>
-      <c r="D173" t="s">
-        <v>46</v>
-      </c>
-      <c r="E173" t="s">
-        <v>16</v>
-      </c>
-      <c r="F173" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>1020346735</v>
-      </c>
-      <c r="B174" s="1">
-        <v>45551</v>
-      </c>
-      <c r="C174" t="s">
-        <v>48</v>
-      </c>
-      <c r="D174" t="s">
-        <v>46</v>
-      </c>
-      <c r="E174" t="s">
-        <v>16</v>
-      </c>
-      <c r="F174" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>1020346795</v>
-      </c>
-      <c r="B175" s="1">
-        <v>45554</v>
-      </c>
-      <c r="C175" t="s">
-        <v>48</v>
-      </c>
-      <c r="D175" t="s">
-        <v>46</v>
-      </c>
-      <c r="E175" t="s">
-        <v>16</v>
-      </c>
-      <c r="F175" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>1100346886</v>
-      </c>
-      <c r="B176" s="1">
-        <v>45555</v>
-      </c>
-      <c r="C176" t="s">
-        <v>48</v>
-      </c>
-      <c r="D176" t="s">
-        <v>46</v>
-      </c>
-      <c r="E176" t="s">
-        <v>16</v>
-      </c>
-      <c r="F176" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>1010346779</v>
-      </c>
-      <c r="B177" s="1">
-        <v>45552</v>
-      </c>
-      <c r="C177" t="s">
-        <v>48</v>
-      </c>
-      <c r="D177" t="s">
-        <v>46</v>
-      </c>
-      <c r="E177" t="s">
-        <v>16</v>
-      </c>
-      <c r="F177" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>1020346734</v>
-      </c>
-      <c r="B178" s="1">
-        <v>45551</v>
-      </c>
-      <c r="C178" t="s">
-        <v>48</v>
-      </c>
-      <c r="D178" t="s">
-        <v>46</v>
-      </c>
-      <c r="E178" t="s">
-        <v>16</v>
-      </c>
-      <c r="F178" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>1020347027</v>
-      </c>
-      <c r="B179" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C179" t="s">
-        <v>121</v>
-      </c>
-      <c r="D179" t="s">
-        <v>46</v>
-      </c>
-      <c r="E179" t="s">
-        <v>16</v>
-      </c>
-      <c r="F179" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>1100346785</v>
-      </c>
-      <c r="B180" s="1">
-        <v>45553</v>
-      </c>
-      <c r="C180" t="s">
-        <v>48</v>
-      </c>
-      <c r="D180" t="s">
-        <v>46</v>
-      </c>
-      <c r="E180" t="s">
-        <v>16</v>
-      </c>
-      <c r="F180" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>1100347129</v>
-      </c>
-      <c r="B181" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C181" t="s">
-        <v>144</v>
-      </c>
-      <c r="D181" t="s">
-        <v>46</v>
-      </c>
-      <c r="E181" t="s">
-        <v>16</v>
-      </c>
-      <c r="F181" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>1020347028</v>
-      </c>
-      <c r="B182" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C182" t="s">
-        <v>121</v>
-      </c>
-      <c r="D182" t="s">
-        <v>46</v>
-      </c>
-      <c r="E182" t="s">
-        <v>16</v>
-      </c>
-      <c r="F182" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>1100347045</v>
-      </c>
-      <c r="B183" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C183" t="s">
-        <v>47</v>
-      </c>
-      <c r="D183" t="s">
-        <v>46</v>
-      </c>
-      <c r="E183" t="s">
-        <v>16</v>
-      </c>
-      <c r="F183" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>1110347102</v>
-      </c>
-      <c r="B184" s="1">
-        <v>45559</v>
-      </c>
-      <c r="C184" t="s">
-        <v>122</v>
-      </c>
-      <c r="D184" t="s">
-        <v>46</v>
-      </c>
-      <c r="E184" t="s">
-        <v>16</v>
-      </c>
-      <c r="F184" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>1010347036</v>
-      </c>
-      <c r="B185" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C185" t="s">
-        <v>110</v>
-      </c>
-      <c r="D185" t="s">
-        <v>46</v>
-      </c>
-      <c r="E185" t="s">
-        <v>16</v>
-      </c>
-      <c r="F185" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>1110347103</v>
-      </c>
-      <c r="B186" s="1">
-        <v>45559</v>
-      </c>
-      <c r="C186" t="s">
-        <v>122</v>
-      </c>
-      <c r="D186" t="s">
-        <v>46</v>
-      </c>
-      <c r="E186" t="s">
-        <v>16</v>
-      </c>
-      <c r="F186" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>1010347030</v>
-      </c>
-      <c r="B187" s="1">
-        <v>45562</v>
-      </c>
-      <c r="C187" t="s">
-        <v>121</v>
-      </c>
-      <c r="D187" t="s">
-        <v>46</v>
-      </c>
-      <c r="E187" t="s">
-        <v>16</v>
-      </c>
-      <c r="F187" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>1010347035</v>
-      </c>
-      <c r="B188" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C188" t="s">
-        <v>110</v>
-      </c>
-      <c r="D188" t="s">
-        <v>46</v>
-      </c>
-      <c r="E188" t="s">
-        <v>16</v>
-      </c>
-      <c r="F188" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>1110347104</v>
-      </c>
-      <c r="B189" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C189" t="s">
-        <v>122</v>
-      </c>
-      <c r="D189" t="s">
-        <v>46</v>
-      </c>
-      <c r="E189" t="s">
-        <v>16</v>
-      </c>
-      <c r="F189" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>1110347084</v>
-      </c>
-      <c r="B190" s="1">
-        <v>45559</v>
-      </c>
-      <c r="C190" t="s">
-        <v>77</v>
-      </c>
-      <c r="D190" t="s">
-        <v>46</v>
-      </c>
-      <c r="E190" t="s">
-        <v>16</v>
-      </c>
-      <c r="F190" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>1020347029</v>
-      </c>
-      <c r="B191" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C191" t="s">
-        <v>121</v>
-      </c>
-      <c r="D191" t="s">
-        <v>46</v>
-      </c>
-      <c r="E191" t="s">
-        <v>16</v>
-      </c>
-      <c r="F191" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>1010347033</v>
-      </c>
-      <c r="B192" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C192" t="s">
-        <v>54</v>
-      </c>
-      <c r="D192" t="s">
-        <v>46</v>
-      </c>
-      <c r="E192" t="s">
-        <v>16</v>
-      </c>
-      <c r="F192" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>1100347046</v>
-      </c>
-      <c r="B193" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C193" t="s">
-        <v>47</v>
-      </c>
-      <c r="D193" t="s">
-        <v>46</v>
-      </c>
-      <c r="E193" t="s">
-        <v>16</v>
-      </c>
-      <c r="F193" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>1110347105</v>
-      </c>
-      <c r="B194" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C194" t="s">
-        <v>122</v>
-      </c>
-      <c r="D194" t="s">
-        <v>46</v>
-      </c>
-      <c r="E194" t="s">
-        <v>16</v>
-      </c>
-      <c r="F194" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>1010347111</v>
-      </c>
-      <c r="B195" s="1">
-        <v>45562</v>
-      </c>
-      <c r="C195" t="s">
-        <v>110</v>
-      </c>
-      <c r="D195" t="s">
-        <v>46</v>
-      </c>
-      <c r="E195" t="s">
-        <v>16</v>
-      </c>
-      <c r="F195" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>1110347106</v>
-      </c>
-      <c r="B196" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C196" t="s">
-        <v>122</v>
-      </c>
-      <c r="D196" t="s">
-        <v>46</v>
-      </c>
-      <c r="E196" t="s">
-        <v>16</v>
-      </c>
-      <c r="F196" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>1110347107</v>
-      </c>
-      <c r="B197" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C197" t="s">
-        <v>122</v>
-      </c>
-      <c r="D197" t="s">
-        <v>46</v>
-      </c>
-      <c r="E197" t="s">
-        <v>16</v>
-      </c>
-      <c r="F197" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>1010347032</v>
-      </c>
-      <c r="B198" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C198" t="s">
-        <v>54</v>
-      </c>
-      <c r="D198" t="s">
-        <v>46</v>
-      </c>
-      <c r="E198" t="s">
-        <v>16</v>
-      </c>
-      <c r="F198" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>1100347128</v>
-      </c>
-      <c r="B199" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C199" t="s">
-        <v>144</v>
-      </c>
-      <c r="D199" t="s">
-        <v>46</v>
-      </c>
-      <c r="E199" t="s">
-        <v>16</v>
-      </c>
-      <c r="F199" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>1020347130</v>
-      </c>
-      <c r="B200" s="1">
-        <v>45562</v>
-      </c>
-      <c r="C200" t="s">
-        <v>62</v>
-      </c>
-      <c r="D200" t="s">
-        <v>46</v>
-      </c>
-      <c r="E200" t="s">
-        <v>16</v>
-      </c>
-      <c r="F200" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>1010347031</v>
-      </c>
-      <c r="B201" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C201" t="s">
-        <v>54</v>
-      </c>
-      <c r="D201" t="s">
-        <v>46</v>
-      </c>
-      <c r="E201" t="s">
-        <v>16</v>
-      </c>
-      <c r="F201" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>1100347051</v>
-      </c>
-      <c r="B202" s="1">
-        <v>45561</v>
-      </c>
-      <c r="C202" t="s">
-        <v>47</v>
-      </c>
-      <c r="D202" t="s">
-        <v>46</v>
-      </c>
-      <c r="E202" t="s">
-        <v>16</v>
-      </c>
-      <c r="F202" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>1110347039</v>
-      </c>
-      <c r="B203" s="1">
-        <v>45540</v>
-      </c>
-      <c r="C203" t="s">
-        <v>47</v>
-      </c>
-      <c r="D203" t="s">
-        <v>46</v>
-      </c>
-      <c r="E203" t="s">
-        <v>16</v>
-      </c>
-      <c r="F203" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>1020347113</v>
-      </c>
-      <c r="B204" s="1">
-        <v>45562</v>
-      </c>
-      <c r="C204" t="s">
-        <v>62</v>
-      </c>
-      <c r="D204" t="s">
-        <v>46</v>
-      </c>
-      <c r="E204" t="s">
-        <v>16</v>
-      </c>
-      <c r="F204" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>1010347034</v>
-      </c>
-      <c r="B205" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C205" t="s">
-        <v>54</v>
-      </c>
-      <c r="D205" t="s">
-        <v>46</v>
-      </c>
-      <c r="E205" t="s">
-        <v>16</v>
-      </c>
-      <c r="F205" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>1010347038</v>
-      </c>
-      <c r="B206" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C206" t="s">
-        <v>110</v>
-      </c>
-      <c r="D206" t="s">
-        <v>46</v>
-      </c>
-      <c r="E206" t="s">
-        <v>16</v>
-      </c>
-      <c r="F206" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>1110347040</v>
-      </c>
-      <c r="B207" s="1">
-        <v>45555</v>
-      </c>
-      <c r="C207" t="s">
-        <v>47</v>
-      </c>
-      <c r="D207" t="s">
-        <v>46</v>
-      </c>
-      <c r="E207" t="s">
-        <v>16</v>
-      </c>
-      <c r="F207" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>1100347052</v>
-      </c>
-      <c r="B208" s="1">
-        <v>45561</v>
-      </c>
-      <c r="C208" t="s">
-        <v>47</v>
-      </c>
-      <c r="D208" t="s">
-        <v>46</v>
-      </c>
-      <c r="E208" t="s">
-        <v>16</v>
-      </c>
-      <c r="F208" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>1010347037</v>
-      </c>
-      <c r="B209" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C209" t="s">
-        <v>110</v>
-      </c>
-      <c r="D209" t="s">
-        <v>46</v>
-      </c>
-      <c r="E209" t="s">
-        <v>16</v>
-      </c>
-      <c r="F209" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>1110347112</v>
-      </c>
-      <c r="B210" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C210" t="s">
-        <v>62</v>
-      </c>
-      <c r="D210" t="s">
-        <v>46</v>
-      </c>
-      <c r="E210" t="s">
-        <v>16</v>
-      </c>
-      <c r="F210" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>1100347041</v>
-      </c>
-      <c r="B211" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C211" t="s">
-        <v>47</v>
-      </c>
-      <c r="D211" t="s">
-        <v>46</v>
-      </c>
-      <c r="E211" t="s">
-        <v>16</v>
-      </c>
-      <c r="F211" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>1100347042</v>
-      </c>
-      <c r="B212" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C212" t="s">
-        <v>47</v>
-      </c>
-      <c r="D212" t="s">
-        <v>46</v>
-      </c>
-      <c r="E212" t="s">
-        <v>16</v>
-      </c>
-      <c r="F212" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>1020347063</v>
-      </c>
-      <c r="B213" s="1">
-        <v>45559</v>
-      </c>
-      <c r="C213" t="s">
-        <v>71</v>
-      </c>
-      <c r="D213" t="s">
-        <v>46</v>
-      </c>
-      <c r="E213" t="s">
-        <v>16</v>
-      </c>
-      <c r="F213" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>1100347053</v>
-      </c>
-      <c r="B214" s="1">
-        <v>45561</v>
-      </c>
-      <c r="C214" t="s">
-        <v>47</v>
-      </c>
-      <c r="D214" t="s">
-        <v>46</v>
-      </c>
-      <c r="E214" t="s">
-        <v>16</v>
-      </c>
-      <c r="F214" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>1020347062</v>
-      </c>
-      <c r="B215" s="1">
-        <v>45559</v>
-      </c>
-      <c r="C215" t="s">
-        <v>71</v>
-      </c>
-      <c r="D215" t="s">
-        <v>46</v>
-      </c>
-      <c r="E215" t="s">
-        <v>16</v>
-      </c>
-      <c r="F215" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>1020347061</v>
-      </c>
-      <c r="B216" s="1">
-        <v>45559</v>
-      </c>
-      <c r="C216" t="s">
-        <v>71</v>
-      </c>
-      <c r="D216" t="s">
-        <v>46</v>
-      </c>
-      <c r="E216" t="s">
-        <v>16</v>
-      </c>
-      <c r="F216" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>1100347054</v>
-      </c>
-      <c r="B217" s="1">
-        <v>45561</v>
-      </c>
-      <c r="C217" t="s">
-        <v>47</v>
-      </c>
-      <c r="D217" t="s">
-        <v>46</v>
-      </c>
-      <c r="E217" t="s">
-        <v>16</v>
-      </c>
-      <c r="F217" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>1100347055</v>
-      </c>
-      <c r="B218" s="1">
-        <v>45561</v>
-      </c>
-      <c r="C218" t="s">
-        <v>47</v>
-      </c>
-      <c r="D218" t="s">
-        <v>46</v>
-      </c>
-      <c r="E218" t="s">
-        <v>16</v>
-      </c>
-      <c r="F218" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>1100347056</v>
-      </c>
-      <c r="B219" s="1">
-        <v>45561</v>
-      </c>
-      <c r="C219" t="s">
-        <v>47</v>
-      </c>
-      <c r="D219" t="s">
-        <v>46</v>
-      </c>
-      <c r="E219" t="s">
-        <v>16</v>
-      </c>
-      <c r="F219" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>1110347100</v>
-      </c>
-      <c r="B220" s="1">
-        <v>45559</v>
-      </c>
-      <c r="C220" t="s">
-        <v>122</v>
-      </c>
-      <c r="D220" t="s">
-        <v>46</v>
-      </c>
-      <c r="E220" t="s">
-        <v>16</v>
-      </c>
-      <c r="F220" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>1010347064</v>
-      </c>
-      <c r="B221" s="1">
-        <v>45562</v>
-      </c>
-      <c r="C221" t="s">
-        <v>71</v>
-      </c>
-      <c r="D221" t="s">
-        <v>46</v>
-      </c>
-      <c r="E221" t="s">
-        <v>16</v>
-      </c>
-      <c r="F221" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>1110347101</v>
-      </c>
-      <c r="B222" s="1">
-        <v>45559</v>
-      </c>
-      <c r="C222" t="s">
-        <v>122</v>
-      </c>
-      <c r="D222" t="s">
-        <v>46</v>
-      </c>
-      <c r="E222" t="s">
-        <v>16</v>
-      </c>
-      <c r="F222" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>1020347023</v>
-      </c>
-      <c r="B223" s="1">
-        <v>45559</v>
-      </c>
-      <c r="C223" t="s">
-        <v>121</v>
-      </c>
-      <c r="D223" t="s">
-        <v>46</v>
-      </c>
-      <c r="E223" t="s">
-        <v>16</v>
-      </c>
-      <c r="F223" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>1020347024</v>
-      </c>
-      <c r="B224" s="1">
-        <v>45559</v>
-      </c>
-      <c r="C224" t="s">
-        <v>121</v>
-      </c>
-      <c r="D224" t="s">
-        <v>46</v>
-      </c>
-      <c r="E224" t="s">
-        <v>16</v>
-      </c>
-      <c r="F224" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>1020347025</v>
-      </c>
-      <c r="B225" s="1">
-        <v>45559</v>
-      </c>
-      <c r="C225" t="s">
-        <v>121</v>
-      </c>
-      <c r="D225" t="s">
-        <v>46</v>
-      </c>
-      <c r="E225" t="s">
-        <v>16</v>
-      </c>
-      <c r="F225" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>1020347026</v>
-      </c>
-      <c r="B226" s="1">
-        <v>45559</v>
-      </c>
-      <c r="C226" t="s">
-        <v>121</v>
-      </c>
-      <c r="D226" t="s">
-        <v>46</v>
-      </c>
-      <c r="E226" t="s">
-        <v>16</v>
-      </c>
-      <c r="F226" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>1100347043</v>
-      </c>
-      <c r="B227" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C227" t="s">
-        <v>47</v>
-      </c>
-      <c r="D227" t="s">
-        <v>46</v>
-      </c>
-      <c r="E227" t="s">
-        <v>16</v>
-      </c>
-      <c r="F227" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>1100347044</v>
-      </c>
-      <c r="B228" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C228" t="s">
-        <v>47</v>
-      </c>
-      <c r="D228" t="s">
-        <v>46</v>
-      </c>
-      <c r="E228" t="s">
-        <v>16</v>
-      </c>
-      <c r="F228" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>1120346559</v>
-      </c>
-      <c r="B229" s="1">
-        <v>45537</v>
-      </c>
-      <c r="C229" t="s">
-        <v>63</v>
-      </c>
-      <c r="D229" t="s">
-        <v>46</v>
-      </c>
-      <c r="E229" t="s">
-        <v>16</v>
-      </c>
-      <c r="F229" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>1120346558</v>
-      </c>
-      <c r="B230" s="1">
-        <v>45537</v>
-      </c>
-      <c r="C230" t="s">
-        <v>63</v>
-      </c>
-      <c r="D230" t="s">
-        <v>46</v>
-      </c>
-      <c r="E230" t="s">
-        <v>16</v>
-      </c>
-      <c r="F230" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>1120346560</v>
-      </c>
-      <c r="B231" s="1">
-        <v>45537</v>
-      </c>
-      <c r="C231" t="s">
-        <v>63</v>
-      </c>
-      <c r="D231" t="s">
-        <v>46</v>
-      </c>
-      <c r="E231" t="s">
-        <v>16</v>
-      </c>
-      <c r="F231" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>1010347116</v>
-      </c>
-      <c r="B232" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C232" t="s">
-        <v>115</v>
-      </c>
-      <c r="D232" t="s">
-        <v>46</v>
-      </c>
-      <c r="E232" t="s">
-        <v>16</v>
-      </c>
-      <c r="F232" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>1100347009</v>
-      </c>
-      <c r="B233" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C233" t="s">
-        <v>50</v>
-      </c>
-      <c r="D233" t="s">
-        <v>46</v>
-      </c>
-      <c r="E233" t="s">
-        <v>16</v>
-      </c>
-      <c r="F233" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>1100347010</v>
-      </c>
-      <c r="B234" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C234" t="s">
-        <v>50</v>
-      </c>
-      <c r="D234" t="s">
-        <v>46</v>
-      </c>
-      <c r="E234" t="s">
-        <v>16</v>
-      </c>
-      <c r="F234" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>1010347127</v>
-      </c>
-      <c r="B235" s="1">
-        <v>45561</v>
-      </c>
-      <c r="C235" t="s">
-        <v>50</v>
-      </c>
-      <c r="D235" t="s">
-        <v>46</v>
-      </c>
-      <c r="E235" t="s">
-        <v>16</v>
-      </c>
-      <c r="F235" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>1120347008</v>
-      </c>
-      <c r="B236" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C236" t="s">
-        <v>50</v>
-      </c>
-      <c r="D236" t="s">
-        <v>46</v>
-      </c>
-      <c r="E236" t="s">
-        <v>16</v>
-      </c>
-      <c r="F236" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>1100346977</v>
-      </c>
-      <c r="B237" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C237" t="s">
-        <v>50</v>
-      </c>
-      <c r="D237" t="s">
-        <v>46</v>
-      </c>
-      <c r="E237" t="s">
-        <v>16</v>
-      </c>
-      <c r="F237" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>1100346980</v>
-      </c>
-      <c r="B238" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C238" t="s">
-        <v>52</v>
-      </c>
-      <c r="D238" t="s">
-        <v>46</v>
-      </c>
-      <c r="E238" t="s">
-        <v>16</v>
-      </c>
-      <c r="F238" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>1120346976</v>
-      </c>
-      <c r="B239" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C239" t="s">
-        <v>50</v>
-      </c>
-      <c r="D239" t="s">
-        <v>46</v>
-      </c>
-      <c r="E239" t="s">
-        <v>16</v>
-      </c>
-      <c r="F239" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>1100346981</v>
-      </c>
-      <c r="B240" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C240" t="s">
-        <v>52</v>
-      </c>
-      <c r="D240" t="s">
-        <v>46</v>
-      </c>
-      <c r="E240" t="s">
-        <v>16</v>
-      </c>
-      <c r="F240" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>1110346984</v>
-      </c>
-      <c r="B241" s="1">
-        <v>45559</v>
-      </c>
-      <c r="C241" t="s">
-        <v>52</v>
-      </c>
-      <c r="D241" t="s">
-        <v>46</v>
-      </c>
-      <c r="E241" t="s">
-        <v>16</v>
-      </c>
-      <c r="F241" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>1110346985</v>
-      </c>
-      <c r="B242" s="1">
-        <v>45559</v>
-      </c>
-      <c r="C242" t="s">
-        <v>52</v>
-      </c>
-      <c r="D242" t="s">
-        <v>46</v>
-      </c>
-      <c r="E242" t="s">
-        <v>16</v>
-      </c>
-      <c r="F242" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>1010347007</v>
-      </c>
-      <c r="B243" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C243" t="s">
-        <v>52</v>
-      </c>
-      <c r="D243" t="s">
-        <v>46</v>
-      </c>
-      <c r="E243" t="s">
-        <v>16</v>
-      </c>
-      <c r="F243" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>1120346975</v>
-      </c>
-      <c r="B244" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C244" t="s">
-        <v>50</v>
-      </c>
-      <c r="D244" t="s">
-        <v>46</v>
-      </c>
-      <c r="E244" t="s">
-        <v>16</v>
-      </c>
-      <c r="F244" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>1010347005</v>
-      </c>
-      <c r="B245" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C245" t="s">
-        <v>52</v>
-      </c>
-      <c r="D245" t="s">
-        <v>46</v>
-      </c>
-      <c r="E245" t="s">
-        <v>16</v>
-      </c>
-      <c r="F245" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>1100347018</v>
-      </c>
-      <c r="B246" s="1">
-        <v>45562</v>
-      </c>
-      <c r="C246" t="s">
-        <v>69</v>
-      </c>
-      <c r="D246" t="s">
-        <v>46</v>
-      </c>
-      <c r="E246" t="s">
-        <v>16</v>
-      </c>
-      <c r="F246" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>1010347006</v>
-      </c>
-      <c r="B247" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C247" t="s">
-        <v>52</v>
-      </c>
-      <c r="D247" t="s">
-        <v>46</v>
-      </c>
-      <c r="E247" t="s">
-        <v>16</v>
-      </c>
-      <c r="F247" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>1100347022</v>
-      </c>
-      <c r="B248" s="1">
-        <v>45562</v>
-      </c>
-      <c r="C248" t="s">
-        <v>58</v>
-      </c>
-      <c r="D248" t="s">
-        <v>46</v>
-      </c>
-      <c r="E248" t="s">
-        <v>16</v>
-      </c>
-      <c r="F248" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>1100347021</v>
-      </c>
-      <c r="B249" s="1">
-        <v>45562</v>
-      </c>
-      <c r="C249" t="s">
-        <v>58</v>
-      </c>
-      <c r="D249" t="s">
-        <v>46</v>
-      </c>
-      <c r="E249" t="s">
-        <v>16</v>
-      </c>
-      <c r="F249" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>1010347126</v>
-      </c>
-      <c r="B250" s="1">
-        <v>45561</v>
-      </c>
-      <c r="C250" t="s">
-        <v>52</v>
-      </c>
-      <c r="D250" t="s">
-        <v>46</v>
-      </c>
-      <c r="E250" t="s">
-        <v>16</v>
-      </c>
-      <c r="F250" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>1010347124</v>
-      </c>
-      <c r="B251" s="1">
-        <v>45561</v>
-      </c>
-      <c r="C251" t="s">
-        <v>52</v>
-      </c>
-      <c r="D251" t="s">
-        <v>46</v>
-      </c>
-      <c r="E251" t="s">
-        <v>16</v>
-      </c>
-      <c r="F251" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>1010347125</v>
-      </c>
-      <c r="B252" s="1">
-        <v>45561</v>
-      </c>
-      <c r="C252" t="s">
-        <v>52</v>
-      </c>
-      <c r="D252" t="s">
-        <v>46</v>
-      </c>
-      <c r="E252" t="s">
-        <v>16</v>
-      </c>
-      <c r="F252" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>1010347020</v>
-      </c>
-      <c r="B253" s="1">
-        <v>45562</v>
-      </c>
-      <c r="C253" t="s">
-        <v>52</v>
-      </c>
-      <c r="D253" t="s">
-        <v>46</v>
-      </c>
-      <c r="E253" t="s">
-        <v>16</v>
-      </c>
-      <c r="F253" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>1100346978</v>
-      </c>
-      <c r="B254" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C254" t="s">
-        <v>49</v>
-      </c>
-      <c r="D254" t="s">
-        <v>46</v>
-      </c>
-      <c r="E254" t="s">
-        <v>16</v>
-      </c>
-      <c r="F254" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>1110346979</v>
-      </c>
-      <c r="B255" s="1">
-        <v>45558</v>
-      </c>
-      <c r="C255" t="s">
-        <v>49</v>
-      </c>
-      <c r="D255" t="s">
-        <v>46</v>
-      </c>
-      <c r="E255" t="s">
-        <v>16</v>
-      </c>
-      <c r="F255" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>1110346983</v>
-      </c>
-      <c r="B256" s="1">
-        <v>45559</v>
-      </c>
-      <c r="C256" t="s">
-        <v>49</v>
-      </c>
-      <c r="D256" t="s">
-        <v>46</v>
-      </c>
-      <c r="E256" t="s">
-        <v>16</v>
-      </c>
-      <c r="F256" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>1110347002</v>
-      </c>
-      <c r="B257" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C257" t="s">
-        <v>49</v>
-      </c>
-      <c r="D257" t="s">
-        <v>46</v>
-      </c>
-      <c r="E257" t="s">
-        <v>16</v>
-      </c>
-      <c r="F257" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>1110347003</v>
-      </c>
-      <c r="B258" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C258" t="s">
-        <v>49</v>
-      </c>
-      <c r="D258" t="s">
-        <v>46</v>
-      </c>
-      <c r="E258" t="s">
-        <v>16</v>
-      </c>
-      <c r="F258" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>1110347019</v>
-      </c>
-      <c r="B259" s="1">
-        <v>45562</v>
-      </c>
-      <c r="C259" t="s">
-        <v>49</v>
-      </c>
-      <c r="D259" t="s">
-        <v>46</v>
-      </c>
-      <c r="E259" t="s">
-        <v>16</v>
-      </c>
-      <c r="F259" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>1110347004</v>
-      </c>
-      <c r="B260" s="1">
-        <v>45560</v>
-      </c>
-      <c r="C260" t="s">
-        <v>49</v>
-      </c>
-      <c r="D260" t="s">
-        <v>46</v>
-      </c>
-      <c r="E260" t="s">
-        <v>16</v>
-      </c>
-      <c r="F260" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>1020347121</v>
-      </c>
-      <c r="B261" s="1">
-        <v>45561</v>
-      </c>
-      <c r="C261" t="s">
-        <v>79</v>
-      </c>
-      <c r="D261" t="s">
-        <v>46</v>
-      </c>
-      <c r="E261" t="s">
-        <v>16</v>
-      </c>
-      <c r="F261" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>1110347122</v>
-      </c>
-      <c r="B262" s="1">
-        <v>45561</v>
-      </c>
-      <c r="C262" t="s">
-        <v>49</v>
-      </c>
-      <c r="D262" t="s">
-        <v>46</v>
-      </c>
-      <c r="E262" t="s">
-        <v>16</v>
-      </c>
-      <c r="F262" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>1020347120</v>
-      </c>
-      <c r="B263" s="1">
-        <v>45561</v>
-      </c>
-      <c r="C263" t="s">
-        <v>79</v>
-      </c>
-      <c r="D263" t="s">
-        <v>46</v>
-      </c>
-      <c r="E263" t="s">
-        <v>16</v>
-      </c>
-      <c r="F263" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>1110347123</v>
-      </c>
-      <c r="B264" s="1">
-        <v>45561</v>
-      </c>
-      <c r="C264" t="s">
-        <v>49</v>
-      </c>
-      <c r="D264" t="s">
-        <v>46</v>
-      </c>
-      <c r="E264" t="s">
-        <v>16</v>
-      </c>
-      <c r="F264" t="s">
+      <c r="F89" s="34" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -37033,7 +33583,7 @@
   <dimension ref="G4:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/crear_hc/crearIndividualfinal.xlsx
+++ b/crear_hc/crearIndividualfinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perfil\Documentos\validatorsGesi\crear_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9615CEF3-C192-4FE4-8827-77C028D4197A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4B1D7E-D902-4714-920E-A6F8EF03F041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E1DA38D-84A9-4484-9C3F-DE72970EE216}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E1DA38D-84A9-4484-9C3F-DE72970EE216}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6050" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5718" uniqueCount="142">
   <si>
     <t>1608-Enfermero</t>
   </si>
@@ -458,9 +458,6 @@
   <si>
     <t>Gestión del Riesgo en Salud Mental (2024)-Educativo</t>
   </si>
-  <si>
-    <t>Verificación de la Técnica de Higiene Bucal (2024)-Educativo</t>
-  </si>
 </sst>
 </file>
 
@@ -627,10 +624,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF191C20"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1046,7 +1045,7 @@
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1111,31 +1110,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1494,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3929B7C0-7F9D-42E7-ADAB-474CC0CA7F65}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,1785 +1485,128 @@
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="24">
-        <v>1010346642</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="25">
+        <v>1130347190</v>
       </c>
       <c r="B1" s="26">
-        <v>45546</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
+        <v>45566</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
-        <v>1010346643</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>1010347371</v>
       </c>
       <c r="B2" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="25" t="s">
+        <v>45580</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>1010346644</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>1100347360</v>
       </c>
       <c r="B3" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="25" t="s">
+        <v>45573</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
-        <v>1010346645</v>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>1020347359</v>
       </c>
       <c r="B4" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="25" t="s">
+        <v>45572</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>1010346646</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>1020347198</v>
       </c>
       <c r="B5" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="25" t="s">
+        <v>45568</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>1010346647</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>1020347191</v>
       </c>
       <c r="B6" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="25" t="s">
+        <v>45567</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>1010346648</v>
-      </c>
-      <c r="B7" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>1010346649</v>
-      </c>
-      <c r="B8" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>1010346650</v>
-      </c>
-      <c r="B9" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>1010346651</v>
-      </c>
-      <c r="B10" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>1010346652</v>
-      </c>
-      <c r="B11" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>1010346653</v>
-      </c>
-      <c r="B12" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>1010346654</v>
-      </c>
-      <c r="B13" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>1010346655</v>
-      </c>
-      <c r="B14" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>1010346656</v>
-      </c>
-      <c r="B15" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <v>1010346657</v>
-      </c>
-      <c r="B16" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>1010346658</v>
-      </c>
-      <c r="B17" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
-        <v>1010346659</v>
-      </c>
-      <c r="B18" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>1010346660</v>
-      </c>
-      <c r="B19" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
-        <v>1010346661</v>
-      </c>
-      <c r="B20" s="26">
-        <v>45547</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <v>1010346437</v>
-      </c>
-      <c r="B21" s="29">
-        <v>45537</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
-        <v>1100346475</v>
-      </c>
-      <c r="B22" s="29">
-        <v>45539</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
-        <v>1100346481</v>
-      </c>
-      <c r="B23" s="29">
-        <v>45541</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
-        <v>1110346504</v>
-      </c>
-      <c r="B24" s="29">
-        <v>45537</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
-        <v>1110346503</v>
-      </c>
-      <c r="B25" s="29">
-        <v>45537</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
-        <v>1100346501</v>
-      </c>
-      <c r="B26" s="29">
-        <v>45537</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
-        <v>1100346436</v>
-      </c>
-      <c r="B27" s="29">
-        <v>45537</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="27">
-        <v>1110346705</v>
-      </c>
-      <c r="B28" s="29">
-        <v>45548</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
-        <v>1110346704</v>
-      </c>
-      <c r="B29" s="29">
-        <v>45548</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
-        <v>1110346703</v>
-      </c>
-      <c r="B30" s="29">
-        <v>45548</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
-        <v>1110346702</v>
-      </c>
-      <c r="B31" s="29">
-        <v>45548</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
-        <v>1010346697</v>
-      </c>
-      <c r="B32" s="29">
-        <v>45547</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="27">
-        <v>1010346696</v>
-      </c>
-      <c r="B33" s="29">
-        <v>45547</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
-        <v>1100346686</v>
-      </c>
-      <c r="B34" s="29">
-        <v>45548</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="27">
-        <v>1100346687</v>
-      </c>
-      <c r="B35" s="29">
-        <v>45548</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27">
-        <v>1100346952</v>
-      </c>
-      <c r="B36" s="29">
-        <v>45552</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="27">
-        <v>1100346904</v>
-      </c>
-      <c r="B37" s="29">
-        <v>45551</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
-        <v>1100346954</v>
-      </c>
-      <c r="B38" s="29">
-        <v>45553</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
-        <v>1100346856</v>
-      </c>
-      <c r="B39" s="29">
-        <v>45551</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="27">
-        <v>1110347108</v>
-      </c>
-      <c r="B40" s="29">
-        <v>45562</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
-        <v>1100346423</v>
-      </c>
-      <c r="B41" s="32">
-        <v>45539</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="30">
-        <v>1100346422</v>
-      </c>
-      <c r="B42" s="32">
-        <v>45538</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="30">
-        <v>1130346595</v>
-      </c>
-      <c r="B43" s="32">
-        <v>45545</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="30">
-        <v>1120346640</v>
-      </c>
-      <c r="B44" s="32">
-        <v>45548</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="30">
-        <v>1010346845</v>
-      </c>
-      <c r="B45" s="32">
-        <v>45555</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="30">
-        <v>1100346760</v>
-      </c>
-      <c r="B46" s="32">
-        <v>45553</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="30">
-        <v>1020346974</v>
-      </c>
-      <c r="B47" s="32">
-        <v>45558</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="30">
-        <v>1020347012</v>
-      </c>
-      <c r="B48" s="32">
-        <v>45562</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="30">
-        <v>1020346999</v>
-      </c>
-      <c r="B49" s="32">
-        <v>45559</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="30">
-        <v>1130347011</v>
-      </c>
-      <c r="B50" s="32">
-        <v>45561</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="30">
-        <v>1170347001</v>
-      </c>
-      <c r="B51" s="32">
-        <v>45560</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="33">
-        <v>1010346137</v>
-      </c>
-      <c r="B52" s="35">
-        <v>45552</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F52" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="33">
-        <v>1010346738</v>
-      </c>
-      <c r="B53" s="35">
-        <v>45552</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="33">
-        <v>1010346739</v>
-      </c>
-      <c r="B54" s="35">
-        <v>45552</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="33">
-        <v>1010346740</v>
-      </c>
-      <c r="B55" s="35">
-        <v>45552</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="33">
-        <v>1110346998</v>
-      </c>
-      <c r="B56" s="35">
-        <v>45559</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="33">
-        <v>1010347116</v>
-      </c>
-      <c r="B57" s="35">
-        <v>45558</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="33">
-        <v>1110346997</v>
-      </c>
-      <c r="B58" s="35">
-        <v>45559</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="33">
-        <v>1110346996</v>
-      </c>
-      <c r="B59" s="35">
-        <v>45559</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="33">
-        <v>1110346994</v>
-      </c>
-      <c r="B60" s="35">
-        <v>45559</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="33">
-        <v>1110346995</v>
-      </c>
-      <c r="B61" s="35">
-        <v>45559</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F61" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="33">
-        <v>1010346828</v>
-      </c>
-      <c r="B62" s="35">
-        <v>45554</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F62" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="33">
-        <v>1010346986</v>
-      </c>
-      <c r="B63" s="35">
-        <v>45559</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F63" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="33">
-        <v>1010346987</v>
-      </c>
-      <c r="B64" s="35">
-        <v>45559</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F64" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="33">
-        <v>1010347115</v>
-      </c>
-      <c r="B65" s="35">
-        <v>45558</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F65" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="33">
-        <v>1010346988</v>
-      </c>
-      <c r="B66" s="35">
-        <v>45559</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F66" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="33">
-        <v>1010347117</v>
-      </c>
-      <c r="B67" s="35">
-        <v>45558</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F67" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="33">
-        <v>1010346826</v>
-      </c>
-      <c r="B68" s="35">
-        <v>45554</v>
-      </c>
-      <c r="C68" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F68" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="33">
-        <v>1010346827</v>
-      </c>
-      <c r="B69" s="35">
-        <v>45554</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D69" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F69" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="33">
-        <v>1010346829</v>
-      </c>
-      <c r="B70" s="35">
-        <v>45554</v>
-      </c>
-      <c r="C70" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F70" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="33">
-        <v>1010346830</v>
-      </c>
-      <c r="B71" s="35">
-        <v>45554</v>
-      </c>
-      <c r="C71" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F71" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="33">
-        <v>1010346821</v>
-      </c>
-      <c r="B72" s="35">
-        <v>45554</v>
-      </c>
-      <c r="C72" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F72" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="33">
-        <v>1010347114</v>
-      </c>
-      <c r="B73" s="35">
-        <v>45565</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F73" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="33">
-        <v>1010346822</v>
-      </c>
-      <c r="B74" s="35">
-        <v>45554</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F74" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="33">
-        <v>1110347016</v>
-      </c>
-      <c r="B75" s="35">
-        <v>45562</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E75" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F75" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="33">
-        <v>1010346991</v>
-      </c>
-      <c r="B76" s="35">
-        <v>45559</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F76" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="33">
-        <v>1110347017</v>
-      </c>
-      <c r="B77" s="35">
-        <v>45562</v>
-      </c>
-      <c r="C77" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F77" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="33">
-        <v>1010346823</v>
-      </c>
-      <c r="B78" s="35">
-        <v>45554</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F78" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="33">
-        <v>1010347119</v>
-      </c>
-      <c r="B79" s="35">
-        <v>45558</v>
-      </c>
-      <c r="C79" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F79" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="33">
-        <v>1110347015</v>
-      </c>
-      <c r="B80" s="35">
-        <v>45562</v>
-      </c>
-      <c r="C80" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F80" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="33">
-        <v>1110347014</v>
-      </c>
-      <c r="B81" s="35">
-        <v>45562</v>
-      </c>
-      <c r="C81" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F81" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="33">
-        <v>1110347013</v>
-      </c>
-      <c r="B82" s="35">
-        <v>45562</v>
-      </c>
-      <c r="C82" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F82" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="33">
-        <v>1010346992</v>
-      </c>
-      <c r="B83" s="35">
-        <v>45559</v>
-      </c>
-      <c r="C83" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E83" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F83" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="33">
-        <v>1010346824</v>
-      </c>
-      <c r="B84" s="35">
-        <v>45554</v>
-      </c>
-      <c r="C84" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F84" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="33">
-        <v>1010347118</v>
-      </c>
-      <c r="B85" s="35">
-        <v>45558</v>
-      </c>
-      <c r="C85" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D85" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E85" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F85" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="33">
-        <v>1010346989</v>
-      </c>
-      <c r="B86" s="35">
-        <v>45559</v>
-      </c>
-      <c r="C86" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D86" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E86" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F86" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="33">
-        <v>1010346993</v>
-      </c>
-      <c r="B87" s="35">
-        <v>45559</v>
-      </c>
-      <c r="C87" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D87" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E87" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F87" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="33">
-        <v>1010346825</v>
-      </c>
-      <c r="B88" s="35">
-        <v>45554</v>
-      </c>
-      <c r="C88" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D88" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E88" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F88" s="34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="33">
-        <v>1010346990</v>
-      </c>
-      <c r="B89" s="35">
-        <v>45559</v>
-      </c>
-      <c r="C89" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D89" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E89" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F89" s="34" t="s">
-        <v>0</v>
-      </c>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>

--- a/crear_hc/crearIndividualfinal.xlsx
+++ b/crear_hc/crearIndividualfinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perfil\Documentos\validatorsGesi\crear_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4B1D7E-D902-4714-920E-A6F8EF03F041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD30B9F-EBE6-4C3D-8CE6-4205CAD38971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E1DA38D-84A9-4484-9C3F-DE72970EE216}"/>
+    <workbookView xWindow="2160" yWindow="2970" windowWidth="15690" windowHeight="12090" xr2:uid="{1E1DA38D-84A9-4484-9C3F-DE72970EE216}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5718" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6310" uniqueCount="142">
   <si>
     <t>1608-Enfermero</t>
   </si>
@@ -624,12 +624,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1109,7 +1107,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1117,6 +1114,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1472,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3929B7C0-7F9D-42E7-ADAB-474CC0CA7F65}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,128 +1483,3085 @@
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25">
-        <v>1130347190</v>
-      </c>
-      <c r="B1" s="26">
-        <v>45566</v>
-      </c>
-      <c r="C1" s="24" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="24">
+        <v>1100347819</v>
+      </c>
+      <c r="B1" s="25">
+        <v>45602</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
-        <v>1010347371</v>
-      </c>
-      <c r="B2" s="26">
-        <v>45580</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="D1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>1010347778</v>
+      </c>
+      <c r="B2" s="25">
+        <v>45601</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
-        <v>1100347360</v>
-      </c>
-      <c r="B3" s="26">
-        <v>45573</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="D2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>1110347792</v>
+      </c>
+      <c r="B3" s="25">
+        <v>45602</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
-        <v>1020347359</v>
-      </c>
-      <c r="B4" s="26">
-        <v>45572</v>
-      </c>
-      <c r="C4" s="24" t="s">
+      <c r="D3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>1100347774</v>
+      </c>
+      <c r="B4" s="25">
+        <v>45602</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
-        <v>1020347198</v>
-      </c>
-      <c r="B5" s="26">
-        <v>45568</v>
-      </c>
-      <c r="C5" s="24" t="s">
+      <c r="D4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>1100347818</v>
+      </c>
+      <c r="B5" s="25">
+        <v>45602</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
-        <v>1020347191</v>
-      </c>
-      <c r="B6" s="26">
-        <v>45567</v>
-      </c>
-      <c r="C6" s="24" t="s">
+      <c r="D5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>1100347775</v>
+      </c>
+      <c r="B6" s="25">
+        <v>45602</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K11" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>1110347793</v>
+      </c>
+      <c r="B7" s="25">
+        <v>45602</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>1010347779</v>
+      </c>
+      <c r="B8" s="25">
+        <v>45601</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>1010347781</v>
+      </c>
+      <c r="B9" s="25">
+        <v>45601</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>1100347817</v>
+      </c>
+      <c r="B10" s="25">
+        <v>45602</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>1110347794</v>
+      </c>
+      <c r="B11" s="25">
+        <v>45602</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>1110347802</v>
+      </c>
+      <c r="B12" s="25">
+        <v>45603</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>1010347780</v>
+      </c>
+      <c r="B13" s="25">
+        <v>45601</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>1110347803</v>
+      </c>
+      <c r="B14" s="25">
+        <v>45603</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>1110347804</v>
+      </c>
+      <c r="B15" s="25">
+        <v>45603</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>1110347805</v>
+      </c>
+      <c r="B16" s="25">
+        <v>45603</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>1100347795</v>
+      </c>
+      <c r="B17" s="25">
+        <v>45597</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>1110347749</v>
+      </c>
+      <c r="B18" s="25">
+        <v>45602</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>1110347894</v>
+      </c>
+      <c r="B19" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>1110347896</v>
+      </c>
+      <c r="B20" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>1110347895</v>
+      </c>
+      <c r="B21" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>1110347897</v>
+      </c>
+      <c r="B22" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>1110347827</v>
+      </c>
+      <c r="B23" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>1100347862</v>
+      </c>
+      <c r="B24" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>1110347878</v>
+      </c>
+      <c r="B25" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>1100347877</v>
+      </c>
+      <c r="B26" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>1010347884</v>
+      </c>
+      <c r="B27" s="25">
+        <v>45610</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>1020347900</v>
+      </c>
+      <c r="B28" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>1010347885</v>
+      </c>
+      <c r="B29" s="25">
+        <v>45610</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <v>1110347942</v>
+      </c>
+      <c r="B30" s="25">
+        <v>45611</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>1020347901</v>
+      </c>
+      <c r="B31" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <v>1100347732</v>
+      </c>
+      <c r="B32" s="25">
+        <v>45597</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>1010347733</v>
+      </c>
+      <c r="B33" s="25">
+        <v>45597</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>1120347902</v>
+      </c>
+      <c r="B34" s="25">
+        <v>45604</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>1100347736</v>
+      </c>
+      <c r="B35" s="25">
+        <v>45598</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <v>1100347880</v>
+      </c>
+      <c r="B36" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
+        <v>1110347738</v>
+      </c>
+      <c r="B37" s="25">
+        <v>45601</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
+        <v>1010347883</v>
+      </c>
+      <c r="B38" s="25">
+        <v>45610</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
+        <v>1010347940</v>
+      </c>
+      <c r="B39" s="25">
+        <v>45611</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
+        <v>1110347941</v>
+      </c>
+      <c r="B40" s="25">
+        <v>45611</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
+        <v>1010347939</v>
+      </c>
+      <c r="B41" s="25">
+        <v>45611</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <v>1100347729</v>
+      </c>
+      <c r="B42" s="25">
+        <v>45597</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
+        <v>1110347912</v>
+      </c>
+      <c r="B43" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="24">
+        <v>1010347731</v>
+      </c>
+      <c r="B44" s="25">
+        <v>45597</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="24">
+        <v>1100347730</v>
+      </c>
+      <c r="B45" s="25">
+        <v>45597</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
+        <v>1020347898</v>
+      </c>
+      <c r="B46" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="24">
+        <v>1110347913</v>
+      </c>
+      <c r="B47" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="24">
+        <v>1100347739</v>
+      </c>
+      <c r="B48" s="25">
+        <v>45601</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="24">
+        <v>1020347899</v>
+      </c>
+      <c r="B49" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="24">
+        <v>1110347740</v>
+      </c>
+      <c r="B50" s="25">
+        <v>45601</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="24">
+        <v>1120347903</v>
+      </c>
+      <c r="B51" s="25">
+        <v>45604</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="24">
+        <v>1120347904</v>
+      </c>
+      <c r="B52" s="25">
+        <v>45604</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="24">
+        <v>1120347905</v>
+      </c>
+      <c r="B53" s="25">
+        <v>45604</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="24">
+        <v>1100347743</v>
+      </c>
+      <c r="B54" s="25">
+        <v>45602</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="24">
+        <v>1120347906</v>
+      </c>
+      <c r="B55" s="25">
+        <v>45604</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="24">
+        <v>1110347914</v>
+      </c>
+      <c r="B56" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="24">
+        <v>1120347907</v>
+      </c>
+      <c r="B57" s="25">
+        <v>45604</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="24">
+        <v>1110347915</v>
+      </c>
+      <c r="B58" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="24">
+        <v>1110347916</v>
+      </c>
+      <c r="B59" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="24">
+        <v>1110347917</v>
+      </c>
+      <c r="B60" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="24">
+        <v>1100347744</v>
+      </c>
+      <c r="B61" s="25">
+        <v>45602</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="24">
+        <v>1110347839</v>
+      </c>
+      <c r="B62" s="25">
+        <v>45603</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="24">
+        <v>1100347840</v>
+      </c>
+      <c r="B63" s="25">
+        <v>45603</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="24">
+        <v>1010347845</v>
+      </c>
+      <c r="B64" s="25">
+        <v>45604</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="24">
+        <v>1100347846</v>
+      </c>
+      <c r="B65" s="25">
+        <v>45604</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="24">
+        <v>1100347852</v>
+      </c>
+      <c r="B66" s="25">
+        <v>45605</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="24">
+        <v>1020347918</v>
+      </c>
+      <c r="B67" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="24">
+        <v>1020347919</v>
+      </c>
+      <c r="B68" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="24">
+        <v>1020347920</v>
+      </c>
+      <c r="B69" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="24">
+        <v>1020347921</v>
+      </c>
+      <c r="B70" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="24">
+        <v>1020347922</v>
+      </c>
+      <c r="B71" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="24">
+        <v>1020347923</v>
+      </c>
+      <c r="B72" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="24">
+        <v>1100347935</v>
+      </c>
+      <c r="B73" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="24">
+        <v>1100347934</v>
+      </c>
+      <c r="B74" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="24">
+        <v>1100347936</v>
+      </c>
+      <c r="B75" s="25">
+        <v>45611</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="24">
+        <v>1100347933</v>
+      </c>
+      <c r="B76" s="25">
+        <v>45614</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="24">
+        <v>1100347931</v>
+      </c>
+      <c r="B77" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="24">
+        <v>1100347930</v>
+      </c>
+      <c r="B78" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="24">
+        <v>1100347745</v>
+      </c>
+      <c r="B79" s="25">
+        <v>45602</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="24">
+        <v>1100347932</v>
+      </c>
+      <c r="B80" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="24">
+        <v>1100347856</v>
+      </c>
+      <c r="B81" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="24">
+        <v>1100347857</v>
+      </c>
+      <c r="B82" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="24">
+        <v>1100347937</v>
+      </c>
+      <c r="B83" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="24">
+        <v>1010347881</v>
+      </c>
+      <c r="B84" s="25">
+        <v>45610</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="24">
+        <v>1010347882</v>
+      </c>
+      <c r="B85" s="25">
+        <v>45610</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="24">
+        <v>1010347938</v>
+      </c>
+      <c r="B86" s="25">
+        <v>45611</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="24">
+        <v>1100347746</v>
+      </c>
+      <c r="B87" s="25">
+        <v>45602</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="24">
+        <v>1110347841</v>
+      </c>
+      <c r="B88" s="25">
+        <v>45603</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="24">
+        <v>1110347842</v>
+      </c>
+      <c r="B89" s="25">
+        <v>45603</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="24">
+        <v>1010347847</v>
+      </c>
+      <c r="B90" s="25">
+        <v>45604</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="24">
+        <v>1110347848</v>
+      </c>
+      <c r="B91" s="25">
+        <v>45604</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="24">
+        <v>1100347858</v>
+      </c>
+      <c r="B92" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="24">
+        <v>1100347859</v>
+      </c>
+      <c r="B93" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="24">
+        <v>1100347879</v>
+      </c>
+      <c r="B94" s="25">
+        <v>45609</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="24">
+        <v>1100347851</v>
+      </c>
+      <c r="B95" s="25">
+        <v>45605</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="24">
+        <v>1100347735</v>
+      </c>
+      <c r="B96" s="25">
+        <v>45598</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="24">
+        <v>1100347742</v>
+      </c>
+      <c r="B97" s="25">
+        <v>45601</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="24">
+        <v>1110347741</v>
+      </c>
+      <c r="B98" s="25">
+        <v>45601</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="24">
+        <v>1100347747</v>
+      </c>
+      <c r="B99" s="25">
+        <v>45602</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="24">
+        <v>1110347843</v>
+      </c>
+      <c r="B100" s="25">
+        <v>45603</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="24">
+        <v>1110347844</v>
+      </c>
+      <c r="B101" s="25">
+        <v>45603</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="24">
+        <v>1010347849</v>
+      </c>
+      <c r="B102" s="25">
+        <v>45604</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="24">
+        <v>1110347850</v>
+      </c>
+      <c r="B103" s="25">
+        <v>45604</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="24">
+        <v>1100347853</v>
+      </c>
+      <c r="B104" s="25">
+        <v>45605</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="24">
+        <v>1100347861</v>
+      </c>
+      <c r="B105" s="25">
+        <v>45608</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E105" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="24">
+        <v>1100347987</v>
+      </c>
+      <c r="B106" s="25">
+        <v>45615</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E106" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="24">
+        <v>1100347986</v>
+      </c>
+      <c r="B107" s="25">
+        <v>45615</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="24">
+        <v>1100347850</v>
+      </c>
+      <c r="B108" s="25">
+        <v>45604</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D108" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E108" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="24">
+        <v>1100347984</v>
+      </c>
+      <c r="B109" s="25">
+        <v>45615</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="24">
+        <v>1100347988</v>
+      </c>
+      <c r="B110" s="25">
+        <v>45615</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D110" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="24">
+        <v>1010347734</v>
+      </c>
+      <c r="B111" s="25">
+        <v>45597</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="24">
+        <v>1010347982</v>
+      </c>
+      <c r="B112" s="25">
+        <v>45614</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D112" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="24">
+        <v>1100347989</v>
+      </c>
+      <c r="B113" s="25">
+        <v>45616</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="24">
+        <v>1100347992</v>
+      </c>
+      <c r="B114" s="25">
+        <v>45616</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D114" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="24">
+        <v>1010347983</v>
+      </c>
+      <c r="B115" s="25">
+        <v>45614</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="24">
+        <v>1110348013</v>
+      </c>
+      <c r="B116" s="25">
+        <v>45617</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D116" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E116" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="24">
+        <v>1100348014</v>
+      </c>
+      <c r="B117" s="25">
+        <v>45621</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D117" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="24">
+        <v>1010347979</v>
+      </c>
+      <c r="B118" s="25">
+        <v>45614</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="24">
+        <v>1010347980</v>
+      </c>
+      <c r="B119" s="25">
+        <v>45614</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="24">
+        <v>1010347985</v>
+      </c>
+      <c r="B120" s="25">
+        <v>45615</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="24">
+        <v>1110347950</v>
+      </c>
+      <c r="B121" s="25">
+        <v>45616</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F121" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="24">
+        <v>1110347951</v>
+      </c>
+      <c r="B122" s="25">
+        <v>45616</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="24">
+        <v>1110347952</v>
+      </c>
+      <c r="B123" s="25">
+        <v>45616</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D123" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="24">
+        <v>1100347993</v>
+      </c>
+      <c r="B124" s="25">
+        <v>45616</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E124" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="24">
+        <v>1110347991</v>
+      </c>
+      <c r="B125" s="25">
+        <v>45616</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E125" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="24">
+        <v>1110347954</v>
+      </c>
+      <c r="B126" s="25">
+        <v>45617</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D126" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E126" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="24">
+        <v>1110347955</v>
+      </c>
+      <c r="B127" s="25">
+        <v>45617</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E127" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="24">
+        <v>1110347978</v>
+      </c>
+      <c r="B128" s="25">
+        <v>45614</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D128" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E128" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="24">
+        <v>1110347956</v>
+      </c>
+      <c r="B129" s="25">
+        <v>45617</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D129" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E129" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="24">
+        <v>1110347981</v>
+      </c>
+      <c r="B130" s="25">
+        <v>45614</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D130" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E130" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F130" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="24">
+        <v>1110347957</v>
+      </c>
+      <c r="B131" s="25">
+        <v>45617</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D131" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E131" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="24">
+        <v>1120347990</v>
+      </c>
+      <c r="B132" s="25">
+        <v>45616</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D132" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E132" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="24">
+        <v>1110347958</v>
+      </c>
+      <c r="B133" s="25">
+        <v>45617</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="24">
+        <v>1110347959</v>
+      </c>
+      <c r="B134" s="25">
+        <v>45617</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D134" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="24">
+        <v>1130347964</v>
+      </c>
+      <c r="B135" s="25">
+        <v>45618</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E135" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="24">
+        <v>1130347965</v>
+      </c>
+      <c r="B136" s="25">
+        <v>45618</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D136" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E136" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="24">
+        <v>1130347966</v>
+      </c>
+      <c r="B137" s="25">
+        <v>45618</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D137" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E137" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="24">
+        <v>1130347967</v>
+      </c>
+      <c r="B138" s="25">
+        <v>45618</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E138" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="24">
+        <v>1100348019</v>
+      </c>
+      <c r="B139" s="25">
+        <v>45622</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D139" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E139" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="24">
+        <v>1130347968</v>
+      </c>
+      <c r="B140" s="25">
+        <v>45618</v>
+      </c>
+      <c r="C140" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D140" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E140" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="24">
+        <v>1110348020</v>
+      </c>
+      <c r="B141" s="25">
+        <v>45624</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E141" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="24">
+        <v>1130347953</v>
+      </c>
+      <c r="B142" s="25">
+        <v>45614</v>
+      </c>
+      <c r="C142" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D142" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E142" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="24">
+        <v>1130347977</v>
+      </c>
+      <c r="B143" s="25">
+        <v>45621</v>
+      </c>
+      <c r="C143" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E143" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="24">
+        <v>1020347975</v>
+      </c>
+      <c r="B144" s="25">
+        <v>45615</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D144" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="24">
+        <v>1130347969</v>
+      </c>
+      <c r="B145" s="25">
+        <v>45618</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D145" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="24">
+        <v>1110347947</v>
+      </c>
+      <c r="B146" s="25">
+        <v>45616</v>
+      </c>
+      <c r="C146" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D146" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="24">
+        <v>1110347948</v>
+      </c>
+      <c r="B147" s="25">
+        <v>45616</v>
+      </c>
+      <c r="C147" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D147" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="24">
+        <v>1130347976</v>
+      </c>
+      <c r="B148" s="25">
+        <v>45621</v>
+      </c>
+      <c r="C148" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D148" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E148" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="24">
+        <v>1110347949</v>
+      </c>
+      <c r="B149" s="25">
+        <v>45616</v>
+      </c>
+      <c r="C149" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E149" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="24">
+        <v>1100348017</v>
+      </c>
+      <c r="B150" s="25">
+        <v>45616</v>
+      </c>
+      <c r="C150" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D150" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E150" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F150" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="24">
+        <v>1100348018</v>
+      </c>
+      <c r="B151" s="25">
+        <v>45617</v>
+      </c>
+      <c r="C151" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D151" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E151" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F151" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="24">
+        <v>1130348015</v>
+      </c>
+      <c r="B152" s="25">
+        <v>45617</v>
+      </c>
+      <c r="C152" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D152" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E152" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="24">
+        <v>1130348016</v>
+      </c>
+      <c r="B153" s="25">
+        <v>45617</v>
+      </c>
+      <c r="C153" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D153" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E153" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F153" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="24">
+        <v>1110348029</v>
+      </c>
+      <c r="B154" s="25">
+        <v>45624</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D154" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E154" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F154" s="23" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>

--- a/crear_hc/crearIndividualfinal.xlsx
+++ b/crear_hc/crearIndividualfinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perfil\Documentos\validatorsGesi\crear_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD30B9F-EBE6-4C3D-8CE6-4205CAD38971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B868EEBA-2A8B-4ADF-BD8E-F15869A82722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="2970" windowWidth="15690" windowHeight="12090" xr2:uid="{1E1DA38D-84A9-4484-9C3F-DE72970EE216}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6310" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6162" uniqueCount="142">
   <si>
     <t>1608-Enfermero</t>
   </si>
@@ -1470,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3929B7C0-7F9D-42E7-ADAB-474CC0CA7F65}">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,10 +1485,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="24">
-        <v>1100347819</v>
+        <v>1010347883</v>
       </c>
       <c r="B1" s="25">
-        <v>45602</v>
+        <v>45610</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>48</v>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
-        <v>1010347778</v>
+        <v>1010347940</v>
       </c>
       <c r="B2" s="25">
-        <v>45601</v>
+        <v>45611</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>48</v>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
-        <v>1110347792</v>
+        <v>1110347941</v>
       </c>
       <c r="B3" s="25">
-        <v>45602</v>
+        <v>45611</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>48</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
-        <v>1100347774</v>
+        <v>1010347939</v>
       </c>
       <c r="B4" s="25">
-        <v>45602</v>
+        <v>45611</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>48</v>
@@ -1565,10 +1565,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
-        <v>1100347818</v>
+        <v>1100347729</v>
       </c>
       <c r="B5" s="25">
-        <v>45602</v>
+        <v>45597</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>48</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
-        <v>1100347775</v>
+        <v>1110347912</v>
       </c>
       <c r="B6" s="25">
-        <v>45602</v>
+        <v>45608</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>48</v>
@@ -1605,10 +1605,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
-        <v>1110347793</v>
+        <v>1010347731</v>
       </c>
       <c r="B7" s="25">
-        <v>45602</v>
+        <v>45597</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>48</v>
@@ -1625,10 +1625,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
-        <v>1010347779</v>
+        <v>1100347730</v>
       </c>
       <c r="B8" s="25">
-        <v>45601</v>
+        <v>45597</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>48</v>
@@ -1645,10 +1645,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
-        <v>1010347781</v>
+        <v>1020347898</v>
       </c>
       <c r="B9" s="25">
-        <v>45601</v>
+        <v>45608</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>48</v>
@@ -1665,10 +1665,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
-        <v>1100347817</v>
+        <v>1110347913</v>
       </c>
       <c r="B10" s="25">
-        <v>45602</v>
+        <v>45608</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>48</v>
@@ -1685,10 +1685,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
-        <v>1110347794</v>
+        <v>1100347739</v>
       </c>
       <c r="B11" s="25">
-        <v>45602</v>
+        <v>45601</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>48</v>
@@ -1705,10 +1705,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
-        <v>1110347802</v>
+        <v>1020347899</v>
       </c>
       <c r="B12" s="25">
-        <v>45603</v>
+        <v>45608</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>48</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
-        <v>1010347780</v>
+        <v>1110347740</v>
       </c>
       <c r="B13" s="25">
         <v>45601</v>
@@ -1745,10 +1745,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
-        <v>1110347803</v>
+        <v>1120347903</v>
       </c>
       <c r="B14" s="25">
-        <v>45603</v>
+        <v>45604</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>48</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
-        <v>1110347804</v>
+        <v>1120347904</v>
       </c>
       <c r="B15" s="25">
-        <v>45603</v>
+        <v>45604</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>48</v>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
-        <v>1110347805</v>
+        <v>1120347905</v>
       </c>
       <c r="B16" s="25">
-        <v>45603</v>
+        <v>45604</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>48</v>
@@ -1805,10 +1805,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
-        <v>1100347795</v>
+        <v>1100347743</v>
       </c>
       <c r="B17" s="25">
-        <v>45597</v>
+        <v>45602</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>48</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
-        <v>1110347749</v>
+        <v>1120347906</v>
       </c>
       <c r="B18" s="25">
-        <v>45602</v>
+        <v>45604</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>48</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
-        <v>1110347894</v>
+        <v>1110347914</v>
       </c>
       <c r="B19" s="25">
-        <v>45609</v>
+        <v>45608</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>48</v>
@@ -1865,10 +1865,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
-        <v>1110347896</v>
+        <v>1120347907</v>
       </c>
       <c r="B20" s="25">
-        <v>45609</v>
+        <v>45604</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>48</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
-        <v>1110347895</v>
+        <v>1110347915</v>
       </c>
       <c r="B21" s="25">
-        <v>45609</v>
+        <v>45608</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>48</v>
@@ -1905,10 +1905,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
-        <v>1110347897</v>
+        <v>1110347916</v>
       </c>
       <c r="B22" s="25">
-        <v>45609</v>
+        <v>45608</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>48</v>
@@ -1925,10 +1925,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
-        <v>1110347827</v>
+        <v>1110347917</v>
       </c>
       <c r="B23" s="25">
-        <v>45609</v>
+        <v>45608</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>48</v>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
-        <v>1100347862</v>
+        <v>1100347744</v>
       </c>
       <c r="B24" s="25">
-        <v>45608</v>
+        <v>45602</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>48</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
-        <v>1110347878</v>
+        <v>1110347839</v>
       </c>
       <c r="B25" s="25">
-        <v>45609</v>
+        <v>45603</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>48</v>
@@ -1985,10 +1985,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
-        <v>1100347877</v>
+        <v>1100347840</v>
       </c>
       <c r="B26" s="25">
-        <v>45609</v>
+        <v>45603</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>48</v>
@@ -2005,10 +2005,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
-        <v>1010347884</v>
+        <v>1010347845</v>
       </c>
       <c r="B27" s="25">
-        <v>45610</v>
+        <v>45604</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>48</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
-        <v>1020347900</v>
+        <v>1100347846</v>
       </c>
       <c r="B28" s="25">
-        <v>45608</v>
+        <v>45604</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>48</v>
@@ -2045,10 +2045,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
-        <v>1010347885</v>
+        <v>1100347852</v>
       </c>
       <c r="B29" s="25">
-        <v>45610</v>
+        <v>45605</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>48</v>
@@ -2065,10 +2065,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
-        <v>1110347942</v>
+        <v>1020347918</v>
       </c>
       <c r="B30" s="25">
-        <v>45611</v>
+        <v>45609</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>48</v>
@@ -2085,10 +2085,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
-        <v>1020347901</v>
+        <v>1020347919</v>
       </c>
       <c r="B31" s="25">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>48</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
-        <v>1100347732</v>
+        <v>1020347920</v>
       </c>
       <c r="B32" s="25">
-        <v>45597</v>
+        <v>45609</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>48</v>
@@ -2125,10 +2125,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
-        <v>1010347733</v>
+        <v>1020347921</v>
       </c>
       <c r="B33" s="25">
-        <v>45597</v>
+        <v>45609</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>48</v>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
-        <v>1120347902</v>
+        <v>1020347922</v>
       </c>
       <c r="B34" s="25">
-        <v>45604</v>
+        <v>45609</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>48</v>
@@ -2165,10 +2165,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
-        <v>1100347736</v>
+        <v>1020347923</v>
       </c>
       <c r="B35" s="25">
-        <v>45598</v>
+        <v>45609</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>48</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
-        <v>1100347880</v>
+        <v>1100347935</v>
       </c>
       <c r="B36" s="25">
         <v>45609</v>
@@ -2205,10 +2205,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
-        <v>1110347738</v>
+        <v>1100347934</v>
       </c>
       <c r="B37" s="25">
-        <v>45601</v>
+        <v>45609</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>48</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
-        <v>1010347883</v>
+        <v>1100347936</v>
       </c>
       <c r="B38" s="25">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>48</v>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
-        <v>1010347940</v>
+        <v>1100347933</v>
       </c>
       <c r="B39" s="25">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>48</v>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
-        <v>1110347941</v>
+        <v>1100347931</v>
       </c>
       <c r="B40" s="25">
-        <v>45611</v>
+        <v>45608</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>48</v>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
-        <v>1010347939</v>
+        <v>1100347930</v>
       </c>
       <c r="B41" s="25">
-        <v>45611</v>
+        <v>45608</v>
       </c>
       <c r="C41" s="23" t="s">
         <v>48</v>
@@ -2305,10 +2305,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
-        <v>1100347729</v>
+        <v>1100347745</v>
       </c>
       <c r="B42" s="25">
-        <v>45597</v>
+        <v>45602</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>48</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
-        <v>1110347912</v>
+        <v>1100347932</v>
       </c>
       <c r="B43" s="25">
         <v>45608</v>
@@ -2345,10 +2345,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
-        <v>1010347731</v>
+        <v>1100347856</v>
       </c>
       <c r="B44" s="25">
-        <v>45597</v>
+        <v>45608</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>48</v>
@@ -2365,10 +2365,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
-        <v>1100347730</v>
+        <v>1100347857</v>
       </c>
       <c r="B45" s="25">
-        <v>45597</v>
+        <v>45608</v>
       </c>
       <c r="C45" s="23" t="s">
         <v>48</v>
@@ -2385,10 +2385,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
-        <v>1020347898</v>
+        <v>1100347937</v>
       </c>
       <c r="B46" s="25">
-        <v>45608</v>
+        <v>45609</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>48</v>
@@ -2405,10 +2405,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
-        <v>1110347913</v>
+        <v>1010347881</v>
       </c>
       <c r="B47" s="25">
-        <v>45608</v>
+        <v>45610</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>48</v>
@@ -2425,10 +2425,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
-        <v>1100347739</v>
+        <v>1010347882</v>
       </c>
       <c r="B48" s="25">
-        <v>45601</v>
+        <v>45610</v>
       </c>
       <c r="C48" s="23" t="s">
         <v>48</v>
@@ -2445,10 +2445,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
-        <v>1020347899</v>
+        <v>1010347938</v>
       </c>
       <c r="B49" s="25">
-        <v>45608</v>
+        <v>45611</v>
       </c>
       <c r="C49" s="23" t="s">
         <v>48</v>
@@ -2465,10 +2465,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
-        <v>1110347740</v>
+        <v>1100347746</v>
       </c>
       <c r="B50" s="25">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="C50" s="23" t="s">
         <v>48</v>
@@ -2485,10 +2485,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
-        <v>1120347903</v>
+        <v>1110347841</v>
       </c>
       <c r="B51" s="25">
-        <v>45604</v>
+        <v>45603</v>
       </c>
       <c r="C51" s="23" t="s">
         <v>48</v>
@@ -2505,10 +2505,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
-        <v>1120347904</v>
+        <v>1110347842</v>
       </c>
       <c r="B52" s="25">
-        <v>45604</v>
+        <v>45603</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>48</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
-        <v>1120347905</v>
+        <v>1010347847</v>
       </c>
       <c r="B53" s="25">
         <v>45604</v>
@@ -2545,10 +2545,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
-        <v>1100347743</v>
+        <v>1110347848</v>
       </c>
       <c r="B54" s="25">
-        <v>45602</v>
+        <v>45604</v>
       </c>
       <c r="C54" s="23" t="s">
         <v>48</v>
@@ -2565,10 +2565,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
-        <v>1120347906</v>
+        <v>1100347858</v>
       </c>
       <c r="B55" s="25">
-        <v>45604</v>
+        <v>45608</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>48</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
-        <v>1110347914</v>
+        <v>1100347859</v>
       </c>
       <c r="B56" s="25">
         <v>45608</v>
@@ -2605,10 +2605,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
-        <v>1120347907</v>
+        <v>1100347879</v>
       </c>
       <c r="B57" s="25">
-        <v>45604</v>
+        <v>45609</v>
       </c>
       <c r="C57" s="23" t="s">
         <v>48</v>
@@ -2625,10 +2625,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
-        <v>1110347915</v>
+        <v>1100347851</v>
       </c>
       <c r="B58" s="25">
-        <v>45608</v>
+        <v>45605</v>
       </c>
       <c r="C58" s="23" t="s">
         <v>48</v>
@@ -2645,10 +2645,10 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
-        <v>1110347916</v>
+        <v>1100347735</v>
       </c>
       <c r="B59" s="25">
-        <v>45608</v>
+        <v>45598</v>
       </c>
       <c r="C59" s="23" t="s">
         <v>48</v>
@@ -2665,10 +2665,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
-        <v>1110347917</v>
+        <v>1100347742</v>
       </c>
       <c r="B60" s="25">
-        <v>45608</v>
+        <v>45601</v>
       </c>
       <c r="C60" s="23" t="s">
         <v>48</v>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
-        <v>1100347744</v>
+        <v>1110347741</v>
       </c>
       <c r="B61" s="25">
-        <v>45602</v>
+        <v>45601</v>
       </c>
       <c r="C61" s="23" t="s">
         <v>48</v>
@@ -2705,10 +2705,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
-        <v>1110347839</v>
+        <v>1100347747</v>
       </c>
       <c r="B62" s="25">
-        <v>45603</v>
+        <v>45602</v>
       </c>
       <c r="C62" s="23" t="s">
         <v>48</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
-        <v>1100347840</v>
+        <v>1110347843</v>
       </c>
       <c r="B63" s="25">
         <v>45603</v>
@@ -2745,10 +2745,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
-        <v>1010347845</v>
+        <v>1110347844</v>
       </c>
       <c r="B64" s="25">
-        <v>45604</v>
+        <v>45603</v>
       </c>
       <c r="C64" s="23" t="s">
         <v>48</v>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
-        <v>1100347846</v>
+        <v>1010347849</v>
       </c>
       <c r="B65" s="25">
         <v>45604</v>
@@ -2785,10 +2785,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
-        <v>1100347852</v>
+        <v>1110347850</v>
       </c>
       <c r="B66" s="25">
-        <v>45605</v>
+        <v>45604</v>
       </c>
       <c r="C66" s="23" t="s">
         <v>48</v>
@@ -2805,10 +2805,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="24">
-        <v>1020347918</v>
+        <v>1100347853</v>
       </c>
       <c r="B67" s="25">
-        <v>45609</v>
+        <v>45605</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>48</v>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
-        <v>1020347919</v>
+        <v>1100347861</v>
       </c>
       <c r="B68" s="25">
-        <v>45609</v>
+        <v>45608</v>
       </c>
       <c r="C68" s="23" t="s">
         <v>48</v>
@@ -2845,10 +2845,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
-        <v>1020347920</v>
+        <v>1100347987</v>
       </c>
       <c r="B69" s="25">
-        <v>45609</v>
+        <v>45615</v>
       </c>
       <c r="C69" s="23" t="s">
         <v>48</v>
@@ -2865,10 +2865,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
-        <v>1020347921</v>
+        <v>1100347986</v>
       </c>
       <c r="B70" s="25">
-        <v>45609</v>
+        <v>45615</v>
       </c>
       <c r="C70" s="23" t="s">
         <v>48</v>
@@ -2885,10 +2885,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
-        <v>1020347922</v>
+        <v>1100347850</v>
       </c>
       <c r="B71" s="25">
-        <v>45609</v>
+        <v>45604</v>
       </c>
       <c r="C71" s="23" t="s">
         <v>48</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
-        <v>1020347923</v>
+        <v>1100347984</v>
       </c>
       <c r="B72" s="25">
-        <v>45609</v>
+        <v>45615</v>
       </c>
       <c r="C72" s="23" t="s">
         <v>48</v>
@@ -2925,10 +2925,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
-        <v>1100347935</v>
+        <v>1100347988</v>
       </c>
       <c r="B73" s="25">
-        <v>45609</v>
+        <v>45615</v>
       </c>
       <c r="C73" s="23" t="s">
         <v>48</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="24">
-        <v>1100347934</v>
+        <v>1010347734</v>
       </c>
       <c r="B74" s="25">
-        <v>45609</v>
+        <v>45597</v>
       </c>
       <c r="C74" s="23" t="s">
         <v>48</v>
@@ -2965,10 +2965,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="24">
-        <v>1100347936</v>
+        <v>1010347982</v>
       </c>
       <c r="B75" s="25">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="C75" s="23" t="s">
         <v>48</v>
@@ -2985,10 +2985,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="24">
-        <v>1100347933</v>
+        <v>1100347989</v>
       </c>
       <c r="B76" s="25">
-        <v>45614</v>
+        <v>45616</v>
       </c>
       <c r="C76" s="23" t="s">
         <v>48</v>
@@ -3005,10 +3005,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="24">
-        <v>1100347931</v>
+        <v>1100347992</v>
       </c>
       <c r="B77" s="25">
-        <v>45608</v>
+        <v>45616</v>
       </c>
       <c r="C77" s="23" t="s">
         <v>48</v>
@@ -3025,10 +3025,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="24">
-        <v>1100347930</v>
+        <v>1010347983</v>
       </c>
       <c r="B78" s="25">
-        <v>45608</v>
+        <v>45614</v>
       </c>
       <c r="C78" s="23" t="s">
         <v>48</v>
@@ -3045,10 +3045,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="24">
-        <v>1100347745</v>
+        <v>1110348013</v>
       </c>
       <c r="B79" s="25">
-        <v>45602</v>
+        <v>45617</v>
       </c>
       <c r="C79" s="23" t="s">
         <v>48</v>
@@ -3065,10 +3065,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="24">
-        <v>1100347932</v>
+        <v>1100348014</v>
       </c>
       <c r="B80" s="25">
-        <v>45608</v>
+        <v>45621</v>
       </c>
       <c r="C80" s="23" t="s">
         <v>48</v>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="24">
-        <v>1100347856</v>
+        <v>1010347979</v>
       </c>
       <c r="B81" s="25">
-        <v>45608</v>
+        <v>45614</v>
       </c>
       <c r="C81" s="23" t="s">
         <v>48</v>
@@ -3105,10 +3105,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="24">
-        <v>1100347857</v>
+        <v>1010347980</v>
       </c>
       <c r="B82" s="25">
-        <v>45608</v>
+        <v>45614</v>
       </c>
       <c r="C82" s="23" t="s">
         <v>48</v>
@@ -3125,10 +3125,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="24">
-        <v>1100347937</v>
+        <v>1010347985</v>
       </c>
       <c r="B83" s="25">
-        <v>45609</v>
+        <v>45615</v>
       </c>
       <c r="C83" s="23" t="s">
         <v>48</v>
@@ -3145,10 +3145,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="24">
-        <v>1010347881</v>
+        <v>1110347950</v>
       </c>
       <c r="B84" s="25">
-        <v>45610</v>
+        <v>45616</v>
       </c>
       <c r="C84" s="23" t="s">
         <v>48</v>
@@ -3165,10 +3165,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="24">
-        <v>1010347882</v>
+        <v>1110347951</v>
       </c>
       <c r="B85" s="25">
-        <v>45610</v>
+        <v>45616</v>
       </c>
       <c r="C85" s="23" t="s">
         <v>48</v>
@@ -3185,10 +3185,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="24">
-        <v>1010347938</v>
+        <v>1110347952</v>
       </c>
       <c r="B86" s="25">
-        <v>45611</v>
+        <v>45616</v>
       </c>
       <c r="C86" s="23" t="s">
         <v>48</v>
@@ -3205,10 +3205,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
-        <v>1100347746</v>
+        <v>1100347993</v>
       </c>
       <c r="B87" s="25">
-        <v>45602</v>
+        <v>45616</v>
       </c>
       <c r="C87" s="23" t="s">
         <v>48</v>
@@ -3225,10 +3225,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
-        <v>1110347841</v>
+        <v>1110347991</v>
       </c>
       <c r="B88" s="25">
-        <v>45603</v>
+        <v>45616</v>
       </c>
       <c r="C88" s="23" t="s">
         <v>48</v>
@@ -3245,10 +3245,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
-        <v>1110347842</v>
+        <v>1110347954</v>
       </c>
       <c r="B89" s="25">
-        <v>45603</v>
+        <v>45617</v>
       </c>
       <c r="C89" s="23" t="s">
         <v>48</v>
@@ -3265,10 +3265,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
-        <v>1010347847</v>
+        <v>1110347955</v>
       </c>
       <c r="B90" s="25">
-        <v>45604</v>
+        <v>45617</v>
       </c>
       <c r="C90" s="23" t="s">
         <v>48</v>
@@ -3285,10 +3285,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
-        <v>1110347848</v>
+        <v>1110347978</v>
       </c>
       <c r="B91" s="25">
-        <v>45604</v>
+        <v>45614</v>
       </c>
       <c r="C91" s="23" t="s">
         <v>48</v>
@@ -3305,10 +3305,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
-        <v>1100347858</v>
+        <v>1110347956</v>
       </c>
       <c r="B92" s="25">
-        <v>45608</v>
+        <v>45617</v>
       </c>
       <c r="C92" s="23" t="s">
         <v>48</v>
@@ -3325,10 +3325,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="24">
-        <v>1100347859</v>
+        <v>1110347981</v>
       </c>
       <c r="B93" s="25">
-        <v>45608</v>
+        <v>45614</v>
       </c>
       <c r="C93" s="23" t="s">
         <v>48</v>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="24">
-        <v>1100347879</v>
+        <v>1110347957</v>
       </c>
       <c r="B94" s="25">
-        <v>45609</v>
+        <v>45617</v>
       </c>
       <c r="C94" s="23" t="s">
         <v>48</v>
@@ -3365,10 +3365,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
-        <v>1100347851</v>
+        <v>1120347990</v>
       </c>
       <c r="B95" s="25">
-        <v>45605</v>
+        <v>45616</v>
       </c>
       <c r="C95" s="23" t="s">
         <v>48</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="24">
-        <v>1100347735</v>
+        <v>1110347958</v>
       </c>
       <c r="B96" s="25">
-        <v>45598</v>
+        <v>45617</v>
       </c>
       <c r="C96" s="23" t="s">
         <v>48</v>
@@ -3405,10 +3405,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="24">
-        <v>1100347742</v>
+        <v>1110347959</v>
       </c>
       <c r="B97" s="25">
-        <v>45601</v>
+        <v>45617</v>
       </c>
       <c r="C97" s="23" t="s">
         <v>48</v>
@@ -3425,10 +3425,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="24">
-        <v>1110347741</v>
+        <v>1130347964</v>
       </c>
       <c r="B98" s="25">
-        <v>45601</v>
+        <v>45618</v>
       </c>
       <c r="C98" s="23" t="s">
         <v>48</v>
@@ -3445,10 +3445,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
-        <v>1100347747</v>
+        <v>1130347965</v>
       </c>
       <c r="B99" s="25">
-        <v>45602</v>
+        <v>45618</v>
       </c>
       <c r="C99" s="23" t="s">
         <v>48</v>
@@ -3465,10 +3465,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
-        <v>1110347843</v>
+        <v>1130347966</v>
       </c>
       <c r="B100" s="25">
-        <v>45603</v>
+        <v>45618</v>
       </c>
       <c r="C100" s="23" t="s">
         <v>48</v>
@@ -3485,10 +3485,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
-        <v>1110347844</v>
+        <v>1130347967</v>
       </c>
       <c r="B101" s="25">
-        <v>45603</v>
+        <v>45618</v>
       </c>
       <c r="C101" s="23" t="s">
         <v>48</v>
@@ -3505,10 +3505,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
-        <v>1010347849</v>
+        <v>1100348019</v>
       </c>
       <c r="B102" s="25">
-        <v>45604</v>
+        <v>45622</v>
       </c>
       <c r="C102" s="23" t="s">
         <v>48</v>
@@ -3525,10 +3525,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="24">
-        <v>1110347850</v>
+        <v>1130347968</v>
       </c>
       <c r="B103" s="25">
-        <v>45604</v>
+        <v>45618</v>
       </c>
       <c r="C103" s="23" t="s">
         <v>48</v>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
-        <v>1100347853</v>
+        <v>1110348020</v>
       </c>
       <c r="B104" s="25">
-        <v>45605</v>
+        <v>45624</v>
       </c>
       <c r="C104" s="23" t="s">
         <v>48</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
-        <v>1100347861</v>
+        <v>1130347953</v>
       </c>
       <c r="B105" s="25">
-        <v>45608</v>
+        <v>45614</v>
       </c>
       <c r="C105" s="23" t="s">
         <v>48</v>
@@ -3585,10 +3585,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="24">
-        <v>1100347987</v>
+        <v>1130347977</v>
       </c>
       <c r="B106" s="25">
-        <v>45615</v>
+        <v>45621</v>
       </c>
       <c r="C106" s="23" t="s">
         <v>48</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="24">
-        <v>1100347986</v>
+        <v>1020347975</v>
       </c>
       <c r="B107" s="25">
         <v>45615</v>
@@ -3625,10 +3625,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
-        <v>1100347850</v>
+        <v>1130347969</v>
       </c>
       <c r="B108" s="25">
-        <v>45604</v>
+        <v>45618</v>
       </c>
       <c r="C108" s="23" t="s">
         <v>48</v>
@@ -3645,10 +3645,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
-        <v>1100347984</v>
+        <v>1110347947</v>
       </c>
       <c r="B109" s="25">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="C109" s="23" t="s">
         <v>48</v>
@@ -3665,10 +3665,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
-        <v>1100347988</v>
+        <v>1110347948</v>
       </c>
       <c r="B110" s="25">
-        <v>45615</v>
+        <v>45616</v>
       </c>
       <c r="C110" s="23" t="s">
         <v>48</v>
@@ -3685,10 +3685,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
-        <v>1010347734</v>
+        <v>1130347976</v>
       </c>
       <c r="B111" s="25">
-        <v>45597</v>
+        <v>45621</v>
       </c>
       <c r="C111" s="23" t="s">
         <v>48</v>
@@ -3705,10 +3705,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
-        <v>1010347982</v>
+        <v>1110347949</v>
       </c>
       <c r="B112" s="25">
-        <v>45614</v>
+        <v>45616</v>
       </c>
       <c r="C112" s="23" t="s">
         <v>48</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
-        <v>1100347989</v>
+        <v>1100348017</v>
       </c>
       <c r="B113" s="25">
         <v>45616</v>
@@ -3745,10 +3745,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
-        <v>1100347992</v>
+        <v>1100348018</v>
       </c>
       <c r="B114" s="25">
-        <v>45616</v>
+        <v>45617</v>
       </c>
       <c r="C114" s="23" t="s">
         <v>48</v>
@@ -3765,10 +3765,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
-        <v>1010347983</v>
+        <v>1130348015</v>
       </c>
       <c r="B115" s="25">
-        <v>45614</v>
+        <v>45617</v>
       </c>
       <c r="C115" s="23" t="s">
         <v>48</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="24">
-        <v>1110348013</v>
+        <v>1130348016</v>
       </c>
       <c r="B116" s="25">
         <v>45617</v>
@@ -3805,10 +3805,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
-        <v>1100348014</v>
+        <v>1110348029</v>
       </c>
       <c r="B117" s="25">
-        <v>45621</v>
+        <v>45624</v>
       </c>
       <c r="C117" s="23" t="s">
         <v>48</v>
@@ -3820,746 +3820,6 @@
         <v>16</v>
       </c>
       <c r="F117" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="24">
-        <v>1010347979</v>
-      </c>
-      <c r="B118" s="25">
-        <v>45614</v>
-      </c>
-      <c r="C118" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D118" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E118" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F118" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="24">
-        <v>1010347980</v>
-      </c>
-      <c r="B119" s="25">
-        <v>45614</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D119" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E119" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F119" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="24">
-        <v>1010347985</v>
-      </c>
-      <c r="B120" s="25">
-        <v>45615</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D120" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E120" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F120" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="24">
-        <v>1110347950</v>
-      </c>
-      <c r="B121" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C121" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D121" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E121" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F121" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="24">
-        <v>1110347951</v>
-      </c>
-      <c r="B122" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C122" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D122" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E122" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F122" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="24">
-        <v>1110347952</v>
-      </c>
-      <c r="B123" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C123" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D123" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E123" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F123" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="24">
-        <v>1100347993</v>
-      </c>
-      <c r="B124" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C124" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D124" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E124" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F124" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="24">
-        <v>1110347991</v>
-      </c>
-      <c r="B125" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C125" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D125" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E125" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F125" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="24">
-        <v>1110347954</v>
-      </c>
-      <c r="B126" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C126" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D126" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E126" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F126" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="24">
-        <v>1110347955</v>
-      </c>
-      <c r="B127" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C127" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D127" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E127" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F127" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="24">
-        <v>1110347978</v>
-      </c>
-      <c r="B128" s="25">
-        <v>45614</v>
-      </c>
-      <c r="C128" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D128" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E128" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F128" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="24">
-        <v>1110347956</v>
-      </c>
-      <c r="B129" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C129" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D129" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E129" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F129" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="24">
-        <v>1110347981</v>
-      </c>
-      <c r="B130" s="25">
-        <v>45614</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D130" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E130" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F130" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="24">
-        <v>1110347957</v>
-      </c>
-      <c r="B131" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C131" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D131" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E131" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F131" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="24">
-        <v>1120347990</v>
-      </c>
-      <c r="B132" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D132" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E132" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F132" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="24">
-        <v>1110347958</v>
-      </c>
-      <c r="B133" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C133" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D133" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E133" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F133" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="24">
-        <v>1110347959</v>
-      </c>
-      <c r="B134" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C134" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D134" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E134" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F134" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="24">
-        <v>1130347964</v>
-      </c>
-      <c r="B135" s="25">
-        <v>45618</v>
-      </c>
-      <c r="C135" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D135" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E135" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F135" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="24">
-        <v>1130347965</v>
-      </c>
-      <c r="B136" s="25">
-        <v>45618</v>
-      </c>
-      <c r="C136" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D136" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E136" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F136" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="24">
-        <v>1130347966</v>
-      </c>
-      <c r="B137" s="25">
-        <v>45618</v>
-      </c>
-      <c r="C137" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D137" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E137" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F137" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="24">
-        <v>1130347967</v>
-      </c>
-      <c r="B138" s="25">
-        <v>45618</v>
-      </c>
-      <c r="C138" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D138" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E138" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F138" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="24">
-        <v>1100348019</v>
-      </c>
-      <c r="B139" s="25">
-        <v>45622</v>
-      </c>
-      <c r="C139" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D139" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E139" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F139" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="24">
-        <v>1130347968</v>
-      </c>
-      <c r="B140" s="25">
-        <v>45618</v>
-      </c>
-      <c r="C140" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D140" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E140" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F140" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="24">
-        <v>1110348020</v>
-      </c>
-      <c r="B141" s="25">
-        <v>45624</v>
-      </c>
-      <c r="C141" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D141" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E141" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F141" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="24">
-        <v>1130347953</v>
-      </c>
-      <c r="B142" s="25">
-        <v>45614</v>
-      </c>
-      <c r="C142" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D142" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E142" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F142" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="24">
-        <v>1130347977</v>
-      </c>
-      <c r="B143" s="25">
-        <v>45621</v>
-      </c>
-      <c r="C143" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D143" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E143" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F143" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="24">
-        <v>1020347975</v>
-      </c>
-      <c r="B144" s="25">
-        <v>45615</v>
-      </c>
-      <c r="C144" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D144" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E144" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F144" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="24">
-        <v>1130347969</v>
-      </c>
-      <c r="B145" s="25">
-        <v>45618</v>
-      </c>
-      <c r="C145" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D145" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E145" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F145" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="24">
-        <v>1110347947</v>
-      </c>
-      <c r="B146" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C146" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D146" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E146" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F146" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="24">
-        <v>1110347948</v>
-      </c>
-      <c r="B147" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C147" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D147" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E147" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F147" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="24">
-        <v>1130347976</v>
-      </c>
-      <c r="B148" s="25">
-        <v>45621</v>
-      </c>
-      <c r="C148" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D148" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E148" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F148" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="24">
-        <v>1110347949</v>
-      </c>
-      <c r="B149" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C149" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D149" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E149" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F149" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="24">
-        <v>1100348017</v>
-      </c>
-      <c r="B150" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C150" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D150" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E150" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F150" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="24">
-        <v>1100348018</v>
-      </c>
-      <c r="B151" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C151" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D151" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E151" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F151" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="24">
-        <v>1130348015</v>
-      </c>
-      <c r="B152" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C152" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D152" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E152" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F152" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="24">
-        <v>1130348016</v>
-      </c>
-      <c r="B153" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C153" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D153" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E153" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F153" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="24">
-        <v>1110348029</v>
-      </c>
-      <c r="B154" s="25">
-        <v>45624</v>
-      </c>
-      <c r="C154" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D154" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E154" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F154" s="23" t="s">
         <v>0</v>
       </c>
     </row>

--- a/crear_hc/crearIndividualfinal.xlsx
+++ b/crear_hc/crearIndividualfinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perfil\Documentos\validatorsGesi\crear_hc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B868EEBA-2A8B-4ADF-BD8E-F15869A82722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38CCAF5-6949-4408-A129-83C0F4E34C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2970" windowWidth="15690" windowHeight="12090" xr2:uid="{1E1DA38D-84A9-4484-9C3F-DE72970EE216}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E1DA38D-84A9-4484-9C3F-DE72970EE216}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6162" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5730" uniqueCount="142">
   <si>
     <t>1608-Enfermero</t>
   </si>
@@ -1108,13 +1108,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1470,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3929B7C0-7F9D-42E7-ADAB-474CC0CA7F65}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,11 +1484,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="24">
-        <v>1010347883</v>
-      </c>
-      <c r="B1" s="25">
-        <v>45610</v>
+      <c r="A1" s="25">
+        <v>1130347761</v>
+      </c>
+      <c r="B1" s="26">
+        <v>45601</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>48</v>
@@ -1496,19 +1496,19 @@
       <c r="D1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>16</v>
+      <c r="E1" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
-        <v>1010347940</v>
-      </c>
-      <c r="B2" s="25">
-        <v>45611</v>
+      <c r="A2" s="25">
+        <v>1100347801</v>
+      </c>
+      <c r="B2" s="26">
+        <v>45601</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>48</v>
@@ -1516,19 +1516,19 @@
       <c r="D2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>16</v>
+      <c r="E2" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>1110347941</v>
-      </c>
-      <c r="B3" s="25">
-        <v>45611</v>
+      <c r="A3" s="25">
+        <v>1110347961</v>
+      </c>
+      <c r="B3" s="26">
+        <v>45614</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>48</v>
@@ -1536,19 +1536,19 @@
       <c r="D3" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>16</v>
+      <c r="E3" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
-        <v>1010347939</v>
-      </c>
-      <c r="B4" s="25">
-        <v>45611</v>
+      <c r="A4" s="25">
+        <v>1100347944</v>
+      </c>
+      <c r="B4" s="26">
+        <v>45608</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>48</v>
@@ -1556,19 +1556,19 @@
       <c r="D4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>16</v>
+      <c r="E4" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>1100347729</v>
-      </c>
-      <c r="B5" s="25">
-        <v>45597</v>
+      <c r="A5" s="25">
+        <v>1110347946</v>
+      </c>
+      <c r="B5" s="26">
+        <v>45608</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>48</v>
@@ -1576,19 +1576,19 @@
       <c r="D5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>16</v>
+      <c r="E5" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>1110347912</v>
-      </c>
-      <c r="B6" s="25">
-        <v>45608</v>
+      <c r="A6" s="25">
+        <v>1100348023</v>
+      </c>
+      <c r="B6" s="26">
+        <v>45624</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>48</v>
@@ -1596,19 +1596,19 @@
       <c r="D6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>16</v>
+      <c r="E6" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>1010347731</v>
-      </c>
-      <c r="B7" s="25">
-        <v>45597</v>
+      <c r="A7" s="25">
+        <v>1100348024</v>
+      </c>
+      <c r="B7" s="26">
+        <v>45624</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>48</v>
@@ -1616,19 +1616,19 @@
       <c r="D7" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>16</v>
+      <c r="E7" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>1100347730</v>
-      </c>
-      <c r="B8" s="25">
-        <v>45597</v>
+      <c r="A8" s="25">
+        <v>1100348025</v>
+      </c>
+      <c r="B8" s="26">
+        <v>45624</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>48</v>
@@ -1636,19 +1636,19 @@
       <c r="D8" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>16</v>
+      <c r="E8" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>1020347898</v>
-      </c>
-      <c r="B9" s="25">
-        <v>45608</v>
+      <c r="A9" s="25">
+        <v>1120348027</v>
+      </c>
+      <c r="B9" s="26">
+        <v>45624</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>48</v>
@@ -1656,2170 +1656,10 @@
       <c r="D9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>16</v>
+      <c r="E9" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>1110347913</v>
-      </c>
-      <c r="B10" s="25">
-        <v>45608</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>1100347739</v>
-      </c>
-      <c r="B11" s="25">
-        <v>45601</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>1020347899</v>
-      </c>
-      <c r="B12" s="25">
-        <v>45608</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>1110347740</v>
-      </c>
-      <c r="B13" s="25">
-        <v>45601</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>1120347903</v>
-      </c>
-      <c r="B14" s="25">
-        <v>45604</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>1120347904</v>
-      </c>
-      <c r="B15" s="25">
-        <v>45604</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <v>1120347905</v>
-      </c>
-      <c r="B16" s="25">
-        <v>45604</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>1100347743</v>
-      </c>
-      <c r="B17" s="25">
-        <v>45602</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
-        <v>1120347906</v>
-      </c>
-      <c r="B18" s="25">
-        <v>45604</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>1110347914</v>
-      </c>
-      <c r="B19" s="25">
-        <v>45608</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
-        <v>1120347907</v>
-      </c>
-      <c r="B20" s="25">
-        <v>45604</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>1110347915</v>
-      </c>
-      <c r="B21" s="25">
-        <v>45608</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
-        <v>1110347916</v>
-      </c>
-      <c r="B22" s="25">
-        <v>45608</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>1110347917</v>
-      </c>
-      <c r="B23" s="25">
-        <v>45608</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
-        <v>1100347744</v>
-      </c>
-      <c r="B24" s="25">
-        <v>45602</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>1110347839</v>
-      </c>
-      <c r="B25" s="25">
-        <v>45603</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
-        <v>1100347840</v>
-      </c>
-      <c r="B26" s="25">
-        <v>45603</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
-        <v>1010347845</v>
-      </c>
-      <c r="B27" s="25">
-        <v>45604</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
-        <v>1100347846</v>
-      </c>
-      <c r="B28" s="25">
-        <v>45604</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
-        <v>1100347852</v>
-      </c>
-      <c r="B29" s="25">
-        <v>45605</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
-        <v>1020347918</v>
-      </c>
-      <c r="B30" s="25">
-        <v>45609</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
-        <v>1020347919</v>
-      </c>
-      <c r="B31" s="25">
-        <v>45609</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
-        <v>1020347920</v>
-      </c>
-      <c r="B32" s="25">
-        <v>45609</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
-        <v>1020347921</v>
-      </c>
-      <c r="B33" s="25">
-        <v>45609</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
-        <v>1020347922</v>
-      </c>
-      <c r="B34" s="25">
-        <v>45609</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
-        <v>1020347923</v>
-      </c>
-      <c r="B35" s="25">
-        <v>45609</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
-        <v>1100347935</v>
-      </c>
-      <c r="B36" s="25">
-        <v>45609</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
-        <v>1100347934</v>
-      </c>
-      <c r="B37" s="25">
-        <v>45609</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
-        <v>1100347936</v>
-      </c>
-      <c r="B38" s="25">
-        <v>45611</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
-        <v>1100347933</v>
-      </c>
-      <c r="B39" s="25">
-        <v>45614</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
-        <v>1100347931</v>
-      </c>
-      <c r="B40" s="25">
-        <v>45608</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
-        <v>1100347930</v>
-      </c>
-      <c r="B41" s="25">
-        <v>45608</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
-        <v>1100347745</v>
-      </c>
-      <c r="B42" s="25">
-        <v>45602</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
-        <v>1100347932</v>
-      </c>
-      <c r="B43" s="25">
-        <v>45608</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
-        <v>1100347856</v>
-      </c>
-      <c r="B44" s="25">
-        <v>45608</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
-        <v>1100347857</v>
-      </c>
-      <c r="B45" s="25">
-        <v>45608</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
-        <v>1100347937</v>
-      </c>
-      <c r="B46" s="25">
-        <v>45609</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
-        <v>1010347881</v>
-      </c>
-      <c r="B47" s="25">
-        <v>45610</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
-        <v>1010347882</v>
-      </c>
-      <c r="B48" s="25">
-        <v>45610</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
-        <v>1010347938</v>
-      </c>
-      <c r="B49" s="25">
-        <v>45611</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="24">
-        <v>1100347746</v>
-      </c>
-      <c r="B50" s="25">
-        <v>45602</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
-        <v>1110347841</v>
-      </c>
-      <c r="B51" s="25">
-        <v>45603</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="24">
-        <v>1110347842</v>
-      </c>
-      <c r="B52" s="25">
-        <v>45603</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="24">
-        <v>1010347847</v>
-      </c>
-      <c r="B53" s="25">
-        <v>45604</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="24">
-        <v>1110347848</v>
-      </c>
-      <c r="B54" s="25">
-        <v>45604</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="24">
-        <v>1100347858</v>
-      </c>
-      <c r="B55" s="25">
-        <v>45608</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="24">
-        <v>1100347859</v>
-      </c>
-      <c r="B56" s="25">
-        <v>45608</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="24">
-        <v>1100347879</v>
-      </c>
-      <c r="B57" s="25">
-        <v>45609</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="24">
-        <v>1100347851</v>
-      </c>
-      <c r="B58" s="25">
-        <v>45605</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="24">
-        <v>1100347735</v>
-      </c>
-      <c r="B59" s="25">
-        <v>45598</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="24">
-        <v>1100347742</v>
-      </c>
-      <c r="B60" s="25">
-        <v>45601</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="24">
-        <v>1110347741</v>
-      </c>
-      <c r="B61" s="25">
-        <v>45601</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="24">
-        <v>1100347747</v>
-      </c>
-      <c r="B62" s="25">
-        <v>45602</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="24">
-        <v>1110347843</v>
-      </c>
-      <c r="B63" s="25">
-        <v>45603</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="24">
-        <v>1110347844</v>
-      </c>
-      <c r="B64" s="25">
-        <v>45603</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="24">
-        <v>1010347849</v>
-      </c>
-      <c r="B65" s="25">
-        <v>45604</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="24">
-        <v>1110347850</v>
-      </c>
-      <c r="B66" s="25">
-        <v>45604</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="24">
-        <v>1100347853</v>
-      </c>
-      <c r="B67" s="25">
-        <v>45605</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="24">
-        <v>1100347861</v>
-      </c>
-      <c r="B68" s="25">
-        <v>45608</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="24">
-        <v>1100347987</v>
-      </c>
-      <c r="B69" s="25">
-        <v>45615</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="24">
-        <v>1100347986</v>
-      </c>
-      <c r="B70" s="25">
-        <v>45615</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="24">
-        <v>1100347850</v>
-      </c>
-      <c r="B71" s="25">
-        <v>45604</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="24">
-        <v>1100347984</v>
-      </c>
-      <c r="B72" s="25">
-        <v>45615</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="24">
-        <v>1100347988</v>
-      </c>
-      <c r="B73" s="25">
-        <v>45615</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="24">
-        <v>1010347734</v>
-      </c>
-      <c r="B74" s="25">
-        <v>45597</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="24">
-        <v>1010347982</v>
-      </c>
-      <c r="B75" s="25">
-        <v>45614</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="24">
-        <v>1100347989</v>
-      </c>
-      <c r="B76" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="24">
-        <v>1100347992</v>
-      </c>
-      <c r="B77" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D77" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="24">
-        <v>1010347983</v>
-      </c>
-      <c r="B78" s="25">
-        <v>45614</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="24">
-        <v>1110348013</v>
-      </c>
-      <c r="B79" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D79" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="24">
-        <v>1100348014</v>
-      </c>
-      <c r="B80" s="25">
-        <v>45621</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="24">
-        <v>1010347979</v>
-      </c>
-      <c r="B81" s="25">
-        <v>45614</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D81" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="24">
-        <v>1010347980</v>
-      </c>
-      <c r="B82" s="25">
-        <v>45614</v>
-      </c>
-      <c r="C82" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="24">
-        <v>1010347985</v>
-      </c>
-      <c r="B83" s="25">
-        <v>45615</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E83" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="24">
-        <v>1110347950</v>
-      </c>
-      <c r="B84" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C84" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E84" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="24">
-        <v>1110347951</v>
-      </c>
-      <c r="B85" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="24">
-        <v>1110347952</v>
-      </c>
-      <c r="B86" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D86" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E86" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="24">
-        <v>1100347993</v>
-      </c>
-      <c r="B87" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="24">
-        <v>1110347991</v>
-      </c>
-      <c r="B88" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="24">
-        <v>1110347954</v>
-      </c>
-      <c r="B89" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D89" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E89" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F89" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="24">
-        <v>1110347955</v>
-      </c>
-      <c r="B90" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C90" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="24">
-        <v>1110347978</v>
-      </c>
-      <c r="B91" s="25">
-        <v>45614</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E91" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F91" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="24">
-        <v>1110347956</v>
-      </c>
-      <c r="B92" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F92" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="24">
-        <v>1110347981</v>
-      </c>
-      <c r="B93" s="25">
-        <v>45614</v>
-      </c>
-      <c r="C93" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D93" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E93" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F93" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="24">
-        <v>1110347957</v>
-      </c>
-      <c r="B94" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C94" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="24">
-        <v>1120347990</v>
-      </c>
-      <c r="B95" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F95" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="24">
-        <v>1110347958</v>
-      </c>
-      <c r="B96" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E96" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="24">
-        <v>1110347959</v>
-      </c>
-      <c r="B97" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C97" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="24">
-        <v>1130347964</v>
-      </c>
-      <c r="B98" s="25">
-        <v>45618</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E98" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="24">
-        <v>1130347965</v>
-      </c>
-      <c r="B99" s="25">
-        <v>45618</v>
-      </c>
-      <c r="C99" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D99" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E99" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F99" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="24">
-        <v>1130347966</v>
-      </c>
-      <c r="B100" s="25">
-        <v>45618</v>
-      </c>
-      <c r="C100" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F100" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="24">
-        <v>1130347967</v>
-      </c>
-      <c r="B101" s="25">
-        <v>45618</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E101" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F101" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="24">
-        <v>1100348019</v>
-      </c>
-      <c r="B102" s="25">
-        <v>45622</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E102" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="24">
-        <v>1130347968</v>
-      </c>
-      <c r="B103" s="25">
-        <v>45618</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D103" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E103" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F103" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="24">
-        <v>1110348020</v>
-      </c>
-      <c r="B104" s="25">
-        <v>45624</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="24">
-        <v>1130347953</v>
-      </c>
-      <c r="B105" s="25">
-        <v>45614</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D105" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E105" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F105" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="24">
-        <v>1130347977</v>
-      </c>
-      <c r="B106" s="25">
-        <v>45621</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E106" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F106" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="24">
-        <v>1020347975</v>
-      </c>
-      <c r="B107" s="25">
-        <v>45615</v>
-      </c>
-      <c r="C107" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D107" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E107" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="24">
-        <v>1130347969</v>
-      </c>
-      <c r="B108" s="25">
-        <v>45618</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D108" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E108" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F108" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="24">
-        <v>1110347947</v>
-      </c>
-      <c r="B109" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E109" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F109" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="24">
-        <v>1110347948</v>
-      </c>
-      <c r="B110" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E110" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="24">
-        <v>1130347976</v>
-      </c>
-      <c r="B111" s="25">
-        <v>45621</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D111" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E111" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F111" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="24">
-        <v>1110347949</v>
-      </c>
-      <c r="B112" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D112" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E112" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F112" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="24">
-        <v>1100348017</v>
-      </c>
-      <c r="B113" s="25">
-        <v>45616</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D113" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E113" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F113" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="24">
-        <v>1100348018</v>
-      </c>
-      <c r="B114" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D114" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E114" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F114" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="24">
-        <v>1130348015</v>
-      </c>
-      <c r="B115" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C115" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D115" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E115" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F115" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="24">
-        <v>1130348016</v>
-      </c>
-      <c r="B116" s="25">
-        <v>45617</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E116" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F116" s="23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="24">
-        <v>1110348029</v>
-      </c>
-      <c r="B117" s="25">
-        <v>45624</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D117" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E117" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F117" s="23" t="s">
         <v>0</v>
       </c>
     </row>
